--- a/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B57FDA-DFCF-43C0-ADA2-673C18D3000A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE973A40-E688-4C5B-B195-58B1EF8B6ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="729">
   <si>
     <t>id</t>
   </si>
@@ -1842,363 +1842,6 @@
     <t>EA 23.17</t>
   </si>
   <si>
-    <t>在长途跋涉之后，你终于到达了北提里斯。你还不知道在这片新天地之中有什么在等待着你。目前就把开始新生活并维持生计作为目标吧。</t>
-  </si>
-  <si>
-    <t>请阅读从阿什兰德手中拿到的土地产权证，获得土地所有权吧。</t>
-  </si>
-  <si>
-    <t>你阅读产权证得到了土地。向阿什兰德报告吧。</t>
-  </si>
-  <si>
-    <t>米西利亚为了自身的存续和复兴正迫切需要更多盟友。新天地如果能继续发展下去，也许会得到米西利亚方的联系。</t>
-  </si>
-  <si>
-    <t>被住在古旧洋房里的神秘少女梅丽利丝拜托参加她的「寻宝」游戏。需要潜入洋房的地下深处，得到隐藏的宝物。但是，梅丽利丝对我忠告到「能带回去的宝物只有一个」。</t>
-  </si>
-  <si>
-    <t>在古旧洋房的地下深处得到了「宝藏」。回到地上向梅丽利丝报告吧。</t>
-  </si>
-  <si>
-    <t>你大病初愈还是有些没什么精神呢。不如喝点缓解疲劳的热库莱姆吧。库莱姆果实很容易采摘，还能用来当做食材和药材。采3个库莱姆果实来，我会教你制作方法。如果有什么不懂的就去问阿什吧。|你已经采集到库莱姆的果实了呢。我把水放到你脚边了。制作热库莱姆需要库莱姆果实、水还有热源。用阿什那边的篝火加热就能做出来了。做好热库莱姆后就拿来这里吧。会给你奖励哦。</t>
-  </si>
-  <si>
-    <t>驯兽任务</t>
-  </si>
-  <si>
-    <t>距离袭击还有#1天。|袭击中。</t>
-  </si>
-  <si>
-    <t>过来一下。</t>
-  </si>
-  <si>
-    <t>坑</t>
-  </si>
-  <si>
-    <t>无论做什么都需要人手啊。|去招募一个居民吧。</t>
-  </si>
-  <si>
-    <t>|去招募十个居民吧。</t>
-  </si>
-  <si>
-    <t>我来教你一个重要的知识。|单击鼠标中键（或R键）将库存的容器拿在手里，右键单击地面进行安装。
-点击打开容器后会在右侧显示锁头的图标，点击此图标就可以改变容器的权限。全部完成之后向阿什兰德报告吧。</t>
-  </si>
-  <si>
-    <t>在这世道也许应该做点战斗训练比较好。|打死被拘束的朋克之后向阿什兰德报告吧。</t>
-  </si>
-  <si>
-    <t>|用远程武器或道具，打败被拘束的野猪吧。</t>
-  </si>
-  <si>
-    <t>|打倒任意的100个敌人之后向阿什兰德报告吧。</t>
-  </si>
-  <si>
-    <t>我有想教给你的事。|菲亚玛让你试着打开宝箱。打开宝箱后向菲亚玛报告。</t>
-  </si>
-  <si>
-    <t>我想让你去搜救小狗。|菲亚玛拜托你去寻找失踪的小狗。据说小狗误入了家园西北方的「小狗洞窟」。</t>
-  </si>
-  <si>
-    <t>|你保护了菲亚玛要寻找的小狗。需要把小狗平安带回她身边并报告。</t>
-  </si>
-  <si>
-    <t>只要造一栋房子出来，你就是独当一面的工匠了。|你需要砍树收集原木，然后通过「简易制造」制造「制作台」。将制作台安装在地面之后，就去向阿什兰德报告吧。</t>
-  </si>
-  <si>
-    <t>|用「制作台」制作「火把」，把它装备在光源栏之后，再向阿什兰德报告吧。</t>
-  </si>
-  <si>
-    <t>|阿什兰德让你将在家园中建造第一栋房子作为目标。用墙围住合适的空地再装一个门，房子就造好了。用「制作台」可以造墙壁和门。建造一座漂亮的屋子后去向阿什兰德报告吧。</t>
-  </si>
-  <si>
-    <t>这件事确实是让人有些难以开口…|你得知自己有纳税的义务。首先要等待税金账单送到才行。</t>
-  </si>
-  <si>
-    <t>|你拿到了税金账单。向城镇东南边前进就能在米西利亚的办公厅纳税。</t>
-  </si>
-  <si>
-    <t>让我告诉你关于提里斯议会的事情吧。|北提里斯每月都会由提里斯联盟召开议会。或许你应该去和议员们打个照面，拓展一下人脉。</t>
-  </si>
-  <si>
-    <t>试着探索一下周边吧？|阿什兰德拜托你调查尼米尔。尼米尔就在家园东南方向。</t>
-  </si>
-  <si>
-    <t>|你在尼米尔见到了名为法莉斯的歌手。在家园中和法莉斯对话，应该可以得到一些信息。</t>
-  </si>
-  <si>
-    <t>|探索尼米尔深处也许可以找到什么。</t>
-  </si>
-  <si>
-    <t>|你打败了阻止你探索尼米尔深层的帝国部队。继续前进探索尼米尔的秘密吧。</t>
-  </si>
-  <si>
-    <t>|尼米尔的最深处有魔石。必须返回家园向阿什兰德报告。</t>
-  </si>
-  <si>
-    <t>有个想介绍给你的人。|</t>
-  </si>
-  <si>
-    <t>该去赚钱啦。|罗伊特尔拜托你制作出货箱。用他交给你的素材制作出货箱，并安装到地面，再去向罗伊特尔报告吧。出货箱一定要用帕露露木制作。</t>
-  </si>
-  <si>
-    <t>过来一下。|罗伊特尔让你带锄头和铲子给他。制作这两种农具，然后和罗伊特尔对话吧。</t>
-  </si>
-  <si>
-    <t>阿什他们似乎有什么话要对你说。</t>
-  </si>
-  <si>
-    <t>天空好美啊。</t>
-  </si>
-  <si>
-    <t>好像有人来到了开拓地。</t>
-  </si>
-  <si>
-    <t>味道闻起来很不错。</t>
-  </si>
-  <si>
-    <t>哼哼哼♪</t>
-  </si>
-  <si>
-    <t>他看起来一副闷闷不乐的表情呢。</t>
-  </si>
-  <si>
-    <t>（嘀嘀咕咕）</t>
-  </si>
-  <si>
-    <t>凯特尔大人也许知道些什么？|从凯特尔那里听说了韦尔尼斯地下沉睡着黄金的消息。做好开拓韦尔尼斯的准备后和罗伊特尔搭话吧。</t>
-  </si>
-  <si>
-    <t>从最初的据点向北走就能找到韦尔尼斯。到达韦尔尼斯后，向在现场等待的罗伊特尔报告吧。</t>
-  </si>
-  <si>
-    <t>做好开拓的准备后和罗伊特尔搭话吧。</t>
-  </si>
-  <si>
-    <t>罗伊特尔给了你手工炸弹「炎烧」的配方。利用炸弹破坏巨大的岩石，然后去韦尔尼斯向罗伊特尔报告吧。</t>
-  </si>
-  <si>
-    <t>罗伊特尔给了你「土地产权证」。获得韦尔尼斯的产权之后，就向罗伊特尔报告吧。</t>
-  </si>
-  <si>
-    <t>韦尔尼斯的开拓开始了。在韦尔尼斯盟约之石的等级成长后，再向罗伊特尔报告吧。如果不明白让盟约之石成长的方法，可以去找罗伊特尔聊聊。另外，需要通过委托告示板和库罗茨亚他们推进对话剧情。</t>
-  </si>
-  <si>
-    <t>韦尔尼斯地下出现了龙。做好消灭龙的心理准备就和罗伊特尔说话吧。</t>
-  </si>
-  <si>
-    <t>为了保护韦尔尼斯，你被委托去讨伐钢铁龙歌罗贡。必须要深入矿场地下将龙消灭。</t>
-  </si>
-  <si>
-    <t>矿场的地下盘踞着古老的魔物特菲拉。为了继续前进必须先打倒这个魔物。</t>
-  </si>
-  <si>
-    <t>栖息在矿场地下深处龙族的真面目是已故钢铁龙歌罗贡的遗孤龙仔。回到韦尔尼斯的地面向罗伊特尔报告吧。</t>
-  </si>
-  <si>
-    <t>咳哼…稍微过来一下。</t>
-  </si>
-  <si>
-    <t>呣啾</t>
-  </si>
-  <si>
-    <t>#pc大人，请来这里。</t>
-  </si>
-  <si>
-    <t>法莉斯委托你寻找行踪不明的罗伊特尔。之前常听说罗伊特尔想去尝尝奥尔维纳的红酒…</t>
-  </si>
-  <si>
-    <t>|你答应了协助罗伊特尔偿还两千万奥伦的欠款。从罗伊特尔手里拿到账单，交到纳税箱里吧。</t>
-  </si>
-  <si>
-    <t>摸摸。</t>
-  </si>
-  <si>
-    <t>睡不着</t>
-  </si>
-  <si>
-    <t>好平静的夜晚。</t>
-  </si>
-  <si>
-    <t>总觉得有人躲藏在身后。</t>
-  </si>
-  <si>
-    <t>大家能来集合一下吗？|必须考虑应对伊斯西泽尔的办法。(待续)</t>
-  </si>
-  <si>
-    <t>待续。</t>
-  </si>
-  <si>
-    <t>汝是否略懂些魔法？</t>
-  </si>
-  <si>
-    <t>有件事情想和你谈。|根据利萨纳斯的情报，法莉斯建议你拜访她的妹妹西奥露西亚。西奥露西亚似乎在家园西南方的奥尔维纳村里。</t>
-  </si>
-  <si>
-    <t>战士公会的守门人告诉了你入会的测试的内容。想要测试合格，你必须击败数只小鬼。</t>
-  </si>
-  <si>
-    <t>你完成了战士公会的入会测试。去向守门人汇报吧。</t>
-  </si>
-  <si>
-    <t>作为战士公会的一员，你必须为公会做出贡献。完成差事，可以获得公会的贡献度。当贡献度达到最大之后，可以和公会接待员对话进行晋级。</t>
-  </si>
-  <si>
-    <t>根据魔法师公会守门人的说法，想进入学院必须要有魔法师公会成员的推荐信。据说一些店里也能买到推荐信。</t>
-  </si>
-  <si>
-    <t>你完成了魔法师公会的入会测试。去向守门人汇报吧。</t>
-  </si>
-  <si>
-    <t>作为魔法师公会的一员，你必须为公会做出贡献。完成差事，可以获得公会的贡献度。当贡献度达到最大值后，可以和公会接待员对话进行晋级。</t>
-  </si>
-  <si>
-    <t>盗贼公会的守门人告诉了你入会测试的内容。想要测试合格，就必须让自己罪业深重。</t>
-  </si>
-  <si>
-    <t>你完成了盗贼公会的入会测试。去向守门人汇报吧。</t>
-  </si>
-  <si>
-    <t>作为盗贼公会的一员，你必须为公会做出贡献。完成差事，可以获得公会的贡献度。当贡献度达到最大值后，可以和公会接待员对话进行晋级。</t>
-  </si>
-  <si>
-    <t>商人公会的玛丽安女士告诉了你入会测试的内容。想要测试合格，你必须去城镇发传单。传单可以在接待员处买到。</t>
-  </si>
-  <si>
-    <t>你完成了商人公会的入会测试。去向玛丽安女士汇报吧。</t>
-  </si>
-  <si>
-    <t>作为商人公会的一员，你必须为公会做出贡献。完成差事，可以获得公会的贡献度。当贡献度达到最大值后，可以和公会接待员对话进行晋级。</t>
-  </si>
-  <si>
-    <t>你最近会去#3吗？去的话希望顺便为我许久未见的[qFriend]送#2过去。当然会准备谢礼{。}。
-你知道吗{。}？#3正掀起#2的热潮，全城的人们都在谈论这个{。}。不拿到#2的话，[qFriend]可是会哭的。请替我把这货物送到#3吧{。}。
-帮我把#2送到#3去吧。在期限内送到地方可以给你#1作为报酬。
-[qFriend]在#3建了房子，我想送#2给他作为贺礼{。}。用#1当报酬你看可以吗{。}？
-这是送货的委托{。}。虽然不知道是用来做什么的，但[qClient]好像想要#2{。}。你要是能把东西送到#3就给你#1作为报酬{。}。
-你知道吗？ #3住着的[qClient]好像在回收废品{。}。我想把#2送过去{。}，但是太麻烦了。你能代替我去吗{。}。
-有个住在#3的崭露头角的[qClient]似乎正在研究#2{。}。你要是能把#2平安地送过去，就给你#1作报酬{。}。
-可以帮我把借来的#2，还给住在#3的[qFriend]吗{。}。报酬是#1{。}。
-作为多年友好的证明，我想把#2送给[qFriend]{。}。能把它送到#3吗{。}？</t>
-  </si>
-  <si>
-    <t>不知道你能不能懂我这种想法。但我对#2是真的情有独钟{。}。我梦想有一天能收集全世界的#2。作为这件事的开始，能请你随便找一样给我吗{。}？
-哦，你来得正是时候{。}！[qFriend]突然来我家做客{。}，我现在急需#2。快去帮我弄来吧{。}。
-给亲爱的[qFriend]什么礼物好呢{。}？总之会给你#1作为报酬，帮我弄#2来吧{。}。
-最近发生了一件好事，我想送自己#2作为礼物{。}。就用#1当作报酬怎么样{。}？
-我想送#2给孩子作为生日礼物{。}。请快点交给我吧{。}。
-我正在研究#2{。}。但是研究用的库存已经没了，能帮我收集来吗{。}？
-我需要把#2加入我的藏品{。}。请务必帮我弄到手{。}！
-因为某些事情，现在需要#2{。}。在期限内交纳的话就付给你#1{。}。</t>
-  </si>
-  <si>
-    <t>最近决定和[qFriend]一起生活{。}，正在#3建设新居所。因为需要大量的材料，请快点供应#4#2来吧{。}。
-如你所知，#3面临着#2紧缺的局面{。}。我会给你报酬，能帮我收集#4#2吗{。}？</t>
-  </si>
-  <si>
-    <t>在#3曾一度掀起收集#2的热潮，但是现在已经过气了，在城里丢得到处都是{。}。我会付你报酬，能帮我收集大量的#2吗{。}？我需要大概#4左右{。}。
-我是#2的收藏家{。}。就别打听我为什么收集那种东西了{。}。光是[qFriend]冰冷的目光就够呛了{。}。总之，请帮我搜集#4#2{。}。
-糟糕了{。}！回到家发现，我重要的#2全部被[qFriend]丢掉了{。}！请马上帮我搜集#4#2{。}！</t>
-  </si>
-  <si>
-    <t>最近这附近有怪物出没，真是麻烦啊{。}。你去消灭#3只怪物吧，我会付报酬的{。}。
-我们会日常在城郊巡逻，驱除危险的怪物{。}。但是最近不怎么太平，人手也有些不够，所以打算委托冒险者帮忙{。}。这次需要消灭的怪物量指标是#3只，你想接受任务吗{。}？
-不想让这个世界成为更适合居住的地方吗{。}？怎么，这很简单的{。}，消灭#3只遇到的怪物就好，一个个地全都消灭掉。</t>
-  </si>
-  <si>
-    <t>#2这东西，真是讨厌至极的种族{。}！去帮我杀#3只吧{。}。</t>
-  </si>
-  <si>
-    <t>不好了{。}！#3围绕宝贵的#1发动了战争{。}！马上奔赴战场阻止敌人前进吧{。}！</t>
-  </si>
-  <si>
-    <t>某个白痴从#3附近的魔物巢穴中偷出了#1{。}，无数愤怒的魔物冲了出来{。}。拜托您去消灭它们吧{。}。</t>
-  </si>
-  <si>
-    <t>种在田里的作物长的太快了{。}。请去#3附近的田地里，采收重#2左右的作物{。}。我会支付#1的报酬{。}。
-到了这个时期，总觉得会忧心忡忡{。}，必须采收很多作物才行{。}。你能代替我收获#2左右的作物吗{。}！
-期待已久的收获期终于到来了{。}！虽然不多，但一个人是干不完的，能帮我做农活吗{。}？你负责收集#2重的作物就可以了{。}。</t>
-  </si>
-  <si>
-    <t>宝贝嗨起来了吗{。}！耶，我超兴奋的{。}！你也来我的派对吧。报酬？才没有那么俗气的东西{。}！但是！只要得到#2的分数我就送你礼物{。}！耶！
-不知道我的名字吗？真是不谙世事的人{。}。我是孩子听到都会停止哭泣的顶级名流{。}。我正在招募下一次派对上负责取悦客人的艺人{。}。如果你能提供#2分以上的表演，就给你奖励{。}。
-啊，谁来帮帮我，代替我在派对上表演吧{。}。因为害怕听众的反应，我已经不敢上台了{。}！如果能替我获得#2以上的分数，就给你一份薄礼作为感谢{。}。</t>
-  </si>
-  <si>
-    <t>现在在#3有大量的魔物在繁殖{。}，我会给你报酬，能去驱除它们吗{。}？
-我会给你#1作为报酬{。}。希望能尽快消灭某处的魔物{。}。
-我家附近有怪物出没，很是为难{。}。如果能消灭它们的话，我会给你#1作为报酬{。}。</t>
-  </si>
-  <si>
-    <t>突然按耐不住的想吃肉{。}！#2就可以了{。}！快给我拿来{。}！
-今天打算和重要的[qFriend]见面{。}。我想请他吃豪华的肉类料理，请为我烹饪#2{。}。</t>
-  </si>
-  <si>
-    <t>听说鱼对身体非常好{。}。能提供#2的话，就支付你#1{。}。
-虽然想让孩子吃鱼{。}，但孩子却太挑食了{。}。如果做成#2的话他可能会吃，就拜托你做了{。}。</t>
-  </si>
-  <si>
-    <t>蔬菜对减肥有好处是常识啊{。}。请为我提供#2，报酬是#1{。}。
-我正因[qFriend]无论如何也不愿吃蔬菜而烦恼{。}！如果做成#2的话他说不定会吃，请为我做一份吧{。}。</t>
-  </si>
-  <si>
-    <t>今晚晚餐的甜点我想吃#2，希望你能提供{。}。
-我想在派对上吃水果料理{。}。能提供#2的话，就给你#1{。}。</t>
-  </si>
-  <si>
-    <t>你是面包派？还是米饭派{。}？我肯定是喜欢面包啊{。}！我会支付#1来交换#2{。}。
-明天的野餐我想带#2去，就拜托你做了{。}！报酬是#1，不能再多了{。}。</t>
-  </si>
-  <si>
-    <t>意大利面、拉面、荞麦面…请让特别喜欢面类的我吃到#2吧{。}！
-好想吃能吸溜吞下的#2啊{。}。我会给你#1做报酬，请带我想要的东西给我吧{。}。</t>
-  </si>
-  <si>
-    <t>好想吃甜的点心{。}！如果你带#2来，我就给你#1{。}。
-我打算选#2作为今天的零食{。}。请在孩子们饿着肚子哭之前带来吧{。}。</t>
-  </si>
-  <si>
-    <t>好想吃甜的点心{。}！如果你带#2来，我就给你#1{。}。
-我打算选#2作为今天的零食{。}。请在孩子们哭之前带来吧{。}。</t>
-  </si>
-  <si>
-    <t>打开蛋的瞬间，厨房里就产生了无限的可能性{。}。你明白吗？ 没错，请把#2送到我这里{。}。
-为了从早上开始健康地生活，我想吃营养丰富的鸡蛋料理{。}。能给我做#2吗{。}？</t>
-  </si>
-  <si>
-    <t>治愈冒险疲劳最好的办法就是吃美味的饭{。}！请给我做热腾腾的#2，以备明天的长途旅行{。}。
-米饭…我好想吃米饭{。}。{拜托了}，请让我吃到#2吧{。}！</t>
-  </si>
-  <si>
-    <t>今晚和[qFriend]一起吃晚餐，无论如何都需要热腾腾的#2{。}。请做给我美味的汤吧{。}！
-想给身体不好的[qFriend]送上温暖的#2{。}。我会给你#1，请您用心制作{。}。</t>
-  </si>
-  <si>
-    <t>我正在研究新的餐点{。}。我将#1作为报酬，请给我#2以供参考{。}。
-想吃#2了{。}。如果能送来的话，就给你#1的报酬{。}。</t>
-  </si>
-  <si>
-    <t>因为一些原因，有个人想找护卫护送他到#3{。}。不过我觉得他应该也没被什么人盯上就是了{。}，事成之后可以给你#1。对于冒险者来说，想必是简单的委托吧？
-被奇怪的游客纠缠上了，真让人为难{。}！我会支付#1的报酬，请送人家去#3吧{。}。
-我的好朋友的亲戚想去#3{。}。不巧的是我现在脱不开身，如果能在期限内平安把他送到的话，就给你#1作为谢礼{。}。</t>
-  </si>
-  <si>
-    <t>具体怎么回事我不能宣扬{。}，总之现在有一位重要的使者必须被平安送到#3{。}。这事可关乎我的脑袋，可千万别搞砸了{。}！
-太美也是罪啊{。}。某位美人被以前拒绝交往的变态盯上了。我知道托别人做这种事的护卫会很为难，但还请你能将她安全地护送到#3{。}。
-你可能不知道，那位大人被人盯上了性命。这是份危险的委托{。}。如果能在到达#3之前好好完成护卫工作，就给你报酬{。}。</t>
-  </si>
-  <si>
-    <t>总之必须把某个人紧急护送到#3{。}。报酬是#1。请注意千万不要超过期限{。}。
-多的我就不说了{。}。那个人马上就要病死了{。}。在这最后的时刻，我想让你带他去充满回忆的#3{。}！请一定接受这份委托。
-糟糕了{。}！我的父亲身中剧毒！{拜托了}，请带他去见住在#3的名医，立刻就出发吧！我准备了可以说是我全部财产的#1作为谢礼{。}！</t>
-  </si>
-  <si>
-    <t>追踪制造用的材料。</t>
-  </si>
-  <si>
-    <t>嗯，看起来没什么问题呢。看你一副疲劳的样子，不如快喝喝看？这里是说好的奖励。</t>
-  </si>
-  <si>
     <t>Missão Principal</t>
   </si>
   <si>
@@ -2492,6 +2135,346 @@
 Material de pesquisa
 Pedido do colecionador
 Suprimento</t>
+  </si>
+  <si>
+    <t>Você viajou longas distâncias até North Tyris. Você não tem ideia do que espera por você nesta terra desconhecida. Por enquanto, seu objetivo é estabelecer sua vida e persistir.</t>
+  </si>
+  <si>
+    <t>Vamos reivindicar a terra lendo a escritura obtida de Ashland.</t>
+  </si>
+  <si>
+    <t>Você reivindicou a terra com uma escritura de terra. Está pronto para relatar a Ashland.</t>
+  </si>
+  <si>
+    <t>Mysilia precisa de um aliado forte para se reconstruir e sobreviver. Você deve continuar trabalhando na sua nova terra e aguardar notícias de Mysilia.</t>
+  </si>
+  <si>
+    <t>Você foi convidado por Melilith, uma misteriosa garota que vive em uma velha mansão, para participar de uma caça ao tesouro. Você deve descer até o porão da mansão para encontrar o tesouro escondido. No entanto, ela te avisou que "apenas um tesouro pode ser levado de volta com você."</t>
+  </si>
+  <si>
+    <t>Você obteve o "tesouro" no fundo do porão da velha mansão. Agora, volte à superfície e faça seu relatório para Melilith.</t>
+  </si>
+  <si>
+    <t>Você ainda parece um pouco tonto. Tome um pouco de crim quente para recuperar sua fadiga. Crimberries são ingredientes fáceis de encontrar, usados com frequência em muitas refeições e medicamentos. Recolha 3 crimberries para que eu possa te ensinar a receita. Pergunte a Ash se precisar de orientação.|Então você voltou. Aqui está uma panela de água para você. Os ingredientes para o crim quente são apenas as crimberries e a água. Você também vai precisar de uma fonte de fogo para cozinhá-lo, então vá até o fogo de acampamento quando for preparar. Traga o crim quente para mim quando estiver pronto.</t>
+  </si>
+  <si>
+    <t>missão de domar</t>
+  </si>
+  <si>
+    <t>Caro #player#, você esqueceu de novo?</t>
+  </si>
+  <si>
+    <t>Venha aqui.</t>
+  </si>
+  <si>
+    <t>buraco</t>
+  </si>
+  <si>
+    <t>Você precisa aprender isso para gerenciar sua base. |Clique do meio (ou tecla R) para segurar o container do seu inventário, depois clique com o botão direito no chão para colocá-lo._x000D_
+_x000D_
+Abra o container e clique no ícone de cadeado no lado direito para alterar suas permissões. Quando tudo estiver pronto, retorne a Ashland.</t>
+  </si>
+  <si>
+    <t>Em momentos como este, você pode aproveitar para treinar para o combate. | Vamos matar o punk amarrado e retornar a Ashland.</t>
+  </si>
+  <si>
+    <t>|Derrote o javali amarrado usando armas e itens de longo alcance.</t>
+  </si>
+  <si>
+    <t>|Mate 100 inimigos de qualquer tipo e reporte-se a Ashland.</t>
+  </si>
+  <si>
+    <t>Eu vou te ensinar.|Fiama te instruiu a tentar abrir o baú de tesouro. Vamos abri-lo e retornar a Fiama.</t>
+  </si>
+  <si>
+    <t>Eu quero que você procure por um filhote de cachorro.|Fiama pediu para você encontrar um filhote de cachorro perdido. Aparentemente, o filhote se afastou para a "Caverna do Filhote", localizada a noroeste da sua casa."</t>
+  </si>
+  <si>
+    <t>|Você resgatou o filhote que Fiama procurava. Agora, você precisa entregar o filhote a ela com segurança e reportar.</t>
+  </si>
+  <si>
+    <t>Aprenda a arte da marcenaria e construa uma casa. |Você precisa reunir toras de madeira de árvores e usar a habilidade "Artesanato Rápido" para criar uma "bancada de trabalho". Reporte-se a Ashland depois de construir e instalar a bancada de trabalho.</t>
+  </si>
+  <si>
+    <t>|Crie uma "tocha" na "bancada de trabalho", equipe-a no slot de fonte de luz e reporte-se a Ashland.</t>
+  </si>
+  <si>
+    <t>|Você recebeu a missão de construir a primeira casa na sua terra natal. Uma casa pode ser construída fechando um espaço com paredes e instalando uma porta. Crie paredes e uma porta na "bancada de trabalho", construa uma boa casa e reporte-se a Ashland.</t>
+  </si>
+  <si>
+    <t>Eu odeio te dizer isso, mas...| Você aprendeu sobre suas obrigações fiscais. Primeiro, você deve esperar até receber a conta do imposto.</t>
+  </si>
+  <si>
+    <t>| Você recebeu sua conta de imposto. Pode pagar o imposto na prefeitura de Mysilia, que fica ao sudeste da estrada da cidade.</t>
+  </si>
+  <si>
+    <t>Você já ouviu falar do Conselho de Tyris? |No Norte de Tyris, a União de Tyris realiza uma reunião mensal do conselho. Foi aconselhado a conversar com vários membros do conselho primeiro para conhecê-los melhor.</t>
+  </si>
+  <si>
+    <t>Está a fim de explorar? |Ashland pediu para você investigar uma caverna chamada Nymelle. Nymelle fica a sudeste de sua casa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Você encontrou Farris, uma cantora de histórias, enquanto explorava Nymelle. Talvez ela possa te dar algumas informações se você conversar com ela em sua casa._x000D_
+</t>
+  </si>
+  <si>
+    <t>|Mergulhe fundo em Nymelle e talvez você encontre algo.</t>
+  </si>
+  <si>
+    <t>|Você derrotou as tropas Imperiais que bloqueavam o seu caminho nas profundezas de Nymelle. Vamos continuar e descobrir o segredo de Nymelle.</t>
+  </si>
+  <si>
+    <t>|Você encontrou árvores fossilizadas e o cristal na camada mais profunda de Nymelle. Você deve retornar para sua casa e relatar a Ashland.</t>
+  </si>
+  <si>
+    <t>Há alguém que quero que você conheça.|</t>
+  </si>
+  <si>
+    <t>Hora de ganhar dinheiro.|Loytel pediu para você criar um baú de envio. Use os materiais que ele forneceu para construir o baú, coloque-o no chão e depois reporte-se a Loytel. Lembre-se de usar madeira de palulu para o baú de envio.</t>
+  </si>
+  <si>
+    <t>Venha aqui um momento. | Loytel te instruiu a trazer uma enxada e uma pá. Crie essas duas ferramentas de cultivo e reporte-se a Loytel.</t>
+  </si>
+  <si>
+    <t>Sobre o que Ash e Fiama estão conversando?</t>
+  </si>
+  <si>
+    <t>O céu está lindo.</t>
+  </si>
+  <si>
+    <t>Parece que alguém chegou.</t>
+  </si>
+  <si>
+    <t>Que cheiro delicioso é esse?</t>
+  </si>
+  <si>
+    <t>O que é esse rosto longo?</t>
+  </si>
+  <si>
+    <t>(sussurrando)</t>
+  </si>
+  <si>
+    <t>Será que o Mestre Kettle sabe de algo? |Você ouviu sobre o ouro dormindo sob Vernis com Kettle. Fale com Loytel quando estiver pronto para desenvolver Vernis.</t>
+  </si>
+  <si>
+    <t>Vernis está localizada um pouco ao norte da primeira base. Quando chegar em Vernis, reporte-se a Loytel, que estará esperando lá.</t>
+  </si>
+  <si>
+    <t>Fale com Loytel quando estiver pronto para começar a desenvolver Vernis.</t>
+  </si>
+  <si>
+    <t>Loytel te deu uma receita para uma bomba caseira chamada "Flam". Use a bomba para destruir todas as grandes pedras em Vernis e depois reporte-se a Loytel.</t>
+  </si>
+  <si>
+    <t>Loytel te deu uma "Escritura de Terreno". Fale com Loytel depois de ter reivindicado os direitos sobre o terreno.</t>
+  </si>
+  <si>
+    <t>O desenvolvimento de Vernis começou. Cultive a Pedra de Fogo em Vernis e reporte a Loytel. Pergunte a Loytel se tiver dúvidas sobre como cultivar a Pedra de Fogo. Além disso, continue conversando com seus companheiros no quadro de missões.</t>
+  </si>
+  <si>
+    <t>Um dragão apareceu no subterrâneo de Vernis. Fale com Loytel quando estiver pronto para enfrentá-lo.</t>
+  </si>
+  <si>
+    <t>Sua missão é derrotar o Dragão de Aço Corgon para proteger Vernis. Vá fundo na mina de Vernis e mate o dragão.</t>
+  </si>
+  <si>
+    <t>Você encontrou um monstro antigo, Tephra, nas profundezas da mina de Vernis. Você deve derrotar essa criatura para avançar.</t>
+  </si>
+  <si>
+    <t>A verdadeira identidade do dragão que aninha nas profundezas da mina é a descendência do agora falecido Dragão de Aço Corgon. Volte à superfície e fale com Loytel em Vernis.</t>
+  </si>
+  <si>
+    <t>Ahem, venha aqui.</t>
+  </si>
+  <si>
+    <t>Por favor, venha, #pc.</t>
+  </si>
+  <si>
+    <t>Farris pediu para você encontrar Loytel, que desapareceu. Ele sempre disse que queria beber o vinho de Olvina mais uma vez...</t>
+  </si>
+  <si>
+    <t>|Você prometeu ajudar Loytel a pagar sua dívida de 20 milhões de oren. Pegue as contas de dívida com Loytel e entregue-as no baú de impostos.</t>
+  </si>
+  <si>
+    <t>Não consigo dormir.</t>
+  </si>
+  <si>
+    <t>A noite está tranquila.</t>
+  </si>
+  <si>
+    <t>Sinto como se alguém estivesse atrás de mim.</t>
+  </si>
+  <si>
+    <t>Pessoal, se reúnam, por favor.|Você precisa encontrar uma maneira de lidar com Issizzle. (Continua)</t>
+  </si>
+  <si>
+    <t>Continua.</t>
+  </si>
+  <si>
+    <t>Tu possuis conhecimento das artes arcanas?</t>
+  </si>
+  <si>
+    <t>O vigilante da Guilda dos Lutadores te contou os detalhes do teste. Você precisa derrotar vários Yeeks para passar no teste.</t>
+  </si>
+  <si>
+    <t>Você completou o teste da Guilda dos Lutadores. Vamos relatar ao vigilante.</t>
+  </si>
+  <si>
+    <t>Como membro da Guilda dos Lutadores, você deve contribuir para a guilda. Completar tarefas lhe rende pontos de contribuição. Quando você alcançar o máximo de contribuição, fale com o funcionário da guilda para ser promovido.</t>
+  </si>
+  <si>
+    <t>De acordo com o vigilante da Guilda dos Magos, é necessário uma carta de recomendação de um membro da Guilda dos Magos para entrar na academia. A carta também pode ser comprada com um mago-vendedor.</t>
+  </si>
+  <si>
+    <t>Você completou o teste da Guilda dos Magos. Vamos relatar ao vigilante.</t>
+  </si>
+  <si>
+    <t>Como membro da Guilda dos Magos, você deve contribuir para a guilda. Completar tarefas lhe rende pontos de contribuição. Quando você alcançar o máximo de contribuição, fale com o funcionário da guilda para ser promovido.</t>
+  </si>
+  <si>
+    <t>A donzela da Noite te contou os detalhes do teste da Guilda dos Ladrões. Você precisa quebrar leis e acumular um histórico de crimes para passar no teste.</t>
+  </si>
+  <si>
+    <t>Você completou o teste da Guilda dos Ladrões. Vamos relatar ao vigilante.</t>
+  </si>
+  <si>
+    <t>Como membro da Guilda dos Ladrões, você deve contribuir para a guilda. Completar tarefas lhe rende pontos de contribuição. Quando você alcançar o máximo de contribuição, fale com o funcionário da guilda para ser promovido.</t>
+  </si>
+  <si>
+    <t>Lady Marian te contou os detalhes do teste da Guilda dos Comerciantes. Você precisa distribuir panfletos em uma cidade para passar no teste. Os panfletos podem ser comprados com o funcionário da guilda.</t>
+  </si>
+  <si>
+    <t>Você completou o teste da Guilda dos Comerciantes. Vamos relatar a Lady Marian.</t>
+  </si>
+  <si>
+    <t>Como membro da Guilda dos Comerciantes, você deve contribuir para a guilda. Completar tarefas lhe rende pontos de contribuição. Quando você alcançar o máximo de contribuição, fale com o funcionário da guilda para ser promovido.</t>
+  </si>
+  <si>
+    <t>Você tem algum plano de visitar #3 por acaso? Tenho meu [qFriend] lá, que não vejo há muito tempo. Pode entregar #2 para mim?_x000D_
+Ouviu as novidades? A febre do #2 está tomando conta da cidade de #3 e as pessoas estão fervendo de entusiasmo! Meu [qFriend] está chorando e me implorando para enviar um. Pode ir até #3 e entregar este pacote para mim?_x000D_
+Por favor, entregue #2 em #3. Se conseguir entregar com segurança, você receberá o pagamento._x000D_
+Meu [qFriend] construiu uma casa em #3, então gostaria de enviar #2 como presente de celebração. Você pode entregar para mim?_x000D_
+Não sei para que será usado, mas algum [qClient] quer comprar meu #2. Se entregar em #3, você será pago com #1._x000D_
+Algum [qClient] que mora em #3 parece estar coletando lixo. Estou pensando em enviar um monte de meu #2, mas é muito trabalho para mim. Pode levar até lá para mim?_x000D_
+Um promissor [qClient] em #3 está pesquisando sobre #2. Se entregar com segurança este #2, você será recompensado com #1._x000D_
+Você pode devolver o #2 que peguei emprestado para meu [qFriend] em #3? Sua recompensa será #1._x000D_
+Como um sinal da nossa amizade de longa data, estou pensando em enviar #2 para meu [qFriend]. Pode transportá-lo até #3 para mim?</t>
+  </si>
+  <si>
+    <t>Não sei se você pode entender isso, mas eu tenho uma queda por #2 e tenho a ambição de eventualmente colecionar #2 de todo o mundo. Para começar, pode sair e me trazer um? Não me importo com qualidade ou raridade!_x000D_
+Você não poderia ter chegado em melhor hora! Meu [qFriend] decidiu de repente visitar minha casa. Preciso de #2 agora. Você acha que consegue conseguir para mim?_x000D_
+Estou pensando no que seria um bom presente para meu querido [qFriend]. Por enquanto, vou pagar #1 se você me trouxer #2._x000D_
+Tive um pouco de sorte recentemente, então quero me dar um presente de #2. Que tal #1 como pagamento?_x000D_
+Preciso de #2 para o presente de aniversário do meu filho. Traga até mim e a recompensa é sua._x000D_
+Estou realizando uma pesquisa sobre #2 e estou sem estoque. Você poderia conseguir mais para mim?_x000D_
+Minha coleção precisa de #2. Por favor, aceite essa tarefa por uma recompensa de #1!_x000D_
+Preciso de #2 para um pequeno recado. Se conseguir entregar dentro do prazo, pagarei #1.</t>
+  </si>
+  <si>
+    <t>Estou prestes a começar a morar com meu [qFriend] e estamos construindo nossa nova casa em #3. Precisamos de uma grande quantidade de materiais, então por favor entregue #4 de #2 para nós._x000D_
+Como você sabe, há uma grande escassez de #2 em #3 agora. Vou pagar bem se você conseguir trazer #4 de #2.</t>
+  </si>
+  <si>
+    <t>Antes, coletar #2 era uma febre em #3, mas agora que a popularidade caiu, estão abandonados por toda parte. Preciso que você colete #4 de #2 para limpar as ruas._x000D_
+Sou um colecionador de #2. Não pergunte por que coleciono essas coisas. Os olhares frios de meu [qFriend] já são suficientes para mim. De qualquer forma, pode me trazer #4 de #2? Pagarei bem._x000D_
+Oh não! Quando cheguei em casa hoje, descobri que meu [qFriend] jogou fora todo o meu precioso #2! Por favor, colete #4 de #2 para mim, urgentemente!</t>
+  </si>
+  <si>
+    <t>Vários monstros foram avistados ao redor da cidade recentemente. Você pode sair e eliminá-los? #3 mortes serão suficientes._x000D_
+Patrolamos regularmente os arredores da cidade para remover monstros perigosos. As coisas estão um pouco agitadas ultimamente e estamos procurando aventureiros para assumir a patrulha. A nossa cota dessa vez é de cerca de #3. Você está interessado?_x000D_
+Não quer tornar o mundo um lugar um pouco melhor para viver? É simples, basta matar cerca de #3 monstros que encontrar.</t>
+  </si>
+  <si>
+    <t>Eu não suporto mais essa raça insolente e nojenta de #2! Peço que mate #3 deles para mim.</t>
+  </si>
+  <si>
+    <t>Notícia grave! Uma guerra estourou por causa do #1 que tanto prezamos em #3! Por favor, vá até o campo de batalha imediatamente e pare o avanço do inimigo!</t>
+  </si>
+  <si>
+    <t>Algum tolo roubou o #1 de uma caverna de monstros perto de nossa cidade e os monstros enfurecidos estão agora atacando sem parar. Por favor, tome conta deles pelo bem de #3!"</t>
+  </si>
+  <si>
+    <t>As colheitas que plantamos no campo perto de #3 provavelmente já cresceram. Vá até lá e colha cerca de #2 das colheitas. Vou pagar #1 como recompensa._x000D_
+Estou um pouco sobrecarregado com toda essa colheita que cresceu no meu campo. Pode colher cerca de #2 das colheitas para mim?_x000D_
+Finalmente chegou o tempo da colheita. Não é um trabalho que eu consiga fazer sozinho. Ei, pode me ajudar e juntar as colheitas que pesem cerca de #2?</t>
+  </si>
+  <si>
+    <t>Você está sentindo isso, baby? Estou super animado! Venha se juntar à minha festa e tocar algumas músicas. Se você conseguir mais de #2 pontos de música, eu vou te dar um presente legal! Yay!_x000D_
+Estou fazendo uma grande festa hoje. Muitas celebridades vão comparecer à festa, então preciso de alguém para entreter a todos. Se você conseguir marcar #2 pontos de música, vou te dar um ótimo presente._x000D_
+Ah, por favor, alguém tome meu lugar e se apresente na festa por mim. Estou com muito medo da plateia! Se você conseguir marcar #2 pontos de música, vou te dar um presente bônus como agradecimento.</t>
+  </si>
+  <si>
+    <t>Uma grande quantidade de monstros está se reproduzindo em #3, e estamos oferecendo uma recompensa por sua erradicação. Você pode ajudar?_x000D_
+Pagaremos uma recompensa por exterminar rapidamente os monstros em um local específico. Você aceita?_x000D_
+Estou tendo problemas com monstros aparecendo perto da minha casa. Se você puder eliminá-los, vou pagar #1.</t>
+  </si>
+  <si>
+    <t>Estou morrendo de vontade de comer carne! Quero #2 agora! Por favor, apresse-se!_x000D_
+Nós vamos receber uma recepção muito importante esta noite. Os convidados precisam estar satisfeitos e se sentindo incríveis. Quero que prepare #2 e #1 são seus.</t>
+  </si>
+  <si>
+    <t>Reza a lenda que peixe faz muito bem para o corpo. Cozinhe #2 e entregue para mim, e eu pagarei #1._x000D_
+Meus filhos não comem peixe. Está me matando. Vou dar #1 para quem fizer #2 saboroso o suficiente para agradá-los!</t>
+  </si>
+  <si>
+    <t>Legumes são partes essenciais de uma dieta saudável. Cozinhe #2 para mim. Suas recompensas serão #1._x000D_
+Meu [qFriend] simplesmente não come legumes, e estou ficando sem opções! Talvez ela coma se você preparar #2.</t>
+  </si>
+  <si>
+    <t>Quero #2 para a sobremesa de hoje à noite. Por favor, entregue-o._x000D_
+Faça um pequeno favor para nós e ganhe #1. Precisamos de um molho picante para nossa festa de coquetéis. Ah, #2 parece bom.</t>
+  </si>
+  <si>
+    <t>Você prefere pão ou arroz? Eu definitivamente prefiro pão. Cozinhe #2 para mim, por favor._x000D_
+Primeiro, a recompensa não será mais do que #1, ok? Meu [qFriend] precisa de #2 para um piquenique amanhã. Por favor, se apresse.</t>
+  </si>
+  <si>
+    <t>Massas, ramen, soba... Adoro noodles! Por favor, me deixe experimentar #2!_x000D_
+Eu amo noodles! Eu amo noodles! Existe alguém que odeia noodles? Quero comer #2 agora!</t>
+  </si>
+  <si>
+    <t>Prefiro bolos e doces a bebidas alcoólicas. Você quer #1? Me dê #2!_x000D_
+Estou pensando em dar #2 como lanche para meus filhos. Traga-o para mim antes que eles comecem a chorar.</t>
+  </si>
+  <si>
+    <t>O momento em que um ovo é quebrado, infinitas possibilidades surgem na cozinha. Você entende, certo? Sim, por favor, traga o #2 para mim._x000D_
+Para começar o dia com energia, sempre como um prato nutritivo com ovo. Pode fazer #2 para mim?</t>
+  </si>
+  <si>
+    <t>Nada supera uma refeição deliciosa depois de um dia de aventuras! Prepare um caloroso #2 para mim para me preparar para a longa jornada de amanhã._x000D_
+Simplesmente não consigo parar de desejar arroz... Por favor, me deixe comer #2 até ficar satisfeito!</t>
+  </si>
+  <si>
+    <t>Para o jantar de hoje à noite com meu [qFriend], um quente #2 é absolutamente necessário. Por favor, prepare uma sopa deliciosa!_x000D_
+Quero entregar um quente #2 para meu [qFriend] que não está se sentindo bem. Vou te dar #1, então faça com amor.</t>
+  </si>
+  <si>
+    <t>Como mestre na culinária, estou sempre ansioso para aprender uma nova receita. Traga-me #2 para minha pesquisa._x000D_
+Minha barriga ronca como se eu estivesse morrendo de fome habitualmente. Você pode trazer um pedaço para essa fera? Talvez #2 seja o suficiente. Posso te dar #1 como recompensa.</t>
+  </si>
+  <si>
+    <t>Por razões que não posso divulgar, alguém precisa ser escoltado até #3. Não acho que eles sejam alvo específico, mas se você conseguir, pagarei #1. Deve ser um trabalho fácil para um aventureiro, certo?_x000D_
+Estou sendo incomodado por esse peculiar turista! Vou pagar #1 se você puder guiá-lo até #3._x000D_
+Um parente próximo meu quer ir até #3. Estou ocupado e não posso ajudar, então se você conseguir levá-lo com segurança dentro do prazo, vou pagar #1.</t>
+  </si>
+  <si>
+    <t>É uma questão delicada, mas precisamos garantir a chegada segura de um mensageiro crucial até #3. A recompensa é #1. Minha própria vida está em risco aqui. Não me decepcione!_x000D_
+Ser muito bonita pode ser uma maldição, de fato. Uma dama de rara beleza está sendo assediada por um stalker que ela rejeitou no passado. Pode ser uma viagem perigosa, mas em troca de #1, por favor, escolta-a até #3 com segurança._x000D_
+Você sabe que estão atrás da vida dele, não sabe? Este é um pedido perigoso. Se você conseguir protegê-lo até chegarmos a #3, recompensarei você com #1.</t>
+  </si>
+  <si>
+    <t>Há alguém que precisa ser levado urgentemente até #3. A recompensa é #1. Não perca o prazo._x000D_
+Você sabe do que estou falando, certo? Sim, minha querida está prestes a morrer de uma doença. Quero levá-la até a memorável cidade de #3 pela última vez! Por favor, aceite essa tarefa por #1._x000D_
+Desastre! Meu pai foi atingido por um veneno forte! Peço, por favor, leve-o até o famoso médico que mora em #3. Preparei minha fortuna inteira, #1, como recompensa!</t>
+  </si>
+  <si>
+    <t>Rastrear ingredientes de artesanato.</t>
+  </si>
+  <si>
+    <t>Sim, parece que você acertou. Por que não vai se sentar perto do fogo e beber? Ah, e aqui está algo para você.</t>
+  </si>
+  <si>
+    <t>completo</t>
   </si>
 </sst>
 </file>
@@ -2874,16 +2857,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="141.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="14" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="70.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="99.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2938,7 +2929,7 @@
         <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>651</v>
+        <v>547</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -2947,7 +2938,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>547</v>
+        <v>631</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -2964,7 +2955,7 @@
         <v>521</v>
       </c>
       <c r="C4" t="s">
-        <v>652</v>
+        <v>548</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -2973,7 +2964,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -2990,7 +2981,7 @@
         <v>520</v>
       </c>
       <c r="F5" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -3007,7 +2998,7 @@
         <v>520</v>
       </c>
       <c r="C6" t="s">
-        <v>653</v>
+        <v>549</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -3016,7 +3007,7 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -3033,7 +3024,7 @@
         <v>522</v>
       </c>
       <c r="C7" t="s">
-        <v>654</v>
+        <v>550</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -3042,7 +3033,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -3059,7 +3050,7 @@
         <v>523</v>
       </c>
       <c r="F8" t="s">
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -3076,7 +3067,7 @@
         <v>520</v>
       </c>
       <c r="C9" t="s">
-        <v>655</v>
+        <v>551</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -3085,7 +3076,7 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="G9" t="s">
         <v>43</v>
@@ -3094,7 +3085,7 @@
         <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="M9" t="s">
         <v>45</v>
@@ -3111,7 +3102,7 @@
         <v>520</v>
       </c>
       <c r="C10" t="s">
-        <v>656</v>
+        <v>552</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -3120,7 +3111,7 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -3129,7 +3120,7 @@
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>728</v>
       </c>
       <c r="M10" t="s">
         <v>52</v>
@@ -3146,7 +3137,7 @@
         <v>520</v>
       </c>
       <c r="C11" t="s">
-        <v>657</v>
+        <v>553</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -3155,7 +3146,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
@@ -3172,7 +3163,7 @@
         <v>520</v>
       </c>
       <c r="C12" t="s">
-        <v>658</v>
+        <v>554</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
@@ -3181,7 +3172,7 @@
         <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="G12" t="s">
         <v>62</v>
@@ -3198,7 +3189,7 @@
         <v>520</v>
       </c>
       <c r="C13" t="s">
-        <v>659</v>
+        <v>555</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
@@ -3207,7 +3198,7 @@
         <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
@@ -3224,16 +3215,13 @@
         <v>520</v>
       </c>
       <c r="C14" t="s">
-        <v>660</v>
+        <v>556</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>558</v>
       </c>
       <c r="H14" t="s">
         <v>72</v>
@@ -3246,9 +3234,6 @@
       <c r="B15" t="s">
         <v>520</v>
       </c>
-      <c r="F15" t="s">
-        <v>559</v>
-      </c>
       <c r="H15" t="s">
         <v>74</v>
       </c>
@@ -3269,7 +3254,7 @@
         <v>524</v>
       </c>
       <c r="C17" t="s">
-        <v>661</v>
+        <v>557</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
@@ -3277,8 +3262,8 @@
       <c r="E17" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
-        <v>560</v>
+      <c r="F17" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="G17" t="s">
         <v>79</v>
@@ -3303,7 +3288,7 @@
         <v>520</v>
       </c>
       <c r="C19" t="s">
-        <v>662</v>
+        <v>558</v>
       </c>
       <c r="D19" t="s">
         <v>83</v>
@@ -3312,7 +3297,7 @@
         <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
@@ -3329,7 +3314,7 @@
         <v>520</v>
       </c>
       <c r="F20" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="G20" t="s">
         <v>88</v>
@@ -3346,7 +3331,7 @@
         <v>520</v>
       </c>
       <c r="F21" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="G21" t="s">
         <v>91</v>
@@ -3371,7 +3356,7 @@
         <v>525</v>
       </c>
       <c r="C23" t="s">
-        <v>663</v>
+        <v>559</v>
       </c>
       <c r="D23" t="s">
         <v>95</v>
@@ -3380,7 +3365,7 @@
         <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3405,7 +3390,7 @@
         <v>525</v>
       </c>
       <c r="C25" t="s">
-        <v>664</v>
+        <v>560</v>
       </c>
       <c r="D25" t="s">
         <v>101</v>
@@ -3414,7 +3399,7 @@
         <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="G25" t="s">
         <v>62</v>
@@ -3431,7 +3416,7 @@
         <v>526</v>
       </c>
       <c r="C26" t="s">
-        <v>665</v>
+        <v>561</v>
       </c>
       <c r="D26" t="s">
         <v>105</v>
@@ -3440,7 +3425,7 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="G26" t="s">
         <v>62</v>
@@ -3457,7 +3442,7 @@
         <v>525</v>
       </c>
       <c r="C27" t="s">
-        <v>666</v>
+        <v>562</v>
       </c>
       <c r="D27" t="s">
         <v>108</v>
@@ -3466,7 +3451,7 @@
         <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>565</v>
+        <v>647</v>
       </c>
       <c r="G27" t="s">
         <v>110</v>
@@ -3483,7 +3468,7 @@
         <v>525</v>
       </c>
       <c r="F28" t="s">
-        <v>566</v>
+        <v>648</v>
       </c>
       <c r="G28" t="s">
         <v>113</v>
@@ -3508,7 +3493,7 @@
         <v>527</v>
       </c>
       <c r="C30" t="s">
-        <v>667</v>
+        <v>563</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -3517,7 +3502,7 @@
         <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>567</v>
+        <v>649</v>
       </c>
       <c r="G30" t="s">
         <v>119</v>
@@ -3534,7 +3519,7 @@
         <v>525</v>
       </c>
       <c r="F31" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="G31" t="s">
         <v>122</v>
@@ -3551,7 +3536,7 @@
         <v>525</v>
       </c>
       <c r="F32" t="s">
-        <v>569</v>
+        <v>651</v>
       </c>
       <c r="G32" t="s">
         <v>125</v>
@@ -3576,7 +3561,7 @@
         <v>520</v>
       </c>
       <c r="C34" t="s">
-        <v>668</v>
+        <v>564</v>
       </c>
       <c r="D34" t="s">
         <v>129</v>
@@ -3585,7 +3570,7 @@
         <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>570</v>
+        <v>652</v>
       </c>
       <c r="G34" t="s">
         <v>131</v>
@@ -3602,7 +3587,7 @@
         <v>520</v>
       </c>
       <c r="F35" t="s">
-        <v>571</v>
+        <v>653</v>
       </c>
       <c r="G35" t="s">
         <v>134</v>
@@ -3627,7 +3612,7 @@
         <v>528</v>
       </c>
       <c r="C37" t="s">
-        <v>669</v>
+        <v>565</v>
       </c>
       <c r="D37" t="s">
         <v>138</v>
@@ -3636,7 +3621,7 @@
         <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>572</v>
+        <v>654</v>
       </c>
       <c r="G37" t="s">
         <v>140</v>
@@ -3661,7 +3646,7 @@
         <v>520</v>
       </c>
       <c r="C39" t="s">
-        <v>670</v>
+        <v>566</v>
       </c>
       <c r="D39" t="s">
         <v>144</v>
@@ -3670,7 +3655,7 @@
         <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>573</v>
+        <v>655</v>
       </c>
       <c r="G39" t="s">
         <v>146</v>
@@ -3686,8 +3671,8 @@
       <c r="B40" t="s">
         <v>520</v>
       </c>
-      <c r="F40" t="s">
-        <v>574</v>
+      <c r="F40" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="G40" t="s">
         <v>149</v>
@@ -3704,7 +3689,7 @@
         <v>520</v>
       </c>
       <c r="F41" t="s">
-        <v>575</v>
+        <v>657</v>
       </c>
       <c r="G41" t="s">
         <v>152</v>
@@ -3721,7 +3706,7 @@
         <v>520</v>
       </c>
       <c r="F42" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="G42" t="s">
         <v>155</v>
@@ -3738,7 +3723,7 @@
         <v>520</v>
       </c>
       <c r="F43" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="G43" t="s">
         <v>155</v>
@@ -3755,7 +3740,7 @@
         <v>520</v>
       </c>
       <c r="F44" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="G44" t="s">
         <v>159</v>
@@ -3780,7 +3765,7 @@
         <v>525</v>
       </c>
       <c r="C46" t="s">
-        <v>671</v>
+        <v>567</v>
       </c>
       <c r="D46" t="s">
         <v>163</v>
@@ -3789,7 +3774,7 @@
         <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
       <c r="G46" t="s">
         <v>165</v>
@@ -3806,7 +3791,7 @@
         <v>525</v>
       </c>
       <c r="C47" t="s">
-        <v>672</v>
+        <v>568</v>
       </c>
       <c r="D47" t="s">
         <v>168</v>
@@ -3815,7 +3800,7 @@
         <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="G47" t="s">
         <v>170</v>
@@ -3840,7 +3825,7 @@
         <v>529</v>
       </c>
       <c r="C49" t="s">
-        <v>673</v>
+        <v>569</v>
       </c>
       <c r="D49" t="s">
         <v>174</v>
@@ -3849,7 +3834,7 @@
         <v>175</v>
       </c>
       <c r="F49" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
       <c r="G49" t="s">
         <v>176</v>
@@ -3874,7 +3859,7 @@
         <v>529</v>
       </c>
       <c r="C51" t="s">
-        <v>674</v>
+        <v>570</v>
       </c>
       <c r="D51" t="s">
         <v>180</v>
@@ -3883,7 +3868,7 @@
         <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="G51" t="s">
         <v>182</v>
@@ -3900,7 +3885,7 @@
         <v>529</v>
       </c>
       <c r="C52" t="s">
-        <v>675</v>
+        <v>571</v>
       </c>
       <c r="D52" t="s">
         <v>185</v>
@@ -3909,7 +3894,7 @@
         <v>186</v>
       </c>
       <c r="F52" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="G52" t="s">
         <v>187</v>
@@ -3926,7 +3911,7 @@
         <v>529</v>
       </c>
       <c r="C53" t="s">
-        <v>676</v>
+        <v>572</v>
       </c>
       <c r="D53" t="s">
         <v>190</v>
@@ -3935,7 +3920,7 @@
         <v>191</v>
       </c>
       <c r="F53" t="s">
-        <v>583</v>
+        <v>665</v>
       </c>
       <c r="G53" t="s">
         <v>192</v>
@@ -3952,7 +3937,7 @@
         <v>529</v>
       </c>
       <c r="C54" t="s">
-        <v>677</v>
+        <v>573</v>
       </c>
       <c r="D54" t="s">
         <v>195</v>
@@ -3961,7 +3946,7 @@
         <v>196</v>
       </c>
       <c r="F54" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="G54" t="s">
         <v>197</v>
@@ -3978,7 +3963,7 @@
         <v>527</v>
       </c>
       <c r="C55" t="s">
-        <v>678</v>
+        <v>574</v>
       </c>
       <c r="D55" t="s">
         <v>200</v>
@@ -3987,7 +3972,7 @@
         <v>201</v>
       </c>
       <c r="F55" t="s">
-        <v>585</v>
+        <v>202</v>
       </c>
       <c r="G55" t="s">
         <v>202</v>
@@ -4004,7 +3989,7 @@
         <v>530</v>
       </c>
       <c r="C56" t="s">
-        <v>679</v>
+        <v>575</v>
       </c>
       <c r="D56" t="s">
         <v>205</v>
@@ -4013,7 +3998,7 @@
         <v>206</v>
       </c>
       <c r="F56" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="G56" t="s">
         <v>207</v>
@@ -4030,7 +4015,7 @@
         <v>527</v>
       </c>
       <c r="C57" t="s">
-        <v>680</v>
+        <v>576</v>
       </c>
       <c r="D57" t="s">
         <v>210</v>
@@ -4039,7 +4024,7 @@
         <v>211</v>
       </c>
       <c r="F57" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
       <c r="G57" t="s">
         <v>212</v>
@@ -4056,7 +4041,7 @@
         <v>527</v>
       </c>
       <c r="C58" t="s">
-        <v>681</v>
+        <v>577</v>
       </c>
       <c r="D58" t="s">
         <v>215</v>
@@ -4065,7 +4050,7 @@
         <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>588</v>
+        <v>669</v>
       </c>
       <c r="G58" t="s">
         <v>217</v>
@@ -4082,7 +4067,7 @@
         <v>527</v>
       </c>
       <c r="F59" t="s">
-        <v>589</v>
+        <v>670</v>
       </c>
       <c r="G59" t="s">
         <v>220</v>
@@ -4099,7 +4084,7 @@
         <v>527</v>
       </c>
       <c r="F60" t="s">
-        <v>590</v>
+        <v>671</v>
       </c>
       <c r="G60" t="s">
         <v>223</v>
@@ -4116,7 +4101,7 @@
         <v>531</v>
       </c>
       <c r="F61" t="s">
-        <v>591</v>
+        <v>672</v>
       </c>
       <c r="G61" t="s">
         <v>226</v>
@@ -4133,7 +4118,7 @@
         <v>527</v>
       </c>
       <c r="F62" t="s">
-        <v>592</v>
+        <v>673</v>
       </c>
       <c r="G62" t="s">
         <v>229</v>
@@ -4150,7 +4135,7 @@
         <v>532</v>
       </c>
       <c r="F63" t="s">
-        <v>593</v>
+        <v>674</v>
       </c>
       <c r="G63" t="s">
         <v>232</v>
@@ -4167,7 +4152,7 @@
         <v>527</v>
       </c>
       <c r="F64" t="s">
-        <v>594</v>
+        <v>675</v>
       </c>
       <c r="G64" t="s">
         <v>235</v>
@@ -4184,7 +4169,7 @@
         <v>527</v>
       </c>
       <c r="F65" t="s">
-        <v>595</v>
+        <v>676</v>
       </c>
       <c r="G65" t="s">
         <v>238</v>
@@ -4201,7 +4186,7 @@
         <v>527</v>
       </c>
       <c r="F66" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="G66" t="s">
         <v>241</v>
@@ -4218,7 +4203,7 @@
         <v>533</v>
       </c>
       <c r="F67" t="s">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="G67" t="s">
         <v>244</v>
@@ -4234,6 +4219,9 @@
       <c r="B68" t="s">
         <v>527</v>
       </c>
+      <c r="F68" t="s">
+        <v>247</v>
+      </c>
       <c r="G68" t="s">
         <v>247</v>
       </c>
@@ -4245,6 +4233,9 @@
       <c r="B69" t="s">
         <v>527</v>
       </c>
+      <c r="F69" t="s">
+        <v>247</v>
+      </c>
       <c r="G69" t="s">
         <v>247</v>
       </c>
@@ -4257,7 +4248,7 @@
         <v>527</v>
       </c>
       <c r="C70" t="s">
-        <v>682</v>
+        <v>578</v>
       </c>
       <c r="D70" t="s">
         <v>250</v>
@@ -4266,7 +4257,7 @@
         <v>251</v>
       </c>
       <c r="F70" t="s">
-        <v>598</v>
+        <v>679</v>
       </c>
       <c r="G70" t="s">
         <v>252</v>
@@ -4283,7 +4274,7 @@
         <v>527</v>
       </c>
       <c r="C71" t="s">
-        <v>683</v>
+        <v>579</v>
       </c>
       <c r="D71" t="s">
         <v>255</v>
@@ -4292,7 +4283,7 @@
         <v>256</v>
       </c>
       <c r="F71" t="s">
-        <v>599</v>
+        <v>257</v>
       </c>
       <c r="G71" t="s">
         <v>257</v>
@@ -4309,7 +4300,7 @@
         <v>534</v>
       </c>
       <c r="C72" t="s">
-        <v>684</v>
+        <v>580</v>
       </c>
       <c r="D72" t="s">
         <v>260</v>
@@ -4318,7 +4309,7 @@
         <v>261</v>
       </c>
       <c r="F72" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="G72" t="s">
         <v>262</v>
@@ -4335,7 +4326,7 @@
         <v>534</v>
       </c>
       <c r="C73" t="s">
-        <v>685</v>
+        <v>581</v>
       </c>
       <c r="D73" t="s">
         <v>265</v>
@@ -4344,7 +4335,7 @@
         <v>266</v>
       </c>
       <c r="F73" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="G73" t="s">
         <v>267</v>
@@ -4361,7 +4352,7 @@
         <v>535</v>
       </c>
       <c r="C74" t="s">
-        <v>686</v>
+        <v>582</v>
       </c>
       <c r="D74" t="s">
         <v>270</v>
@@ -4370,7 +4361,7 @@
         <v>271</v>
       </c>
       <c r="F74" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
       <c r="G74" t="s">
         <v>272</v>
@@ -4386,9 +4377,6 @@
       <c r="B75" t="s">
         <v>520</v>
       </c>
-      <c r="F75" t="s">
-        <v>275</v>
-      </c>
       <c r="H75" t="s">
         <v>275</v>
       </c>
@@ -4401,7 +4389,7 @@
         <v>536</v>
       </c>
       <c r="C76" t="s">
-        <v>687</v>
+        <v>583</v>
       </c>
       <c r="D76" t="s">
         <v>277</v>
@@ -4410,7 +4398,7 @@
         <v>278</v>
       </c>
       <c r="F76" t="s">
-        <v>603</v>
+        <v>279</v>
       </c>
       <c r="G76" t="s">
         <v>279</v>
@@ -4427,7 +4415,7 @@
         <v>536</v>
       </c>
       <c r="C77" t="s">
-        <v>688</v>
+        <v>584</v>
       </c>
       <c r="D77" t="s">
         <v>282</v>
@@ -4436,7 +4424,7 @@
         <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>604</v>
+        <v>683</v>
       </c>
       <c r="G77" t="s">
         <v>284</v>
@@ -4453,7 +4441,7 @@
         <v>536</v>
       </c>
       <c r="C78" t="s">
-        <v>689</v>
+        <v>585</v>
       </c>
       <c r="D78" t="s">
         <v>287</v>
@@ -4462,7 +4450,7 @@
         <v>288</v>
       </c>
       <c r="F78" t="s">
-        <v>605</v>
+        <v>684</v>
       </c>
       <c r="G78" t="s">
         <v>289</v>
@@ -4479,7 +4467,7 @@
         <v>536</v>
       </c>
       <c r="C79" t="s">
-        <v>690</v>
+        <v>586</v>
       </c>
       <c r="D79" t="s">
         <v>292</v>
@@ -4488,7 +4476,7 @@
         <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
       <c r="G79" t="s">
         <v>212</v>
@@ -4505,7 +4493,7 @@
         <v>536</v>
       </c>
       <c r="C80" t="s">
-        <v>691</v>
+        <v>587</v>
       </c>
       <c r="D80" t="s">
         <v>295</v>
@@ -4514,7 +4502,7 @@
         <v>296</v>
       </c>
       <c r="F80" t="s">
-        <v>606</v>
+        <v>685</v>
       </c>
       <c r="G80" t="s">
         <v>297</v>
@@ -4531,7 +4519,7 @@
         <v>530</v>
       </c>
       <c r="C81" t="s">
-        <v>692</v>
+        <v>588</v>
       </c>
       <c r="D81" t="s">
         <v>300</v>
@@ -4540,7 +4528,7 @@
         <v>301</v>
       </c>
       <c r="F81" t="s">
-        <v>607</v>
+        <v>686</v>
       </c>
       <c r="G81" t="s">
         <v>302</v>
@@ -4557,7 +4545,7 @@
         <v>530</v>
       </c>
       <c r="F82" t="s">
-        <v>608</v>
+        <v>687</v>
       </c>
       <c r="G82" t="s">
         <v>305</v>
@@ -4574,7 +4562,7 @@
         <v>530</v>
       </c>
       <c r="C83" t="s">
-        <v>693</v>
+        <v>589</v>
       </c>
       <c r="D83" t="s">
         <v>308</v>
@@ -4583,7 +4571,7 @@
         <v>309</v>
       </c>
       <c r="F83" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="G83" t="s">
         <v>310</v>
@@ -4600,7 +4588,7 @@
         <v>527</v>
       </c>
       <c r="C84" t="s">
-        <v>694</v>
+        <v>590</v>
       </c>
       <c r="D84" t="s">
         <v>313</v>
@@ -4609,7 +4597,7 @@
         <v>314</v>
       </c>
       <c r="F84" t="s">
-        <v>599</v>
+        <v>257</v>
       </c>
       <c r="G84" t="s">
         <v>257</v>
@@ -4626,7 +4614,7 @@
         <v>527</v>
       </c>
       <c r="C85" t="s">
-        <v>694</v>
+        <v>590</v>
       </c>
       <c r="D85" t="s">
         <v>313</v>
@@ -4635,7 +4623,7 @@
         <v>314</v>
       </c>
       <c r="F85" t="s">
-        <v>599</v>
+        <v>257</v>
       </c>
       <c r="G85" t="s">
         <v>257</v>
@@ -4652,16 +4640,13 @@
         <v>527</v>
       </c>
       <c r="C86" t="s">
-        <v>695</v>
+        <v>591</v>
       </c>
       <c r="D86" t="s">
         <v>317</v>
       </c>
       <c r="E86" t="s">
         <v>318</v>
-      </c>
-      <c r="F86" t="s">
-        <v>610</v>
       </c>
       <c r="H86" t="s">
         <v>319</v>
@@ -4675,7 +4660,7 @@
         <v>537</v>
       </c>
       <c r="C87" t="s">
-        <v>696</v>
+        <v>592</v>
       </c>
       <c r="D87" t="s">
         <v>321</v>
@@ -4684,7 +4669,7 @@
         <v>322</v>
       </c>
       <c r="F87" t="s">
-        <v>599</v>
+        <v>257</v>
       </c>
       <c r="G87" t="s">
         <v>257</v>
@@ -4701,7 +4686,7 @@
         <v>538</v>
       </c>
       <c r="C88" t="s">
-        <v>697</v>
+        <v>593</v>
       </c>
       <c r="D88" t="s">
         <v>324</v>
@@ -4727,7 +4712,7 @@
         <v>538</v>
       </c>
       <c r="C89" t="s">
-        <v>698</v>
+        <v>594</v>
       </c>
       <c r="D89" t="s">
         <v>328</v>
@@ -4753,7 +4738,7 @@
         <v>538</v>
       </c>
       <c r="C90" t="s">
-        <v>699</v>
+        <v>595</v>
       </c>
       <c r="D90" t="s">
         <v>331</v>
@@ -4779,7 +4764,7 @@
         <v>538</v>
       </c>
       <c r="C91" t="s">
-        <v>700</v>
+        <v>596</v>
       </c>
       <c r="D91" t="s">
         <v>334</v>
@@ -4805,7 +4790,7 @@
         <v>520</v>
       </c>
       <c r="C92" t="s">
-        <v>701</v>
+        <v>597</v>
       </c>
       <c r="D92" t="s">
         <v>337</v>
@@ -4814,7 +4799,7 @@
         <v>338</v>
       </c>
       <c r="F92" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="G92" t="s">
         <v>339</v>
@@ -4831,7 +4816,7 @@
         <v>520</v>
       </c>
       <c r="F93" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="G93" t="s">
         <v>342</v>
@@ -4848,7 +4833,7 @@
         <v>527</v>
       </c>
       <c r="C94" t="s">
-        <v>702</v>
+        <v>598</v>
       </c>
       <c r="D94" t="s">
         <v>345</v>
@@ -4857,7 +4842,7 @@
         <v>346</v>
       </c>
       <c r="F94" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
       <c r="G94" t="s">
         <v>347</v>
@@ -4874,7 +4859,7 @@
         <v>520</v>
       </c>
       <c r="C95" t="s">
-        <v>703</v>
+        <v>599</v>
       </c>
       <c r="D95" t="s">
         <v>350</v>
@@ -4883,7 +4868,7 @@
         <v>351</v>
       </c>
       <c r="F95" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="G95" t="s">
         <v>352</v>
@@ -4900,7 +4885,7 @@
         <v>520</v>
       </c>
       <c r="F96" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="G96" t="s">
         <v>355</v>
@@ -4917,7 +4902,7 @@
         <v>527</v>
       </c>
       <c r="C97" t="s">
-        <v>704</v>
+        <v>600</v>
       </c>
       <c r="D97" t="s">
         <v>358</v>
@@ -4926,7 +4911,7 @@
         <v>359</v>
       </c>
       <c r="F97" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="G97" t="s">
         <v>360</v>
@@ -4943,7 +4928,7 @@
         <v>520</v>
       </c>
       <c r="C98" t="s">
-        <v>705</v>
+        <v>601</v>
       </c>
       <c r="D98" t="s">
         <v>363</v>
@@ -4952,7 +4937,7 @@
         <v>364</v>
       </c>
       <c r="F98" t="s">
-        <v>617</v>
+        <v>695</v>
       </c>
       <c r="G98" t="s">
         <v>365</v>
@@ -4969,7 +4954,7 @@
         <v>520</v>
       </c>
       <c r="F99" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="G99" t="s">
         <v>368</v>
@@ -4986,7 +4971,7 @@
         <v>527</v>
       </c>
       <c r="C100" t="s">
-        <v>706</v>
+        <v>602</v>
       </c>
       <c r="D100" t="s">
         <v>371</v>
@@ -4995,7 +4980,7 @@
         <v>372</v>
       </c>
       <c r="F100" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="G100" t="s">
         <v>373</v>
@@ -5012,7 +4997,7 @@
         <v>539</v>
       </c>
       <c r="C101" t="s">
-        <v>707</v>
+        <v>603</v>
       </c>
       <c r="D101" t="s">
         <v>376</v>
@@ -5021,7 +5006,7 @@
         <v>377</v>
       </c>
       <c r="F101" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="G101" t="s">
         <v>378</v>
@@ -5038,7 +5023,7 @@
         <v>540</v>
       </c>
       <c r="F102" t="s">
-        <v>621</v>
+        <v>699</v>
       </c>
       <c r="G102" t="s">
         <v>381</v>
@@ -5055,7 +5040,7 @@
         <v>527</v>
       </c>
       <c r="C103" t="s">
-        <v>708</v>
+        <v>604</v>
       </c>
       <c r="D103" t="s">
         <v>384</v>
@@ -5064,7 +5049,7 @@
         <v>385</v>
       </c>
       <c r="F103" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="G103" t="s">
         <v>386</v>
@@ -5081,7 +5066,7 @@
         <v>527</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>709</v>
+        <v>605</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>389</v>
@@ -5089,8 +5074,8 @@
       <c r="E104" t="s">
         <v>390</v>
       </c>
-      <c r="F104" t="s">
-        <v>623</v>
+      <c r="F104" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="G104" t="s">
         <v>391</v>
@@ -5107,7 +5092,7 @@
         <v>541</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>734</v>
+        <v>630</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>394</v>
@@ -5115,8 +5100,8 @@
       <c r="E105" t="s">
         <v>395</v>
       </c>
-      <c r="F105" t="s">
-        <v>624</v>
+      <c r="F105" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="G105" t="s">
         <v>396</v>
@@ -5125,7 +5110,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>398</v>
       </c>
@@ -5133,7 +5118,7 @@
         <v>527</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>710</v>
+        <v>606</v>
       </c>
       <c r="D106" t="s">
         <v>399</v>
@@ -5141,8 +5126,8 @@
       <c r="E106" t="s">
         <v>400</v>
       </c>
-      <c r="F106" t="s">
-        <v>625</v>
+      <c r="F106" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="G106" t="s">
         <v>401</v>
@@ -5151,7 +5136,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>403</v>
       </c>
@@ -5159,7 +5144,7 @@
         <v>527</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>711</v>
+        <v>607</v>
       </c>
       <c r="D107" t="s">
         <v>404</v>
@@ -5167,8 +5152,8 @@
       <c r="E107" t="s">
         <v>405</v>
       </c>
-      <c r="F107" t="s">
-        <v>626</v>
+      <c r="F107" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="G107" t="s">
         <v>406</v>
@@ -5177,7 +5162,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>408</v>
       </c>
@@ -5185,7 +5170,7 @@
         <v>542</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>712</v>
+        <v>608</v>
       </c>
       <c r="D108" t="s">
         <v>409</v>
@@ -5193,8 +5178,8 @@
       <c r="E108" t="s">
         <v>410</v>
       </c>
-      <c r="F108" t="s">
-        <v>627</v>
+      <c r="F108" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="G108" t="s">
         <v>411</v>
@@ -5211,7 +5196,7 @@
         <v>543</v>
       </c>
       <c r="C109" t="s">
-        <v>713</v>
+        <v>609</v>
       </c>
       <c r="D109" t="s">
         <v>414</v>
@@ -5220,7 +5205,7 @@
         <v>415</v>
       </c>
       <c r="F109" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="G109" t="s">
         <v>416</v>
@@ -5237,7 +5222,7 @@
         <v>527</v>
       </c>
       <c r="C110" t="s">
-        <v>714</v>
+        <v>610</v>
       </c>
       <c r="D110" t="s">
         <v>419</v>
@@ -5246,7 +5231,7 @@
         <v>420</v>
       </c>
       <c r="F110" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="G110" t="s">
         <v>421</v>
@@ -5263,7 +5248,7 @@
         <v>527</v>
       </c>
       <c r="C111" t="s">
-        <v>715</v>
+        <v>611</v>
       </c>
       <c r="D111" t="s">
         <v>424</v>
@@ -5272,7 +5257,7 @@
         <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="G111" t="s">
         <v>426</v>
@@ -5281,7 +5266,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>428</v>
       </c>
@@ -5289,7 +5274,7 @@
         <v>527</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>716</v>
+        <v>612</v>
       </c>
       <c r="D112" t="s">
         <v>429</v>
@@ -5297,8 +5282,8 @@
       <c r="E112" t="s">
         <v>430</v>
       </c>
-      <c r="F112" t="s">
-        <v>631</v>
+      <c r="F112" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="G112" t="s">
         <v>431</v>
@@ -5307,7 +5292,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>433</v>
       </c>
@@ -5315,7 +5300,7 @@
         <v>527</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>717</v>
+        <v>613</v>
       </c>
       <c r="D113" t="s">
         <v>434</v>
@@ -5323,8 +5308,8 @@
       <c r="E113" t="s">
         <v>435</v>
       </c>
-      <c r="F113" t="s">
-        <v>632</v>
+      <c r="F113" s="2" t="s">
+        <v>710</v>
       </c>
       <c r="G113" t="s">
         <v>436</v>
@@ -5333,7 +5318,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>438</v>
       </c>
@@ -5341,7 +5326,7 @@
         <v>530</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>718</v>
+        <v>614</v>
       </c>
       <c r="D114" t="s">
         <v>439</v>
@@ -5349,8 +5334,8 @@
       <c r="E114" t="s">
         <v>440</v>
       </c>
-      <c r="F114" t="s">
-        <v>633</v>
+      <c r="F114" s="2" t="s">
+        <v>711</v>
       </c>
       <c r="G114" t="s">
         <v>441</v>
@@ -5359,7 +5344,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>443</v>
       </c>
@@ -5367,7 +5352,7 @@
         <v>527</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>719</v>
+        <v>615</v>
       </c>
       <c r="D115" t="s">
         <v>444</v>
@@ -5375,8 +5360,8 @@
       <c r="E115" t="s">
         <v>445</v>
       </c>
-      <c r="F115" t="s">
-        <v>634</v>
+      <c r="F115" s="2" t="s">
+        <v>712</v>
       </c>
       <c r="G115" t="s">
         <v>446</v>
@@ -5385,7 +5370,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>448</v>
       </c>
@@ -5393,7 +5378,7 @@
         <v>527</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>720</v>
+        <v>616</v>
       </c>
       <c r="D116" t="s">
         <v>449</v>
@@ -5401,8 +5386,8 @@
       <c r="E116" t="s">
         <v>450</v>
       </c>
-      <c r="F116" t="s">
-        <v>635</v>
+      <c r="F116" s="2" t="s">
+        <v>713</v>
       </c>
       <c r="G116" t="s">
         <v>451</v>
@@ -5411,7 +5396,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>453</v>
       </c>
@@ -5419,7 +5404,7 @@
         <v>527</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>721</v>
+        <v>617</v>
       </c>
       <c r="D117" t="s">
         <v>454</v>
@@ -5427,8 +5412,8 @@
       <c r="E117" t="s">
         <v>455</v>
       </c>
-      <c r="F117" t="s">
-        <v>636</v>
+      <c r="F117" s="2" t="s">
+        <v>714</v>
       </c>
       <c r="G117" t="s">
         <v>456</v>
@@ -5437,7 +5422,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>458</v>
       </c>
@@ -5445,7 +5430,7 @@
         <v>527</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>722</v>
+        <v>618</v>
       </c>
       <c r="D118" t="s">
         <v>459</v>
@@ -5453,8 +5438,8 @@
       <c r="E118" t="s">
         <v>460</v>
       </c>
-      <c r="F118" t="s">
-        <v>637</v>
+      <c r="F118" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="G118" t="s">
         <v>461</v>
@@ -5463,7 +5448,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>463</v>
       </c>
@@ -5471,7 +5456,7 @@
         <v>527</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>723</v>
+        <v>619</v>
       </c>
       <c r="D119" t="s">
         <v>464</v>
@@ -5479,8 +5464,8 @@
       <c r="E119" t="s">
         <v>465</v>
       </c>
-      <c r="F119" t="s">
-        <v>638</v>
+      <c r="F119" s="2" t="s">
+        <v>716</v>
       </c>
       <c r="G119" t="s">
         <v>466</v>
@@ -5489,7 +5474,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>468</v>
       </c>
@@ -5497,7 +5482,7 @@
         <v>527</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>724</v>
+        <v>620</v>
       </c>
       <c r="D120" t="s">
         <v>469</v>
@@ -5505,8 +5490,8 @@
       <c r="E120" t="s">
         <v>470</v>
       </c>
-      <c r="F120" t="s">
-        <v>639</v>
+      <c r="F120" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="G120" t="s">
         <v>471</v>
@@ -5515,7 +5500,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>473</v>
       </c>
@@ -5523,7 +5508,7 @@
         <v>527</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>725</v>
+        <v>621</v>
       </c>
       <c r="D121" t="s">
         <v>474</v>
@@ -5531,8 +5516,8 @@
       <c r="E121" t="s">
         <v>475</v>
       </c>
-      <c r="F121" t="s">
-        <v>640</v>
+      <c r="F121" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="G121" t="s">
         <v>476</v>
@@ -5541,7 +5526,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>478</v>
       </c>
@@ -5549,7 +5534,7 @@
         <v>527</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>725</v>
+        <v>621</v>
       </c>
       <c r="D122" t="s">
         <v>474</v>
@@ -5557,8 +5542,8 @@
       <c r="E122" t="s">
         <v>475</v>
       </c>
-      <c r="F122" t="s">
-        <v>641</v>
+      <c r="F122" s="2" t="s">
+        <v>718</v>
       </c>
       <c r="G122" t="s">
         <v>476</v>
@@ -5567,7 +5552,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>480</v>
       </c>
@@ -5575,7 +5560,7 @@
         <v>527</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>726</v>
+        <v>622</v>
       </c>
       <c r="D123" t="s">
         <v>481</v>
@@ -5583,8 +5568,8 @@
       <c r="E123" t="s">
         <v>482</v>
       </c>
-      <c r="F123" t="s">
-        <v>642</v>
+      <c r="F123" s="2" t="s">
+        <v>719</v>
       </c>
       <c r="G123" t="s">
         <v>483</v>
@@ -5593,7 +5578,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>485</v>
       </c>
@@ -5601,7 +5586,7 @@
         <v>527</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>727</v>
+        <v>623</v>
       </c>
       <c r="D124" t="s">
         <v>486</v>
@@ -5609,8 +5594,8 @@
       <c r="E124" t="s">
         <v>487</v>
       </c>
-      <c r="F124" t="s">
-        <v>643</v>
+      <c r="F124" s="2" t="s">
+        <v>720</v>
       </c>
       <c r="G124" t="s">
         <v>488</v>
@@ -5619,7 +5604,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>490</v>
       </c>
@@ -5627,7 +5612,7 @@
         <v>527</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>728</v>
+        <v>624</v>
       </c>
       <c r="D125" t="s">
         <v>491</v>
@@ -5635,8 +5620,8 @@
       <c r="E125" t="s">
         <v>492</v>
       </c>
-      <c r="F125" t="s">
-        <v>644</v>
+      <c r="F125" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="G125" t="s">
         <v>493</v>
@@ -5645,7 +5630,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>495</v>
       </c>
@@ -5653,7 +5638,7 @@
         <v>527</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>729</v>
+        <v>625</v>
       </c>
       <c r="D126" t="s">
         <v>496</v>
@@ -5661,8 +5646,8 @@
       <c r="E126" t="s">
         <v>497</v>
       </c>
-      <c r="F126" t="s">
-        <v>645</v>
+      <c r="F126" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="G126" t="s">
         <v>498</v>
@@ -5671,7 +5656,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>500</v>
       </c>
@@ -5679,7 +5664,7 @@
         <v>527</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>730</v>
+        <v>626</v>
       </c>
       <c r="D127" t="s">
         <v>501</v>
@@ -5687,8 +5672,8 @@
       <c r="E127" t="s">
         <v>502</v>
       </c>
-      <c r="F127" t="s">
-        <v>646</v>
+      <c r="F127" s="2" t="s">
+        <v>723</v>
       </c>
       <c r="G127" t="s">
         <v>503</v>
@@ -5697,7 +5682,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>505</v>
       </c>
@@ -5705,7 +5690,7 @@
         <v>544</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>731</v>
+        <v>627</v>
       </c>
       <c r="D128" t="s">
         <v>506</v>
@@ -5713,8 +5698,8 @@
       <c r="E128" t="s">
         <v>507</v>
       </c>
-      <c r="F128" t="s">
-        <v>647</v>
+      <c r="F128" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="G128" t="s">
         <v>508</v>
@@ -5723,7 +5708,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>510</v>
       </c>
@@ -5731,7 +5716,7 @@
         <v>545</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>732</v>
+        <v>628</v>
       </c>
       <c r="D129" t="s">
         <v>511</v>
@@ -5739,8 +5724,8 @@
       <c r="E129" t="s">
         <v>512</v>
       </c>
-      <c r="F129" t="s">
-        <v>648</v>
+      <c r="F129" s="2" t="s">
+        <v>725</v>
       </c>
       <c r="G129" t="s">
         <v>513</v>
@@ -5757,7 +5742,7 @@
         <v>546</v>
       </c>
       <c r="C130" t="s">
-        <v>733</v>
+        <v>629</v>
       </c>
       <c r="D130" t="s">
         <v>516</v>
@@ -5766,7 +5751,7 @@
         <v>517</v>
       </c>
       <c r="F130" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="G130" t="s">
         <v>518</v>

--- a/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E714E6C8-8898-4046-ACE6-492585BC20AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24207054-34F9-4A41-BC71-A184F805D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1855,638 +1855,639 @@
     <t>EA 23.17</t>
   </si>
   <si>
-    <t>Você viajou longas distâncias até North Tyris. Você não tem ideia do que espera por você nesta terra desconhecida. Por enquanto, seu objetivo é estabelecer sua vida e persistir.</t>
+    <t>Venha aqui.</t>
+  </si>
+  <si>
+    <t>(sussurrando)</t>
+  </si>
+  <si>
+    <t>Não consigo dormir.</t>
+  </si>
+  <si>
+    <t>Uma receita de crim quente</t>
+  </si>
+  <si>
+    <t>Aventureiro</t>
+  </si>
+  <si>
+    <t>Uma Hora pela Manhã</t>
+  </si>
+  <si>
+    <t>Além do Desespero</t>
+  </si>
+  <si>
+    <t>Ajudante de Artesanato</t>
+  </si>
+  <si>
+    <t>Treinamento de Defesa</t>
+  </si>
+  <si>
+    <t>Aula de Linguagem Dracônica</t>
+  </si>
+  <si>
+    <t>Equipamento Essencial</t>
+  </si>
+  <si>
+    <t>Sentimentos de Fiama</t>
+  </si>
+  <si>
+    <t>Primeira Caixa de Envio</t>
+  </si>
+  <si>
+    <t>Inspetor da Fronteira</t>
+  </si>
+  <si>
+    <t>Ordem da Guilda (Mago)</t>
+  </si>
+  <si>
+    <t>Ordem da Guilda (Mercador)</t>
+  </si>
+  <si>
+    <t>Ordem da Guilda (Ladrão)</t>
+  </si>
+  <si>
+    <t>Mansão Assombrada</t>
+  </si>
+  <si>
+    <t>Guilda dos Magos</t>
+  </si>
+  <si>
+    <t>Missão Principal</t>
+  </si>
+  <si>
+    <t>Guilda dos Mercadores</t>
+  </si>
+  <si>
+    <t>Inspetor Desaparecido</t>
+  </si>
+  <si>
+    <t>Reconstrução de Mysilia</t>
+  </si>
+  <si>
+    <t>Notícias de Mysilia</t>
+  </si>
+  <si>
+    <t>Espírito Pioneiro</t>
+  </si>
+  <si>
+    <t>Busca por Companheiros</t>
+  </si>
+  <si>
+    <t>Falando do Diabo</t>
+  </si>
+  <si>
+    <t>Domesticação</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>Guilda dos Ladrões</t>
+  </si>
+  <si>
+    <t>Conselho de Tyris</t>
+  </si>
+  <si>
+    <t>Visão para o Futuro</t>
+  </si>
+  <si>
+    <t>Visitando a Irmãzinha</t>
+  </si>
+  <si>
+    <t>Voz na Sombra</t>
+  </si>
+  <si>
+    <t>Alquimista Errante</t>
+  </si>
+  <si>
+    <t>Caminho do Artesão</t>
+  </si>
+  <si>
+    <t>Estamos em guerra!</t>
+  </si>
+  <si>
+    <t>Sussurros do Destino</t>
+  </si>
+  <si>
+    <t>Ahem, venha aqui.</t>
+  </si>
+  <si>
+    <t>Por favor, venha, #pc.</t>
+  </si>
+  <si>
+    <t>Que cheiro delicioso é esse?</t>
+  </si>
+  <si>
+    <t>Uma Flor e uma Menina</t>
+  </si>
+  <si>
+    <t>E Assim Para a Lenda</t>
+  </si>
+  <si>
+    <t>Sombra Invisível</t>
+  </si>
+  <si>
+    <t>Fantoche</t>
+  </si>
+  <si>
+    <t>Aula de Fiama</t>
+  </si>
+  <si>
+    <t>Guilda dos Lutadores</t>
+  </si>
+  <si>
+    <t>Raça Fétida!</t>
+  </si>
+  <si>
+    <t>Ouro Abaixo</t>
+  </si>
+  <si>
+    <t>Ordem da Guilda (Lutador)</t>
+  </si>
+  <si>
+    <t>Tópico Quente</t>
+  </si>
+  <si>
+    <t>Menina de Olhos Estranhos</t>
+  </si>
+  <si>
+    <t>Para as Trevas</t>
+  </si>
+  <si>
+    <t>Ingressando na Guilda dos Lutadores</t>
+  </si>
+  <si>
+    <t>Ingressando na Guilda dos Magos</t>
+  </si>
+  <si>
+    <t>Ingressando na Guilda dos Mercadores</t>
+  </si>
+  <si>
+    <t>Ingressando na Guilda dos Ladrões</t>
+  </si>
+  <si>
+    <t>Longa Noite</t>
+  </si>
+  <si>
+    <t>Cachorrinho Perdido</t>
+  </si>
+  <si>
+    <t>Covil do Monstro</t>
+  </si>
+  <si>
+    <t>Nova Casa</t>
+  </si>
+  <si>
+    <t>Cercos</t>
+  </si>
+  <si>
+    <t>Escrevedor de Feitiços</t>
+  </si>
+  <si>
+    <t>Consideração do Cantor de Contos</t>
+  </si>
+  <si>
+    <t>Responsabilidade Fiscal</t>
+  </si>
+  <si>
+    <t>Para as Novas Terras</t>
+  </si>
+  <si>
+    <t>Símbolo do nosso encontro</t>
+  </si>
+  <si>
+    <t>Cratera Desconhecida</t>
+  </si>
+  <si>
+    <t>Pequeno recado
+A cidade em frenesi
+Solicitação de entrega
+Presente de celebração
+Entrega rara
+Coletor de lixo
+Um passo em direção à ambição
+Solicitação de retorno
+Símbolo de amizade</t>
+  </si>
+  <si>
+    <t>A noite está tranquila.</t>
+  </si>
+  <si>
+    <t>Hmm, parece que não há problema. Você parece cansado, que tal beber um pouco? Aqui está a recompensa prometida.</t>
+  </si>
+  <si>
+    <t>Uma casa dos sonhos
+Solicitação de compras</t>
   </si>
   <si>
     <t>Vamos reivindicar a terra lendo a escritura obtida de Ashland.</t>
   </si>
   <si>
-    <t>Você reivindicou a terra com uma escritura de terra. Está pronto para relatar a Ashland.</t>
-  </si>
-  <si>
-    <t>Mysilia precisa de um aliado forte para se reconstruir e sobreviver. Você deve continuar trabalhando na sua nova terra e aguardar notícias de Mysilia.</t>
-  </si>
-  <si>
-    <t>Você foi convidado por Melilith, uma misteriosa garota que vive em uma velha mansão, para participar de uma caça ao tesouro. Você deve descer até o porão da mansão para encontrar o tesouro escondido. No entanto, ela te avisou que "apenas um tesouro pode ser levado de volta com você."</t>
-  </si>
-  <si>
-    <t>Você obteve o "tesouro" no fundo do porão da velha mansão. Agora, volte à superfície e faça seu relatório para Melilith.</t>
-  </si>
-  <si>
-    <t>Você ainda parece um pouco tonto. Tome um pouco de crim quente para recuperar sua fadiga. Crimberries são ingredientes fáceis de encontrar, usados com frequência em muitas refeições e medicamentos. Recolha 3 crimberries para que eu possa te ensinar a receita. Pergunte a Ash se precisar de orientação.|Então você voltou. Aqui está uma panela de água para você. Os ingredientes para o crim quente são apenas as crimberries e a água. Você também vai precisar de uma fonte de fogo para cozinhá-lo, então vá até o fogo de acampamento quando for preparar. Traga o crim quente para mim quando estiver pronto.</t>
-  </si>
-  <si>
-    <t>Caro #player#, você esqueceu de novo?</t>
-  </si>
-  <si>
-    <t>Venha aqui.</t>
-  </si>
-  <si>
-    <t>Em momentos como este, você pode aproveitar para treinar para o combate. | Vamos matar o punk amarrado e retornar a Ashland.</t>
-  </si>
-  <si>
-    <t>|Derrote o javali amarrado usando armas e itens de longo alcance.</t>
+    <t>Você ainda parece um pouco tonto. Tome um crim quente para recuperar a fadiga. Crimberries são ingredientes fáceis de encontrar e usados em muitas refeições e remédios. Recolha 3 crimberries para que eu possa te ensinar a receita. Pergunte ao Ash se precisar de ajuda.|Então você voltou. Aqui está uma panela com água. Os ingredientes do crim quente são apenas as crimberries e a água. Você também vai precisar de uma fonte de fogo, então fique perto da fogueira para cozinhar. Traga o crim quente para mim quando estiver pronto.</t>
+  </si>
+  <si>
+    <t>|Você prometeu ajudar Loytel a pagar sua dívida de 20 milhões de oren. Pegue as notas de dívida com Loytel e entregue no baú de impostos.</t>
+  </si>
+  <si>
+    <t>Acompanhe os ingredientes da receita.</t>
+  </si>
+  <si>
+    <t>Em tempos assim, é melhor treinar para combate. | Vamos derrotar o punk preso e relatar ao Ashland.</t>
+  </si>
+  <si>
+    <t>Eu vou te ensinar.|Fiama mandou você tentar abrir o baú do tesouro. Vamos abri-lo e relatar à Fiama.</t>
+  </si>
+  <si>
+    <t>Como membro da Guilda dos Guerreiros, você deve contribuir com a guilda. Cumprir tarefas rende pontos de contribuição. Quando atingir o máximo, fale com o escrivão da guilda para ser promovido.</t>
+  </si>
+  <si>
+    <t>Hora de fazer dinheiro.|Loytel te pediu para criar um baú de envio. Use os materiais que ele te deu para construir o baú, coloque no chão e depois reporte de volta ao Loytel. Use madeira de palulu para o baú de envio.</t>
+  </si>
+  <si>
+    <t>Não aguento mais essa raça insolente e repugnante de #2! Te imploro, mate #3 deles pra mim.</t>
+  </si>
+  <si>
+    <t>Tem alguém que quero que você conheça.|</t>
+  </si>
+  <si>
+    <t>Será que o Mestre Kettle sabe de algo?|Você ouviu falar do ouro adormecido sob Vernis por Kettle. Fale com Loytel quando estiver pronto para desenvolver Vernis.</t>
+  </si>
+  <si>
+    <t>Você foi convidado por Melilith, uma garota misteriosa que vive numa velha mansão, para participar de uma caça ao tesouro. Você deve explorar o porão da mansão para encontrar o tesouro escondido. Mas ela avisou: "apenas um tesouro pode ser levado de volta com você."</t>
+  </si>
+  <si>
+    <t>Qual é a dessa cara triste?</t>
+  </si>
+  <si>
+    <t>Todos, reúnam-se, por favor.|Você precisa encontrar um jeito de lidar com Issizzle. (Continua...)</t>
+  </si>
+  <si>
+    <t>O vigia da Guilda dos Guerreiros te contou os detalhes da provação. Você precisa derrotar vários Yeeks para passar.</t>
+  </si>
+  <si>
+    <t>Segundo o vigia da Guilda dos Magos, é necessária uma carta de recomendação de um membro da guilda para entrar na academia. Essa carta também pode ser comprada de um mago-vendedor.</t>
+  </si>
+  <si>
+    <t>Lady Marian te contou os detalhes da provação da Guilda dos Mercadores. Você precisa distribuir panfletos pela cidade. Eles podem ser comprados com o escrivão da guilda.</t>
+  </si>
+  <si>
+    <t>A donzela da Noite te contou os detalhes da provação da Guilda dos Ladrões. Você precisa quebrar leis e acumular crimes para passar.</t>
+  </si>
+  <si>
+    <t>Quero que procure um filhote.|Fiama te pediu para encontrar um filhote perdido. Parece que ele se perdeu na “Caverna do Filhote”, a noroeste da sua casa."</t>
+  </si>
+  <si>
+    <t>Como membro da Guilda dos Magos, você deve contribuir com a guilda. Cumprir tarefas rende pontos de contribuição. Quando atingir o máximo, fale com o escrivão da guilda para ser promovido.</t>
+  </si>
+  <si>
+    <t>Você viajou até Tyris do Norte. Não faz ideia do que te espera nessa terra desconhecida. Por ora, seu objetivo é construir sua vida e persistir.</t>
+  </si>
+  <si>
+    <t>Como membro da Guilda dos Mercadores, você deve contribuir com a guilda. Cumprir tarefas rende pontos de contribuição. Quando atingir o máximo, fale com o escrivão da guilda para ser promovido.</t>
+  </si>
+  <si>
+    <t>Farris pediu que você encontre Loytel, que desapareceu. Ele sempre dizia que queria beber o vinho de Olvina mais uma vez...</t>
+  </si>
+  <si>
+    <t>Algum tolo roubou o #1 da caverna de um monstro próximo à nossa cidade, e agora os monstros enfurecidos estão aparecendo sem parar. Por favor, cuide disso pelo bem de #3!</t>
+  </si>
+  <si>
+    <t>Mysilia precisa de um aliado forte para se reconstruir e sobreviver. Você deve trabalhar em sua nova terra e aguardar notícias de Mysilia.</t>
+  </si>
+  <si>
+    <t>Sobre o que Ash e Fiama estão conversando?</t>
+  </si>
+  <si>
+    <t>Venha aqui por um instante. | Loytel lhe instruiu a trazer uma enxada e uma pá. Crie essas duas ferramentas agrícolas e reporte a Loytel.</t>
+  </si>
+  <si>
+    <t>Querido #player#, esqueceu de novo?</t>
+  </si>
+  <si>
+    <t>Possuis conhecimento das artes arcanas?</t>
+  </si>
+  <si>
+    <t>Prefiro bolos e doces a bebidas alcoólicas. Quer #1? Me traga #2!_x000D_
+Estou pensando em dar #2 como lanche para meus filhos. Traga antes que eles comecem a chorar.</t>
+  </si>
+  <si>
+    <t>O céu está lindo.</t>
+  </si>
+  <si>
+    <t>missão de domesticação</t>
+  </si>
+  <si>
+    <t>Odeio ter que dizer isso, mas...| Você descobriu suas obrigações fiscais. Primeiro você precisa esperar até receber sua fatura de impostos.</t>
+  </si>
+  <si>
+    <t>Como membro da Guilda dos Ladrões, você deve contribuir com a guilda. Cumprir tarefas rende pontos de contribuição. Quando atingir o máximo, fale com o escrivão da guilda para ser promovido.</t>
+  </si>
+  <si>
+    <t>Está com espírito aventureiro? | Ashland pediu para você investigar uma caverna chamada Nymelle. Nymelle fica a sudeste de sua casa.</t>
+  </si>
+  <si>
+    <t>Você já ouviu falar do Conselho de Tyris? | Em Tyris do Norte, a União Tyris realiza uma reunião mensal do conselho. Aconselharam você a conversar com vários membros para conhecê-los melhor.</t>
+  </si>
+  <si>
+    <t>buraco</t>
+  </si>
+  <si>
+    <t>Sinto como se alguém estivesse atrás de mim.</t>
+  </si>
+  <si>
+    <t>Parece que alguém chegou.</t>
+  </si>
+  <si>
+    <t>Aprenda a arte da carpintaria e construa uma casa. | Você precisa coletar toras de árvores e usar a habilidade "Criação Rápida" para criar uma "bancada de trabalho". Volte a Ashland assim que tiver instalado a bancada.</t>
+  </si>
+  <si>
+    <t>Más notícias! Uma guerra estourou por causa do #1 que estimamos tanto em #3! Por favor, corra para o campo de batalha e detenha o avanço inimigo!</t>
+  </si>
+  <si>
+    <t>|Forje uma "tocha" na "bancada", equipe no slot de fonte de luz e reporte-se a Ashland.</t>
+  </si>
+  <si>
+    <t>|Você recebeu a missão de construir sua primeira casa em sua terra natal. Uma casa pode ser construída cercando um espaço com paredes e instalando uma porta. Forje paredes e uma porta na "bancada", construa uma bela casa e reporte-se a Ashland.</t>
+  </si>
+  <si>
+    <t>|Derrote o javali acorrentado usando armas de longo alcance e itens.</t>
   </si>
   <si>
     <t>|Mate 100 inimigos de qualquer tipo e reporte-se a Ashland.</t>
   </si>
   <si>
-    <t>Eu vou te ensinar.|Fiama te instruiu a tentar abrir o baú de tesouro. Vamos abri-lo e retornar a Fiama.</t>
-  </si>
-  <si>
-    <t>Eu quero que você procure por um filhote de cachorro.|Fiama pediu para você encontrar um filhote de cachorro perdido. Aparentemente, o filhote se afastou para a "Caverna do Filhote", localizada a noroeste da sua casa."</t>
-  </si>
-  <si>
-    <t>|Você resgatou o filhote que Fiama procurava. Agora, você precisa entregar o filhote a ela com segurança e reportar.</t>
-  </si>
-  <si>
-    <t>Aprenda a arte da marcenaria e construa uma casa. |Você precisa reunir toras de madeira de árvores e usar a habilidade "Artesanato Rápido" para criar uma "bancada de trabalho". Reporte-se a Ashland depois de construir e instalar a bancada de trabalho.</t>
-  </si>
-  <si>
-    <t>|Crie uma "tocha" na "bancada de trabalho", equipe-a no slot de fonte de luz e reporte-se a Ashland.</t>
-  </si>
-  <si>
-    <t>|Você recebeu a missão de construir a primeira casa na sua terra natal. Uma casa pode ser construída fechando um espaço com paredes e instalando uma porta. Crie paredes e uma porta na "bancada de trabalho", construa uma boa casa e reporte-se a Ashland.</t>
-  </si>
-  <si>
-    <t>Eu odeio te dizer isso, mas...| Você aprendeu sobre suas obrigações fiscais. Primeiro, você deve esperar até receber a conta do imposto.</t>
-  </si>
-  <si>
-    <t>| Você recebeu sua conta de imposto. Pode pagar o imposto na prefeitura de Mysilia, que fica ao sudeste da estrada da cidade.</t>
-  </si>
-  <si>
-    <t>Você já ouviu falar do Conselho de Tyris? |No Norte de Tyris, a União de Tyris realiza uma reunião mensal do conselho. Foi aconselhado a conversar com vários membros do conselho primeiro para conhecê-los melhor.</t>
-  </si>
-  <si>
-    <t>Está a fim de explorar? |Ashland pediu para você investigar uma caverna chamada Nymelle. Nymelle fica a sudeste de sua casa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|Você encontrou Farris, uma cantora de histórias, enquanto explorava Nymelle. Talvez ela possa te dar algumas informações se você conversar com ela em sua casa._x000D_
+    <t xml:space="preserve">|Você conheceu Farris, uma contadora de histórias enquanto explorava Nymelle. Talvez consiga algumas informações com ela se conversar em sua casa.
 </t>
   </si>
   <si>
-    <t>|Mergulhe fundo em Nymelle e talvez você encontre algo.</t>
-  </si>
-  <si>
-    <t>|Você derrotou as tropas Imperiais que bloqueavam o seu caminho nas profundezas de Nymelle. Vamos continuar e descobrir o segredo de Nymelle.</t>
-  </si>
-  <si>
-    <t>|Você encontrou árvores fossilizadas e o cristal na camada mais profunda de Nymelle. Você deve retornar para sua casa e relatar a Ashland.</t>
-  </si>
-  <si>
-    <t>Há alguém que quero que você conheça.|</t>
-  </si>
-  <si>
-    <t>Hora de ganhar dinheiro.|Loytel pediu para você criar um baú de envio. Use os materiais que ele forneceu para construir o baú, coloque-o no chão e depois reporte-se a Loytel. Lembre-se de usar madeira de palulu para o baú de envio.</t>
-  </si>
-  <si>
-    <t>Venha aqui um momento. | Loytel te instruiu a trazer uma enxada e uma pá. Crie essas duas ferramentas de cultivo e reporte-se a Loytel.</t>
-  </si>
-  <si>
-    <t>Sobre o que Ash e Fiama estão conversando?</t>
-  </si>
-  <si>
-    <t>O céu está lindo.</t>
-  </si>
-  <si>
-    <t>Parece que alguém chegou.</t>
-  </si>
-  <si>
-    <t>Que cheiro delicioso é esse?</t>
-  </si>
-  <si>
-    <t>O que é esse rosto longo?</t>
-  </si>
-  <si>
-    <t>(sussurrando)</t>
-  </si>
-  <si>
-    <t>Será que o Mestre Kettle sabe de algo? |Você ouviu sobre o ouro dormindo sob Vernis com Kettle. Fale com Loytel quando estiver pronto para desenvolver Vernis.</t>
-  </si>
-  <si>
-    <t>Vernis está localizada um pouco ao norte da primeira base. Quando chegar em Vernis, reporte-se a Loytel, que estará esperando lá.</t>
-  </si>
-  <si>
-    <t>Fale com Loytel quando estiver pronto para começar a desenvolver Vernis.</t>
-  </si>
-  <si>
-    <t>Loytel te deu uma receita para uma bomba caseira chamada "Flam". Use a bomba para destruir todas as grandes pedras em Vernis e depois reporte-se a Loytel.</t>
-  </si>
-  <si>
-    <t>Loytel te deu uma "Escritura de Terreno". Fale com Loytel depois de ter reivindicado os direitos sobre o terreno.</t>
+    <t>|Mergulhe fundo em Nymelle e talvez encontre algo.</t>
+  </si>
+  <si>
+    <t>|Você derrotou as tropas imperiais bloqueando seu caminho nas profundezas de Nymelle. Vamos em frente e descobrir o segredo de Nymelle.</t>
+  </si>
+  <si>
+    <t>|Você encontrou árvores fossilizadas e o cristal na camada mais profunda de Nymelle. Você deve retornar para casa e se reportar a Ashland.</t>
+  </si>
+  <si>
+    <t>Você concluiu o teste da Guilda dos Guerreiros. Vamos nos reportar ao guarda.</t>
+  </si>
+  <si>
+    <t>Você concluiu o teste da Guilda dos Magos. Vamos nos reportar ao guarda.</t>
+  </si>
+  <si>
+    <t>Você concluiu o teste da Guilda dos Mercadores. Vamos nos reportar à Lady Marian.</t>
+  </si>
+  <si>
+    <t>Você concluiu o teste da Guilda dos Ladrões. Vamos nos reportar ao guarda.</t>
+  </si>
+  <si>
+    <t>Você reivindicou um terreno com uma escritura de posse. Está pronto para se reportar a Ashland.</t>
+  </si>
+  <si>
+    <t>Você obteve o "tesouro" escondido no porão da antiga mansão. Agora, volte à superfície e reporte-se a Melilith.</t>
+  </si>
+  <si>
+    <t>|Você resgatou o filhote que Fiama estava procurando. É preciso entregá-lo em segurança a ela e fazer o relatório.</t>
+  </si>
+  <si>
+    <t>|Você recebeu sua conta de impostos. Você pode pagar os tributos no salão da cidade em Mysilia, localizado a sudeste da estrada principal.</t>
+  </si>
+  <si>
+    <t>Vernis está localizada um pouco ao norte da primeira base. Assim que chegar em Vernis, reporte-se a Loytel, que estará esperando lá.</t>
+  </si>
+  <si>
+    <t>Fale com Loytel quando estiver pronto para começar o desenvolvimento de Vernis.</t>
+  </si>
+  <si>
+    <t>Loytel lhe deu uma receita para uma bomba caseira chamada "Flam". Use a bomba para destruir todas as rochas enormes em Vernis e depois reporte-se a Loytel.</t>
+  </si>
+  <si>
+    <t>Loytel lhe deu uma "Escritura de Terra". Fale com Loytel assim que tiver reivindicado os direitos sobre a terra.</t>
+  </si>
+  <si>
+    <t>O desenvolvimento de Vernis começou. Cultive a Pedra do Lar em Vernis e reporte a Loytel. Pergunte a Loytel se estiver em dúvida sobre como cultivá-la. Além disso, continue conversando com seus companheiros no quadro de missões.</t>
   </si>
   <si>
     <t>Um dragão apareceu no subterrâneo de Vernis. Fale com Loytel quando estiver pronto para enfrentá-lo.</t>
   </si>
   <si>
-    <t>Sua missão é derrotar o Dragão de Aço Corgon para proteger Vernis. Vá fundo na mina de Vernis e mate o dragão.</t>
-  </si>
-  <si>
-    <t>Você encontrou um monstro antigo, Tephra, nas profundezas da mina de Vernis. Você deve derrotar essa criatura para avançar.</t>
-  </si>
-  <si>
-    <t>A verdadeira identidade do dragão que aninha nas profundezas da mina é a descendência do agora falecido Dragão de Aço Corgon. Volte à superfície e fale com Loytel em Vernis.</t>
-  </si>
-  <si>
-    <t>Ahem, venha aqui.</t>
-  </si>
-  <si>
-    <t>Por favor, venha, #pc.</t>
-  </si>
-  <si>
-    <t>Farris pediu para você encontrar Loytel, que desapareceu. Ele sempre disse que queria beber o vinho de Olvina mais uma vez...</t>
-  </si>
-  <si>
-    <t>|Você prometeu ajudar Loytel a pagar sua dívida de 20 milhões de oren. Pegue as contas de dívida com Loytel e entregue-as no baú de impostos.</t>
-  </si>
-  <si>
-    <t>Não consigo dormir.</t>
-  </si>
-  <si>
-    <t>A noite está tranquila.</t>
-  </si>
-  <si>
-    <t>Sinto como se alguém estivesse atrás de mim.</t>
-  </si>
-  <si>
-    <t>Pessoal, se reúnam, por favor.|Você precisa encontrar uma maneira de lidar com Issizzle. (Continua)</t>
-  </si>
-  <si>
-    <t>Continua.</t>
-  </si>
-  <si>
-    <t>Tu possuis conhecimento das artes arcanas?</t>
-  </si>
-  <si>
-    <t>O vigilante da Guilda dos Lutadores te contou os detalhes do teste. Você precisa derrotar vários Yeeks para passar no teste.</t>
-  </si>
-  <si>
-    <t>Você completou o teste da Guilda dos Lutadores. Vamos relatar ao vigilante.</t>
-  </si>
-  <si>
-    <t>Como membro da Guilda dos Lutadores, você deve contribuir para a guilda. Completar tarefas lhe rende pontos de contribuição. Quando você alcançar o máximo de contribuição, fale com o funcionário da guilda para ser promovido.</t>
-  </si>
-  <si>
-    <t>De acordo com o vigilante da Guilda dos Magos, é necessário uma carta de recomendação de um membro da Guilda dos Magos para entrar na academia. A carta também pode ser comprada com um mago-vendedor.</t>
-  </si>
-  <si>
-    <t>Você completou o teste da Guilda dos Magos. Vamos relatar ao vigilante.</t>
-  </si>
-  <si>
-    <t>Como membro da Guilda dos Magos, você deve contribuir para a guilda. Completar tarefas lhe rende pontos de contribuição. Quando você alcançar o máximo de contribuição, fale com o funcionário da guilda para ser promovido.</t>
-  </si>
-  <si>
-    <t>A donzela da Noite te contou os detalhes do teste da Guilda dos Ladrões. Você precisa quebrar leis e acumular um histórico de crimes para passar no teste.</t>
-  </si>
-  <si>
-    <t>Você completou o teste da Guilda dos Ladrões. Vamos relatar ao vigilante.</t>
-  </si>
-  <si>
-    <t>Como membro da Guilda dos Ladrões, você deve contribuir para a guilda. Completar tarefas lhe rende pontos de contribuição. Quando você alcançar o máximo de contribuição, fale com o funcionário da guilda para ser promovido.</t>
-  </si>
-  <si>
-    <t>Lady Marian te contou os detalhes do teste da Guilda dos Comerciantes. Você precisa distribuir panfletos em uma cidade para passar no teste. Os panfletos podem ser comprados com o funcionário da guilda.</t>
-  </si>
-  <si>
-    <t>Você completou o teste da Guilda dos Comerciantes. Vamos relatar a Lady Marian.</t>
-  </si>
-  <si>
-    <t>Como membro da Guilda dos Comerciantes, você deve contribuir para a guilda. Completar tarefas lhe rende pontos de contribuição. Quando você alcançar o máximo de contribuição, fale com o funcionário da guilda para ser promovido.</t>
-  </si>
-  <si>
-    <t>Você tem algum plano de visitar #3 por acaso? Tenho meu [qFriend] lá, que não vejo há muito tempo. Pode entregar #2 para mim?_x000D_
-Ouviu as novidades? A febre do #2 está tomando conta da cidade de #3 e as pessoas estão fervendo de entusiasmo! Meu [qFriend] está chorando e me implorando para enviar um. Pode ir até #3 e entregar este pacote para mim?_x000D_
-Por favor, entregue #2 em #3. Se conseguir entregar com segurança, você receberá o pagamento._x000D_
-Meu [qFriend] construiu uma casa em #3, então gostaria de enviar #2 como presente de celebração. Você pode entregar para mim?_x000D_
-Não sei para que será usado, mas algum [qClient] quer comprar meu #2. Se entregar em #3, você será pago com #1._x000D_
-Algum [qClient] que mora em #3 parece estar coletando lixo. Estou pensando em enviar um monte de meu #2, mas é muito trabalho para mim. Pode levar até lá para mim?_x000D_
-Um promissor [qClient] em #3 está pesquisando sobre #2. Se entregar com segurança este #2, você será recompensado com #1._x000D_
-Você pode devolver o #2 que peguei emprestado para meu [qFriend] em #3? Sua recompensa será #1._x000D_
-Como um sinal da nossa amizade de longa data, estou pensando em enviar #2 para meu [qFriend]. Pode transportá-lo até #3 para mim?</t>
-  </si>
-  <si>
-    <t>Não sei se você pode entender isso, mas eu tenho uma queda por #2 e tenho a ambição de eventualmente colecionar #2 de todo o mundo. Para começar, pode sair e me trazer um? Não me importo com qualidade ou raridade!_x000D_
-Você não poderia ter chegado em melhor hora! Meu [qFriend] decidiu de repente visitar minha casa. Preciso de #2 agora. Você acha que consegue conseguir para mim?_x000D_
-Estou pensando no que seria um bom presente para meu querido [qFriend]. Por enquanto, vou pagar #1 se você me trouxer #2._x000D_
-Tive um pouco de sorte recentemente, então quero me dar um presente de #2. Que tal #1 como pagamento?_x000D_
-Preciso de #2 para o presente de aniversário do meu filho. Traga até mim e a recompensa é sua._x000D_
-Estou realizando uma pesquisa sobre #2 e estou sem estoque. Você poderia conseguir mais para mim?_x000D_
-Minha coleção precisa de #2. Por favor, aceite essa tarefa por uma recompensa de #1!_x000D_
-Preciso de #2 para um pequeno recado. Se conseguir entregar dentro do prazo, pagarei #1.</t>
-  </si>
-  <si>
-    <t>Vários monstros foram avistados ao redor da cidade recentemente. Você pode sair e eliminá-los? #3 mortes serão suficientes._x000D_
-Patrolamos regularmente os arredores da cidade para remover monstros perigosos. As coisas estão um pouco agitadas ultimamente e estamos procurando aventureiros para assumir a patrulha. A nossa cota dessa vez é de cerca de #3. Você está interessado?_x000D_
-Não quer tornar o mundo um lugar um pouco melhor para viver? É simples, basta matar cerca de #3 monstros que encontrar.</t>
-  </si>
-  <si>
-    <t>Eu não suporto mais essa raça insolente e nojenta de #2! Peço que mate #3 deles para mim.</t>
-  </si>
-  <si>
-    <t>Notícia grave! Uma guerra estourou por causa do #1 que tanto prezamos em #3! Por favor, vá até o campo de batalha imediatamente e pare o avanço do inimigo!</t>
-  </si>
-  <si>
-    <t>Algum tolo roubou o #1 de uma caverna de monstros perto de nossa cidade e os monstros enfurecidos estão agora atacando sem parar. Por favor, tome conta deles pelo bem de #3!"</t>
-  </si>
-  <si>
-    <t>As colheitas que plantamos no campo perto de #3 provavelmente já cresceram. Vá até lá e colha cerca de #2 das colheitas. Vou pagar #1 como recompensa._x000D_
-Estou um pouco sobrecarregado com toda essa colheita que cresceu no meu campo. Pode colher cerca de #2 das colheitas para mim?_x000D_
-Finalmente chegou o tempo da colheita. Não é um trabalho que eu consiga fazer sozinho. Ei, pode me ajudar e juntar as colheitas que pesem cerca de #2?</t>
-  </si>
-  <si>
-    <t>Você está sentindo isso, baby? Estou super animado! Venha se juntar à minha festa e tocar algumas músicas. Se você conseguir mais de #2 pontos de música, eu vou te dar um presente legal! Yay!_x000D_
-Estou fazendo uma grande festa hoje. Muitas celebridades vão comparecer à festa, então preciso de alguém para entreter a todos. Se você conseguir marcar #2 pontos de música, vou te dar um ótimo presente._x000D_
-Ah, por favor, alguém tome meu lugar e se apresente na festa por mim. Estou com muito medo da plateia! Se você conseguir marcar #2 pontos de música, vou te dar um presente bônus como agradecimento.</t>
-  </si>
-  <si>
-    <t>Uma grande quantidade de monstros está se reproduzindo em #3, e estamos oferecendo uma recompensa por sua erradicação. Você pode ajudar?_x000D_
-Pagaremos uma recompensa por exterminar rapidamente os monstros em um local específico. Você aceita?_x000D_
-Estou tendo problemas com monstros aparecendo perto da minha casa. Se você puder eliminá-los, vou pagar #1.</t>
-  </si>
-  <si>
-    <t>Estou morrendo de vontade de comer carne! Quero #2 agora! Por favor, apresse-se!_x000D_
-Nós vamos receber uma recepção muito importante esta noite. Os convidados precisam estar satisfeitos e se sentindo incríveis. Quero que prepare #2 e #1 são seus.</t>
-  </si>
-  <si>
-    <t>Reza a lenda que peixe faz muito bem para o corpo. Cozinhe #2 e entregue para mim, e eu pagarei #1._x000D_
-Meus filhos não comem peixe. Está me matando. Vou dar #1 para quem fizer #2 saboroso o suficiente para agradá-los!</t>
-  </si>
-  <si>
-    <t>Legumes são partes essenciais de uma dieta saudável. Cozinhe #2 para mim. Suas recompensas serão #1._x000D_
-Meu [qFriend] simplesmente não come legumes, e estou ficando sem opções! Talvez ela coma se você preparar #2.</t>
-  </si>
-  <si>
-    <t>Quero #2 para a sobremesa de hoje à noite. Por favor, entregue-o._x000D_
-Faça um pequeno favor para nós e ganhe #1. Precisamos de um molho picante para nossa festa de coquetéis. Ah, #2 parece bom.</t>
-  </si>
-  <si>
-    <t>Você prefere pão ou arroz? Eu definitivamente prefiro pão. Cozinhe #2 para mim, por favor._x000D_
-Primeiro, a recompensa não será mais do que #1, ok? Meu [qFriend] precisa de #2 para um piquenique amanhã. Por favor, se apresse.</t>
-  </si>
-  <si>
-    <t>Massas, ramen, soba... Adoro noodles! Por favor, me deixe experimentar #2!_x000D_
+    <t>Sua missão é derrotar o Dragão de Aço Corgon para proteger Vernis. Vá até as profundezas da mina de Vernis e elimine o dragão.</t>
+  </si>
+  <si>
+    <t>Você encontrou a criatura ancestral Tephra nas profundezas da mina de Vernis. Você deve derrotá-la para avançar.</t>
+  </si>
+  <si>
+    <t>A verdadeira identidade do dragão aninhado nas profundezas da mina revela-se como a prole do já falecido Dragão de Aço Corgon. Retorne à superfície e fale com Loytel em Vernis.</t>
+  </si>
+  <si>
+    <t>Você pretende visitar #3 por acaso? Tenho um [qFriend] lá que não vejo há muito tempo. Pode entregar #2 para mim?
+Ficou sabendo das novidades? A febre do #2 está tomando conta da cidade de #3 e o povo está fervendo de entusiasmo! Meu [qFriend] está chorando, implorando para eu mandar um. Pode ir até #3 entregar este pacote para mim?
+Por favor, entregue #2 em #3. Se conseguir entregar com segurança, receberá o pagamento.
+Meu [qFriend] construiu uma casa em #3, então quero mandar #2 como presente de celebração. Pode entregar para mim?
+Não sei para que será usado, mas um certo [qClient] quer comprar meu #2. Se entregar em #3, será pago com #1.
+Parece que um [qClient] que vive em #3 está coletando lixo. Estou pensando em mandar um monte de #2, mas dá muito trabalho. Pode levar para mim?
+Um promissor [qClient] em #3 está pesquisando sobre #2. Se você entregar esse #2 com segurança, receberá uma recompensa de #1.
+Pode devolver o #2 que peguei emprestado ao meu [qFriend] em #3? Sua recompensa será #1.
+Como símbolo da nossa duradoura amizade, estou pensando em enviar #2 para meu [qFriend]. Pode levar até #3 para mim?</t>
+  </si>
+  <si>
+    <t>Prefiro bolos e doces a bebidas alcoólicas. Quer #1? Me traga #2!
+Estou pensando em dar #2 como lanche para meus filhos. Traga antes que eles comecem a chorar.</t>
+  </si>
+  <si>
+    <t>Há alguém que precisa ser levado com urgência para #3. A recompensa é #1. Não perca o prazo!
+Você sabe do que estou falando, não sabe? Sim, minha amada está prestes a morrer de uma doença. Quero levá-la para a memorável cidade de #3 uma última vez! Por favor, aceite esta missão por #1.
+Desastre! Meu pai foi envenenado gravemente! Imploro, leve-o com urgência ao renomado médico que vive em #3. Preparei toda minha fortuna, #1, como recompensa!</t>
+  </si>
+  <si>
+    <t>Continua…</t>
+  </si>
+  <si>
+    <t>Vários monstros foram avistados ao redor da cidade recentemente. Pode sair e se livrar deles? #3 mortes serão suficientes.
+Patrulhamos regularmente os arredores da cidade para remover monstros perigosos. As coisas ficaram agitadas e estamos buscando aventureiros para assumir as patrulhas. Nossa cota desta vez é de cerca de #3. Interessado?
+Você não quer tornar o mundo um lugar um pouco melhor? É simples, mate cerca de #3 monstros que encontrar.</t>
+  </si>
+  <si>
+    <t>Houve um tempo em que coletar #2 era uma febre em #3, mas agora que a popularidade caiu, eles estão largados por aí. Preciso que colete #4 de #2 para limpar as ruas.
+Sou um colecionador de #2. Por favor, não pergunte por que coleciono essas coisas. Os olhares frios do meu [qFriend] já bastam. De qualquer forma, pode me trazer #4 de #2? Pagarei bem.
+Ai não! Quando cheguei em casa hoje, descobri que meu [qFriend] jogou fora todos os meus preciosos #2! Por favor, colete #4 de #2 com urgência!</t>
+  </si>
+  <si>
+    <t>Vegetais são parte essencial de uma dieta saudável. Cozinhe #2 para mim. Suas recompensas serão #1.
+Meu [qFriend] simplesmente não come vegetais, e estou à beira da loucura! Talvez ela coma se você preparar #2.</t>
+  </si>
+  <si>
+    <t>Macarrão, ramen, soba... eu adoro noodles! Por favor, me deixe provar #2!
 Eu amo noodles! Eu amo noodles! Existe alguém que odeia noodles? Quero comer #2 agora!</t>
   </si>
   <si>
-    <t>O momento em que um ovo é quebrado, infinitas possibilidades surgem na cozinha. Você entende, certo? Sim, por favor, traga o #2 para mim._x000D_
-Para começar o dia com energia, sempre como um prato nutritivo com ovo. Pode fazer #2 para mim?</t>
-  </si>
-  <si>
-    <t>Nada supera uma refeição deliciosa depois de um dia de aventuras! Prepare um caloroso #2 para mim para me preparar para a longa jornada de amanhã._x000D_
-Simplesmente não consigo parar de desejar arroz... Por favor, me deixe comer #2 até ficar satisfeito!</t>
-  </si>
-  <si>
-    <t>Para o jantar de hoje à noite com meu [qFriend], um quente #2 é absolutamente necessário. Por favor, prepare uma sopa deliciosa!_x000D_
-Quero entregar um quente #2 para meu [qFriend] que não está se sentindo bem. Vou te dar #1, então faça com amor.</t>
-  </si>
-  <si>
-    <t>Como mestre na culinária, estou sempre ansioso para aprender uma nova receita. Traga-me #2 para minha pesquisa._x000D_
-Minha barriga ronca como se eu estivesse morrendo de fome habitualmente. Você pode trazer um pedaço para essa fera? Talvez #2 seja o suficiente. Posso te dar #1 como recompensa.</t>
-  </si>
-  <si>
-    <t>Por razões que não posso divulgar, alguém precisa ser escoltado até #3. Não acho que eles sejam alvo específico, mas se você conseguir, pagarei #1. Deve ser um trabalho fácil para um aventureiro, certo?_x000D_
-Estou sendo incomodado por esse peculiar turista! Vou pagar #1 se você puder guiá-lo até #3._x000D_
-Um parente próximo meu quer ir até #3. Estou ocupado e não posso ajudar, então se você conseguir levá-lo com segurança dentro do prazo, vou pagar #1.</t>
-  </si>
-  <si>
-    <t>É uma questão delicada, mas precisamos garantir a chegada segura de um mensageiro crucial até #3. A recompensa é #1. Minha própria vida está em risco aqui. Não me decepcione!_x000D_
-Ser muito bonita pode ser uma maldição, de fato. Uma dama de rara beleza está sendo assediada por um stalker que ela rejeitou no passado. Pode ser uma viagem perigosa, mas em troca de #1, por favor, escolta-a até #3 com segurança._x000D_
-Você sabe que estão atrás da vida dele, não sabe? Este é um pedido perigoso. Se você conseguir protegê-lo até chegarmos a #3, recompensarei você com #1.</t>
-  </si>
-  <si>
-    <t>Há alguém que precisa ser levado urgentemente até #3. A recompensa é #1. Não perca o prazo._x000D_
-Você sabe do que estou falando, certo? Sim, minha querida está prestes a morrer de uma doença. Quero levá-la até a memorável cidade de #3 pela última vez! Por favor, aceite essa tarefa por #1._x000D_
-Desastre! Meu pai foi atingido por um veneno forte! Peço, por favor, leve-o até o famoso médico que mora em #3. Preparei minha fortuna inteira, #1, como recompensa!</t>
-  </si>
-  <si>
-    <t>Rastrear ingredientes de artesanato.</t>
-  </si>
-  <si>
-    <t>Sim, parece que você acertou. Por que não vai se sentar perto do fogo e beber? Ah, e aqui está algo para você.</t>
-  </si>
-  <si>
-    <t>Completo</t>
-  </si>
-  <si>
-    <t>O desenvolvimento de Vernis começou. Cultive a Pedra da Cidade em Vernis e reporte a Loytel. Pergunte a Loytel se tiver dúvidas sobre como cultivar a Pedra da Cidade. Além disso, continue conversando com seus companheiros no quadro de missões.</t>
-  </si>
-  <si>
-    <t>Você precisa aprender isso para gerenciar sua base. |Clique do meio (ou tecla R) para segurar o Caixa do seu inventário, depois clique com o botão direito no chão para colocá-lo.
-Abra a Caixa e clique no ícone de cadeado no lado direito para alterar suas permissões. Quando tudo estiver pronto, retorne a Ashland.</t>
-  </si>
-  <si>
-    <t>Buraco</t>
-  </si>
-  <si>
-    <t>Missão para domar animais.</t>
-  </si>
-  <si>
-    <t>「Missão Principal」</t>
-  </si>
-  <si>
-    <t>「Novo Lar」</t>
-  </si>
-  <si>
-    <t>「Reconstrução de Mysilia」</t>
-  </si>
-  <si>
-    <t>「Mansão Assombrada」</t>
-  </si>
-  <si>
-    <t>「Uma receita de crim quente」</t>
-  </si>
-  <si>
-    <t>「Domando」</t>
-  </si>
-  <si>
-    <t>「Cerco」</t>
-  </si>
-  <si>
-    <t>「Símbolo do nosso encontro」</t>
-  </si>
-  <si>
-    <t>「Cratera Desconhecida」</t>
-  </si>
-  <si>
-    <t>「Busca por Companheiros」</t>
-  </si>
-  <si>
-    <t>「Equipamento Essencial」</t>
-  </si>
-  <si>
-    <t>「Treinamento de Defesa」</t>
-  </si>
-  <si>
-    <t>「Palestra da Fiama」</t>
-  </si>
-  <si>
-    <t>「Sentimento da Fiama」</t>
-  </si>
-  <si>
-    <t>「Visão para o Futuro」</t>
-  </si>
-  <si>
-    <t>「Cachorrinho Perdido」</t>
-  </si>
-  <si>
-    <t>「Caminho do Artesão」</t>
-  </si>
-  <si>
-    <t>「Responsabilidade Tributária」</t>
-  </si>
-  <si>
-    <t>「Conselho de Tyris」</t>
-  </si>
-  <si>
-    <t>「Para as Novas Terras」</t>
-  </si>
-  <si>
-    <t>「Inspetor da Fronteira」</t>
-  </si>
-  <si>
-    <t>「Primeira Caixa de Envio」</t>
-  </si>
-  <si>
-    <t>「Espírito Pioneiro」</t>
-  </si>
-  <si>
-    <t>「Notícias de Mysilia」</t>
-  </si>
-  <si>
-    <t>「Consideração do Contador de Histórias」</t>
-  </si>
-  <si>
-    <t>「Alquimista Errante」</t>
-  </si>
-  <si>
-    <t>「Uma Hora pela Manhã」</t>
-  </si>
-  <si>
-    <t>「Uma Flor e uma Garota」</t>
-  </si>
-  <si>
-    <t>「Garota de Olhos Maus」</t>
-  </si>
-  <si>
-    <t>「Falando do Diabo」</t>
-  </si>
-  <si>
-    <t>「Ouro Abaixo」</t>
-  </si>
-  <si>
-    <t>「Aventureiro」</t>
-  </si>
-  <si>
-    <t>「Aula de Língua Dracônica」</t>
-  </si>
-  <si>
-    <t>「Além do Desespero」</t>
-  </si>
-  <si>
-    <t>「Inspetor Desaparecido」</t>
-  </si>
-  <si>
-    <t>「E Assim Para a Lenda」</t>
-  </si>
-  <si>
-    <t>「Sussurros do Destino」</t>
-  </si>
-  <si>
-    <t>「Longa Noite」</t>
-  </si>
-  <si>
-    <t>「Sombra Sorrateira」</t>
-  </si>
-  <si>
-    <t>「Tópico Quente」</t>
-  </si>
-  <si>
-    <t>「Voz na Sombra」</t>
-  </si>
-  <si>
-    <t>「Para a Escuridão」</t>
-  </si>
-  <si>
-    <t>「Escritor de Feitiços」</t>
-  </si>
-  <si>
-    <t>「teste」</t>
-  </si>
-  <si>
-    <t>「Visitando a Irmãzinha」</t>
-  </si>
-  <si>
-    <t>「Fantoche」</t>
-  </si>
-  <si>
-    <t>「Ingressando na Guilda dos Guerreiros」</t>
-  </si>
-  <si>
-    <t>「Guilda dos Guerreiros」</t>
-  </si>
-  <si>
-    <t>「Ingressando na Guilda dos Magos」</t>
-  </si>
-  <si>
-    <t>「Guilda dos Magos」</t>
-  </si>
-  <si>
-    <t>「Ingressando na Guilda dos Ladrões」</t>
-  </si>
-  <si>
-    <t>「Guilda dos Ladrões」</t>
-  </si>
-  <si>
-    <t>「Ingressando na Guilda dos Mercadores」</t>
-  </si>
-  <si>
-    <t>「Guilda dos Mercadores」</t>
-  </si>
-  <si>
-    <t>「Raça imunda!」</t>
-  </si>
-  <si>
-    <t>「Estamos em guerra!」</t>
-  </si>
-  <si>
-    <t>「Covil de monstros」</t>
-  </si>
-  <si>
-    <t>「Auxiliar de Artesanato」</t>
-  </si>
-  <si>
-    <t>「Ordem da Guilda (Guerreiro)」</t>
-  </si>
-  <si>
-    <t>「Ordem da Guilda (Mago)」</t>
-  </si>
-  <si>
-    <t>「Ordem da Guilda (Ladrão)」</t>
-  </si>
-  <si>
-    <t>「Ordem da Guilda (Mercador)」</t>
-  </si>
-  <si>
-    <t>「Pequeno recado」
-「A cidade em frenesi」
-「Pedido de entrega」
-「Presente de celebração」
-「Entrega rara」
-「Coletor de lixo」
-「Um passo em direção à ambição」
-「Pedido de retorno」
-「Símbolo de amizade」</t>
-  </si>
-  <si>
-    <t>「Minhas coleções de hobby」
-「Pedido urgente」
-「Presente para um amado」
-「Presente para mim mesmo」
-「Aniversário de criança」
-「Material de pesquisa」
-「Pedido do colecionador」
-「Suprimento」</t>
-  </si>
-  <si>
-    <t>「Uma casa dos sonhos」
-「Pedido de aquisição」</t>
-  </si>
-  <si>
-    <t>「O fim de uma loucura
-「Minha coleção rara」
-「Um pesadelo absoluto」</t>
-  </si>
-  <si>
-    <t>「Monstros problemáticos」
-「Patrulha regular」
-「Uma boa ação」</t>
-  </si>
-  <si>
-    <t>「Trabalhador de fazenda procurado」
-「Colha para mim」
-「Temporada de colheita」</t>
-  </si>
-  <si>
-    <t>「Bebê!」
-「Festa de celebridades」
-「Artista procurado」</t>
-  </si>
-  <si>
-    <t>「Extermínio de monstros」
-「Caçada a monstros」
-「Casa problemática」</t>
-  </si>
-  <si>
-    <t>「Carne!」
-「Uma recepção」</t>
-  </si>
-  <si>
-    <t>「Comida saudável」
-「Peixe para as crianças」</t>
-  </si>
-  <si>
-    <t>「Fazendo dieta」
-「Superando a seletividade alimentar」</t>
-  </si>
-  <si>
-    <t>「Sobremesa de frutas」
-「Festa de coquetel!」</t>
-  </si>
-  <si>
-    <t>「Entusiasta de pães」
-「Vamos fazer um piquenique」</t>
-  </si>
-  <si>
-    <t>「Mania de macarrão」
-「Eu amo macarrão!」</t>
-  </si>
-  <si>
-    <t>「Doce doce」
-「Lanchinho para as crianças」</t>
-  </si>
-  <si>
-    <t>「Ovos encantados」
-「O melhor café da manhã」</t>
-  </si>
-  <si>
-    <t>「Refeições de aventura!」
-「Até eu estourar」</t>
-  </si>
-  <si>
-    <t>「Noite de sopa quente!」
-「Prato para recuperação」</t>
-  </si>
-  <si>
-    <t>「Uma nova receita!」
-「Meu estômago!」</t>
-  </si>
-  <si>
-    <t>「Escolta solicitada!」
-「Guia turístico」
-「Escolta simples」</t>
-  </si>
-  <si>
-    <t>「Escolta do mensageiro」
-「Beleza grandiosa demais
-「Prevenir um assassinato」</t>
-  </si>
-  <si>
-    <t>「Escolta urgente」
-「Uma vez antes de morrer」
-「Antes que seja tarde demais」</t>
+    <t>Não sei se você vai entender, mas tenho uma queda por #2 e sonho em colecionar #2 de todo o mundo. Para começar, pode me trazer um? Não me importo com qualidade ou raridade!
+Você chegou na melhor hora possível! Meu [qFriend] decidiu visitar minha casa de repente. Preciso de #2 agora mesmo. Pode conseguir para mim?
+Estou pensando no que seria um bom presente para meu querido [qFriend]. Por ora, pagarei #1 se me trouxer #2.
+Tive um pouco de sorte recentemente, então quero me mimar com #2. Que tal #1 como pagamento?
+Preciso de #2 para o presente de aniversário do meu filho. Traga para mim e a recompensa será sua.
+Estou fazendo uma pesquisa sobre #2 e estou sem estoque. Poderia conseguir mais para mim?
+Minha coleção precisa de #2. Por favor, aceite essa tarefa e receba a recompensa de #1!
+Preciso de #2 para uma pequena tarefa. Se conseguir entregá-lo dentro do prazo, pagarei #1.</t>
+  </si>
+  <si>
+    <t>Um grande número de monstros está se reproduzindo em #3, e estamos oferecendo uma recompensa por sua exterminação. Pode nos ajudar?
+Pagaremos uma recompensa pela exterminação rápida dos monstros em certo local. Você aceita?
+Estou tendo problemas com monstros surgindo perto da minha casa. Se puder se livrar deles, pagarei #1.</t>
+  </si>
+  <si>
+    <t>É um assunto delicado, mas precisamos garantir a chegada segura de um mensageiro crucial até #3. A recompensa é #1. Minha própria cabeça está em jogo aqui. Não me decepcione!
+Ser belo demais pode ser realmente um fardo. Uma dama de rara beleza está sendo perseguida por um pretendente rejeitado. Pode ser uma jornada perigosa, mas, em troca de #1, por favor, escolte-a com segurança até #3.
+Você sabe que estão atrás da vida dele, não é? Este pedido é perigoso. Se puder protegê-lo até chegarmos a #3, eu o recompensarei com #1.</t>
+  </si>
+  <si>
+    <t>Estou desesperado por carne! Quero #2 agora! Rápido!
+Vamos realizar uma recepção muito importante esta noite. Os convidados precisam sair satisfeitos e deslumbrados. Prepare #2 e #1 será seu.</t>
+  </si>
+  <si>
+    <t>Para o jantar de hoje com meu [qFriend], um #2 quentinho é absolutamente necessário. Por favor, prepare uma sopa deliciosa!
+Quero entregar um #2 bem quente ao meu [qFriend] que não está se sentindo bem. Te dou #1, então faça com carinho.</t>
+  </si>
+  <si>
+    <t>Dizem que peixe faz muito bem à saúde. Cozinhe #2 e me entregue, e eu te pago #1.
+Meus filhos não comem peixe. Isso está me matando. Vou dar #1 pra quem fizer #2 gostoso o bastante pra acabar com a frescura deles!</t>
+  </si>
+  <si>
+    <t>Quero #2 para a sobremesa de hoje à noite. Por favor, entregue.
+Faça uma tarefa rápida para nós e ganhe #1. Precisamos de um tempero diabólico para nosso coquetel. Que tal #2, parece promissor.</t>
+  </si>
+  <si>
+    <t>As colheitas que plantamos no campo perto de #3 provavelmente já cresceram. Vá até lá e colha cerca de #2 de colheitas. Te pago #1 como recompensa.
+Estou meio sobrecarregado com tanta coisa crescendo na minha fazenda. Consegue colher cerca de #2 pra mim?
+Finalmente chegou a época da colheita. Sozinho não dou conta disso tudo. Ei, me ajuda a recolher umas #2 de colheitas?</t>
+  </si>
+  <si>
+    <t>Você precisa aprender isso para gerenciar sua base. |Clique com o botão do meio (ou tecla R) para segurar o recipiente do inventário, depois clique com o direito no chão para colocá-lo.
+Abra o recipiente e clique no ícone de cadeado à direita para mudar as permissões. Depois de tudo pronto, reporte ao Ashland.</t>
+  </si>
+  <si>
+    <t>Por razões que não posso revelar, alguém precisa ser escoltado até #3. Acho que não estão sendo especificamente visados, mas se você conseguir, eu pago #1. Deve ser fácil para um aventureiro, né?
+Tem um turista esquisito me incomodando! Pago #1 se você puder guiá-lo até #3.
+Um parente próximo quer ir para #3. Estou atolado e não posso ajudar, então se conseguir levá-lo com segurança no prazo, te pago #1.</t>
+  </si>
+  <si>
+    <t>No momento em que um ovo é quebrado, possibilidades infinitas surgem na cozinha. Você entende, né? Sim, traga #2 pra mim.
+Para começar o dia com energia, eu sempre como um prato nutritivo com ovo. Consegue fazer #2 pra mim?</t>
+  </si>
+  <si>
+    <t>Você é do time do pão ou do arroz? Eu definitivamente prefiro pão. Cozinhe #2 para mim, pode ser?
+Mas ó, as recompensas não passam de #1, beleza? Meu [qFriend] precisa de #2 para um piquenique amanhã. Rápido, por favor.</t>
+  </si>
+  <si>
+    <t>Tá sentindo isso, baby? Eu tô super empolgado! Entra na minha festa e toque umas músicas. Se marcar mais de #2 pontos musicais, vou te dar um presente incrível! Yay!
+Hoje vai rolar uma festa enorme. Muitos famosos vão aparecer, então preciso de alguém para animá-los. Se conseguir marcar #2 pontos musicais, te dou um ótimo presente.
+Ah, por favor, alguém me substitua e se apresente na festa! Tenho pavor do público! Se por acaso marcar #2 pontos musicais, ainda te dou um presente extra como agradecimento.</t>
+  </si>
+  <si>
+    <t>Nada supera uma refeição deliciosa depois de um dia de aventura! Prepare um #2 quentinho para me preparar para a longa jornada de amanhã.
+Não consigo parar de desejar arroz... Por favor, me deixe comer #2 até ficar satisfeito!</t>
+  </si>
+  <si>
+    <t>Como mestre culinário, estou sempre ansioso para aprender uma nova receita. Traga #2 para minha pesquisa.
+Meu estômago ronca como se eu estivesse morrendo de fome constantemente. Pode trazer um pedaço pra essa fera? Talvez #2 resolva. Posso te dar #1 como recompensa.</t>
   </si>
   <si>
     <t>Estou prestes a começar a morar com meu [qFriend] e estamos construindo nossa nova casa em #3. Precisamos de uma grande quantidade de materiais, então por favor entregue #4 de #2 para nós.
-Como você sabe, há uma grande escassez de #2 em #3 agora. Vou pagar bem se você conseguir trazer #4 de #2.</t>
-  </si>
-  <si>
-    <t>Houve um tempo em que coletar #2 era uma febre em #3, mas agora que a popularidade diminuiu, estão largados por toda parte. Preciso que você reúna #4 de #2 para limpar as ruas.  
-Sou um colecionador de #2. Por favor, não pergunte por que coleciono essas coisas. Os olhares frios do meu [qFriend] já bastam para mim. De qualquer forma, você pode trazer #4 de #2? Pagarei bem.  
-Oh não! Quando cheguei em casa hoje, descobri que meu/minha [qFriend] havia jogado fora todos os meus preciosos #2! Por favor, reúna #4 de #2 para mim, com urgência!</t>
-  </si>
-  <si>
-    <t>Prefiro bolos e doces a bebidas alcoólicas. Você quer #1? Me dê #2!
-Estou pensando em dar #2 como lanche para meus filhos. Traga-o para mim antes que eles comecem a chorar.</t>
+Como você sabe, há uma escassez crítica de #2 em #3 agora. Vou te pagar bem se conseguir trazer #4 de #2.</t>
+  </si>
+  <si>
+    <t>Uma nova receita!
+Meu estômago!</t>
+  </si>
+  <si>
+    <t>Refeições de aventura!
+Até eu estourar</t>
+  </si>
+  <si>
+    <t>Bebê!
+Festa de celebridades
+Procuram por artistas</t>
+  </si>
+  <si>
+    <t>Entusiasta de pão
+Indo para um piquenique</t>
+  </si>
+  <si>
+    <t>Ovos encantados
+O melhor café da manhã</t>
+  </si>
+  <si>
+    <t>Escolta solicitada!
+Guia turístico
+Escolta simples</t>
+  </si>
+  <si>
+    <t>Trabalhador de fazenda procurado
+Colhe para mim
+Temporada de colheita</t>
+  </si>
+  <si>
+    <t>Escolta urgente
+Uma vez antes de morrer
+Antes que seja tarde demais</t>
+  </si>
+  <si>
+    <t>Monstros problemáticos
+Patrulha regular
+Uma pequena boa ação</t>
+  </si>
+  <si>
+    <t>O fim de uma obsessão
+Minha rara coleção
+Um pesadelo absoluto</t>
+  </si>
+  <si>
+    <t>Doce doce
+Lanche para crianças</t>
+  </si>
+  <si>
+    <t>De dieta
+Superando a seletividade alimentar</t>
+  </si>
+  <si>
+    <t>Mania de macarrão
+Eu amo macarrão!</t>
+  </si>
+  <si>
+    <t>Minhas coleções de hobbies
+Solicitação urgente
+Presente para um amante
+Presente para mim
+Aniversário de uma criança
+Material de pesquisa
+Solicitação do colecionador
+Suprimento</t>
+  </si>
+  <si>
+    <t>Extermínio de monstros
+Caçada a monstros
+Casa em apuros</t>
+  </si>
+  <si>
+    <t>Escolta do Mensageiro
+Beleza demais
+Prevenir um assassinato</t>
+  </si>
+  <si>
+    <t>Carne!
+Uma recepção</t>
+  </si>
+  <si>
+    <t>Noite de sopa quente!
+Prato para recuperação</t>
+  </si>
+  <si>
+    <t>Comida saudável
+Peixe para crianças</t>
+  </si>
+  <si>
+    <t>Sobremesa de frutas
+Festa de coquetel!</t>
   </si>
 </sst>
 </file>
@@ -2527,12 +2528,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2869,21 +2874,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="141.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="107.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="117.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="89.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="99.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="109.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="14" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2903,7 +2911,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2931,2847 +2939,2854 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C3" t="s">
-        <v>642</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
+        <v>527</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>547</v>
+        <v>400</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>401</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
-      </c>
-      <c r="C4" t="s">
-        <v>643</v>
+        <v>527</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>588</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>548</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
-      </c>
-      <c r="F5" t="s">
-        <v>549</v>
+        <v>527</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>498</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>520</v>
       </c>
-      <c r="C6" t="s">
-        <v>644</v>
+      <c r="C6" s="4" t="s">
+        <v>550</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>617</v>
+      </c>
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C7" t="s">
-        <v>645</v>
+        <v>527</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>486</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>551</v>
+        <v>487</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>488</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>523</v>
+        <v>527</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" t="s">
+        <v>251</v>
       </c>
       <c r="F8" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
-      </c>
-      <c r="C9" t="s">
-        <v>646</v>
+        <v>529</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s">
-        <v>636</v>
-      </c>
-      <c r="M9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C10" t="s">
-        <v>647</v>
+        <v>535</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>589</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" t="s">
-        <v>637</v>
-      </c>
-      <c r="M10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C11" t="s">
-        <v>648</v>
+        <v>527</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>434</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>554</v>
+        <v>435</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>436</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>520</v>
-      </c>
-      <c r="C12" t="s">
-        <v>649</v>
+        <v>534</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="F12" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
-      </c>
-      <c r="C13" t="s">
-        <v>650</v>
+        <v>527</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>464</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>640</v>
+        <v>465</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>466</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>515</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
-      </c>
-      <c r="C14" t="s">
-        <v>651</v>
+        <v>546</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>554</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>516</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>517</v>
+      </c>
+      <c r="F14" t="s">
+        <v>622</v>
+      </c>
+      <c r="G14" t="s">
+        <v>518</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>536</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" t="s">
+        <v>616</v>
+      </c>
+      <c r="G15" t="s">
+        <v>289</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>623</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="B17" t="s">
-        <v>524</v>
-      </c>
-      <c r="C17" t="s">
-        <v>652</v>
+        <v>527</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>639</v>
+        <v>256</v>
+      </c>
+      <c r="F17" t="s">
+        <v>257</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="B18" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" t="s">
+        <v>257</v>
+      </c>
+      <c r="H18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>480</v>
       </c>
       <c r="B19" t="s">
-        <v>520</v>
-      </c>
-      <c r="C19" t="s">
-        <v>653</v>
+        <v>527</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>481</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s">
-        <v>556</v>
+        <v>482</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="G19" t="s">
-        <v>85</v>
+        <v>483</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>500</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
-      </c>
-      <c r="F20" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D20" t="s">
+        <v>501</v>
+      </c>
+      <c r="E20" t="s">
+        <v>502</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="G20" t="s">
+        <v>503</v>
+      </c>
+      <c r="H20" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="G20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>520</v>
-      </c>
-      <c r="F21" t="s">
-        <v>558</v>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>428</v>
       </c>
       <c r="B22" t="s">
-        <v>520</v>
+        <v>527</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D22" t="s">
+        <v>429</v>
+      </c>
+      <c r="E22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G22" t="s">
+        <v>431</v>
+      </c>
+      <c r="H22" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
         <v>525</v>
       </c>
-      <c r="C23" t="s">
-        <v>654</v>
+      <c r="C23" s="4" t="s">
+        <v>558</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
         <v>525</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>624</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="B25" t="s">
-        <v>525</v>
-      </c>
-      <c r="C25" t="s">
-        <v>655</v>
+        <v>527</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>593</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>345</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>346</v>
       </c>
       <c r="F25" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>347</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>526</v>
-      </c>
-      <c r="C26" t="s">
-        <v>656</v>
+        <v>525</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>559</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>413</v>
       </c>
       <c r="B27" t="s">
-        <v>525</v>
-      </c>
-      <c r="C27" t="s">
-        <v>657</v>
+        <v>543</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>414</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>415</v>
       </c>
       <c r="F27" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>416</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
         <v>525</v>
       </c>
+      <c r="C28" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
       <c r="F28" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>458</v>
       </c>
       <c r="B29" t="s">
-        <v>525</v>
+        <v>527</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D29" t="s">
+        <v>459</v>
+      </c>
+      <c r="E29" t="s">
+        <v>460</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G29" t="s">
+        <v>461</v>
+      </c>
+      <c r="H29" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
         <v>527</v>
       </c>
-      <c r="C30" t="s">
-        <v>658</v>
+      <c r="C30" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="F30" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s">
-        <v>525</v>
+        <v>538</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D31" t="s">
+        <v>324</v>
+      </c>
+      <c r="E31" t="s">
+        <v>325</v>
       </c>
       <c r="F31" t="s">
-        <v>563</v>
+        <v>326</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>326</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s">
-        <v>525</v>
+        <v>538</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D32" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" t="s">
+        <v>329</v>
       </c>
       <c r="F32" t="s">
-        <v>564</v>
+        <v>326</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>326</v>
       </c>
       <c r="H32" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s">
-        <v>520</v>
+        <v>538</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D33" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" t="s">
+        <v>326</v>
+      </c>
+      <c r="G33" t="s">
+        <v>326</v>
+      </c>
+      <c r="H33" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s">
-        <v>520</v>
-      </c>
-      <c r="C34" t="s">
-        <v>659</v>
+        <v>538</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="F34" t="s">
-        <v>565</v>
+        <v>326</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>520</v>
+        <v>522</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>448</v>
       </c>
       <c r="B36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D36" t="s">
+        <v>449</v>
+      </c>
+      <c r="E36" t="s">
+        <v>450</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G36" t="s">
+        <v>451</v>
+      </c>
+      <c r="H36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>490</v>
       </c>
       <c r="B37" t="s">
-        <v>528</v>
-      </c>
-      <c r="C37" t="s">
-        <v>660</v>
+        <v>527</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>726</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>491</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" t="s">
-        <v>567</v>
+        <v>492</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>493</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s">
-        <v>520</v>
+        <v>536</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D38" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" t="s">
+        <v>548</v>
+      </c>
+      <c r="G38" t="s">
+        <v>212</v>
+      </c>
+      <c r="H38" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
-        <v>520</v>
-      </c>
-      <c r="C39" t="s">
-        <v>661</v>
+        <v>530</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s">
-        <v>520</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>569</v>
+        <v>530</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D40" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" t="s">
+        <v>632</v>
       </c>
       <c r="G40" t="s">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="H40" t="s">
-        <v>150</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s">
         <v>520</v>
       </c>
+      <c r="C41" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D41" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" t="s">
+        <v>338</v>
+      </c>
       <c r="F41" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="H41" t="s">
-        <v>153</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s">
         <v>520</v>
       </c>
+      <c r="C42" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D42" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" t="s">
+        <v>351</v>
+      </c>
       <c r="F42" t="s">
-        <v>571</v>
+        <v>634</v>
       </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>352</v>
       </c>
       <c r="H42" t="s">
-        <v>156</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s">
-        <v>520</v>
+        <v>539</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D43" t="s">
+        <v>376</v>
+      </c>
+      <c r="E43" t="s">
+        <v>377</v>
       </c>
       <c r="F43" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>378</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s">
         <v>520</v>
       </c>
+      <c r="C44" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" t="s">
+        <v>364</v>
+      </c>
       <c r="F44" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>520</v>
+        <v>536</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D45" t="s">
+        <v>282</v>
+      </c>
+      <c r="E45" t="s">
+        <v>283</v>
+      </c>
+      <c r="F45" t="s">
+        <v>549</v>
+      </c>
+      <c r="G45" t="s">
+        <v>284</v>
+      </c>
+      <c r="H45" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
         <v>525</v>
       </c>
-      <c r="C46" t="s">
-        <v>662</v>
+      <c r="C46" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="H46" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>525</v>
-      </c>
-      <c r="C47" t="s">
-        <v>663</v>
+        <v>527</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>358</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>359</v>
       </c>
       <c r="F47" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="H47" t="s">
-        <v>171</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>639</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>443</v>
       </c>
       <c r="B49" t="s">
-        <v>529</v>
-      </c>
-      <c r="C49" t="s">
-        <v>664</v>
+        <v>527</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>725</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>444</v>
       </c>
       <c r="E49" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" t="s">
-        <v>575</v>
+        <v>445</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>446</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D50" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" t="s">
+        <v>385</v>
+      </c>
+      <c r="F50" t="s">
+        <v>640</v>
+      </c>
+      <c r="G50" t="s">
+        <v>386</v>
+      </c>
+      <c r="H50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>505</v>
       </c>
       <c r="B51" t="s">
-        <v>529</v>
-      </c>
-      <c r="C51" t="s">
-        <v>665</v>
+        <v>544</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>724</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>506</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" t="s">
-        <v>576</v>
+        <v>507</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>695</v>
       </c>
       <c r="G51" t="s">
-        <v>182</v>
+        <v>508</v>
       </c>
       <c r="H51" t="s">
-        <v>183</v>
+        <v>509</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
-        <v>529</v>
-      </c>
-      <c r="C52" t="s">
-        <v>666</v>
+        <v>534</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="F52" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="G52" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s">
-        <v>529</v>
-      </c>
-      <c r="C53" t="s">
-        <v>667</v>
+        <v>530</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>723</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>439</v>
       </c>
       <c r="E53" t="s">
-        <v>191</v>
-      </c>
-      <c r="F53" t="s">
-        <v>578</v>
+        <v>440</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="G53" t="s">
-        <v>192</v>
+        <v>441</v>
       </c>
       <c r="H53" t="s">
-        <v>193</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>194</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s">
-        <v>529</v>
-      </c>
-      <c r="C54" t="s">
-        <v>668</v>
+        <v>527</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>424</v>
       </c>
       <c r="E54" t="s">
-        <v>196</v>
+        <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="G54" t="s">
-        <v>197</v>
+        <v>426</v>
       </c>
       <c r="H54" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s">
-        <v>527</v>
-      </c>
-      <c r="C55" t="s">
-        <v>669</v>
+        <v>541</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>722</v>
       </c>
       <c r="D55" t="s">
-        <v>200</v>
+        <v>394</v>
       </c>
       <c r="E55" t="s">
-        <v>201</v>
-      </c>
-      <c r="F55" t="s">
-        <v>202</v>
-      </c>
-      <c r="G55" t="s">
-        <v>202</v>
+        <v>395</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="H55" t="s">
-        <v>203</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>530</v>
-      </c>
-      <c r="C56" t="s">
-        <v>670</v>
+        <v>520</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
       <c r="G56" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>527</v>
-      </c>
-      <c r="C57" t="s">
-        <v>671</v>
+        <v>521</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="D57" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="G57" t="s">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>527</v>
-      </c>
-      <c r="C58" t="s">
-        <v>672</v>
+        <v>529</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="F58" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="G58" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="H58" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>468</v>
       </c>
       <c r="B59" t="s">
         <v>527</v>
       </c>
-      <c r="F59" t="s">
-        <v>583</v>
+      <c r="C59" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D59" t="s">
+        <v>469</v>
+      </c>
+      <c r="E59" t="s">
+        <v>470</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="G59" t="s">
-        <v>220</v>
+        <v>471</v>
       </c>
       <c r="H59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>453</v>
       </c>
       <c r="B60" t="s">
         <v>527</v>
       </c>
-      <c r="F60" t="s">
-        <v>584</v>
+      <c r="C60" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D60" t="s">
+        <v>454</v>
+      </c>
+      <c r="E60" t="s">
+        <v>455</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="G60" t="s">
-        <v>223</v>
+        <v>456</v>
       </c>
       <c r="H60" t="s">
-        <v>224</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="B61" t="s">
-        <v>531</v>
+        <v>529</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" t="s">
+        <v>175</v>
       </c>
       <c r="F61" t="s">
-        <v>585</v>
+        <v>645</v>
       </c>
       <c r="G61" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="H61" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>527</v>
-      </c>
-      <c r="F62" t="s">
-        <v>586</v>
-      </c>
-      <c r="G62" t="s">
-        <v>229</v>
+        <v>520</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" t="s">
+        <v>71</v>
       </c>
       <c r="H62" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>532</v>
+        <v>520</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" t="s">
+        <v>56</v>
       </c>
       <c r="F63" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="G63" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="H63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>388</v>
       </c>
       <c r="B64" t="s">
         <v>527</v>
       </c>
-      <c r="F64" t="s">
-        <v>587</v>
-      </c>
-      <c r="G64" t="s">
-        <v>235</v>
+      <c r="C64" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E64" t="s">
+        <v>390</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="H64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
         <v>527</v>
       </c>
+      <c r="C65" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" t="s">
+        <v>211</v>
+      </c>
       <c r="F65" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="H65" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="B66" t="s">
+        <v>530</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D66" t="s">
+        <v>308</v>
+      </c>
+      <c r="E66" t="s">
+        <v>309</v>
+      </c>
+      <c r="F66" t="s">
+        <v>647</v>
+      </c>
+      <c r="G66" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>473</v>
+      </c>
+      <c r="B67" t="s">
         <v>527</v>
       </c>
-      <c r="F66" t="s">
-        <v>589</v>
-      </c>
-      <c r="G66" t="s">
-        <v>241</v>
-      </c>
-      <c r="H66" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>243</v>
-      </c>
-      <c r="B67" t="s">
-        <v>533</v>
-      </c>
-      <c r="F67" t="s">
-        <v>590</v>
+      <c r="C67" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D67" t="s">
+        <v>474</v>
+      </c>
+      <c r="E67" t="s">
+        <v>475</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>686</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>476</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>478</v>
       </c>
       <c r="B68" t="s">
         <v>527</v>
       </c>
-      <c r="F68" t="s">
-        <v>247</v>
+      <c r="C68" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D68" t="s">
+        <v>474</v>
+      </c>
+      <c r="E68" t="s">
+        <v>475</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="G68" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="H68" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="B69" t="s">
+        <v>529</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D69" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" t="s">
+        <v>649</v>
+      </c>
+      <c r="G69" t="s">
+        <v>187</v>
+      </c>
+      <c r="H69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" t="s">
+        <v>520</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" t="s">
+        <v>650</v>
+      </c>
+      <c r="G70" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" t="s">
+        <v>51</v>
+      </c>
+      <c r="L70" t="s">
+        <v>52</v>
+      </c>
+      <c r="M70" t="s">
+        <v>52</v>
+      </c>
+      <c r="N70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
+        <v>520</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
+        <v>651</v>
+      </c>
+      <c r="G71" t="s">
+        <v>131</v>
+      </c>
+      <c r="H71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72" t="s">
         <v>527</v>
       </c>
-      <c r="F69" t="s">
-        <v>247</v>
-      </c>
-      <c r="G69" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>249</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C72" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D72" t="s">
+        <v>313</v>
+      </c>
+      <c r="E72" t="s">
+        <v>314</v>
+      </c>
+      <c r="F72" t="s">
+        <v>257</v>
+      </c>
+      <c r="G72" t="s">
+        <v>257</v>
+      </c>
+      <c r="H72" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>315</v>
+      </c>
+      <c r="B73" t="s">
         <v>527</v>
       </c>
-      <c r="C70" t="s">
-        <v>673</v>
-      </c>
-      <c r="D70" t="s">
-        <v>250</v>
-      </c>
-      <c r="E70" t="s">
-        <v>251</v>
-      </c>
-      <c r="F70" t="s">
-        <v>591</v>
-      </c>
-      <c r="G70" t="s">
-        <v>252</v>
-      </c>
-      <c r="H70" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>254</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C73" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D73" t="s">
+        <v>313</v>
+      </c>
+      <c r="E73" t="s">
+        <v>314</v>
+      </c>
+      <c r="F73" t="s">
+        <v>257</v>
+      </c>
+      <c r="G73" t="s">
+        <v>257</v>
+      </c>
+      <c r="H73" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>403</v>
+      </c>
+      <c r="B74" t="s">
         <v>527</v>
       </c>
-      <c r="C71" t="s">
-        <v>674</v>
-      </c>
-      <c r="D71" t="s">
-        <v>255</v>
-      </c>
-      <c r="E71" t="s">
-        <v>256</v>
-      </c>
-      <c r="F71" t="s">
-        <v>257</v>
-      </c>
-      <c r="G71" t="s">
-        <v>257</v>
-      </c>
-      <c r="H71" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>259</v>
-      </c>
-      <c r="B72" t="s">
-        <v>534</v>
-      </c>
-      <c r="C72" t="s">
-        <v>675</v>
-      </c>
-      <c r="D72" t="s">
-        <v>260</v>
-      </c>
-      <c r="E72" t="s">
-        <v>261</v>
-      </c>
-      <c r="F72" t="s">
-        <v>592</v>
-      </c>
-      <c r="G72" t="s">
-        <v>262</v>
-      </c>
-      <c r="H72" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>264</v>
-      </c>
-      <c r="B73" t="s">
-        <v>534</v>
-      </c>
-      <c r="C73" t="s">
-        <v>676</v>
-      </c>
-      <c r="D73" t="s">
-        <v>265</v>
-      </c>
-      <c r="E73" t="s">
-        <v>266</v>
-      </c>
-      <c r="F73" t="s">
-        <v>593</v>
-      </c>
-      <c r="G73" t="s">
-        <v>267</v>
-      </c>
-      <c r="H73" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>269</v>
-      </c>
-      <c r="B74" t="s">
-        <v>535</v>
-      </c>
-      <c r="C74" t="s">
-        <v>677</v>
+      <c r="C74" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="D74" t="s">
-        <v>270</v>
+        <v>404</v>
       </c>
       <c r="E74" t="s">
-        <v>271</v>
-      </c>
-      <c r="F74" t="s">
-        <v>594</v>
+        <v>405</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>690</v>
       </c>
       <c r="G74" t="s">
-        <v>272</v>
+        <v>406</v>
       </c>
       <c r="H74" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>370</v>
       </c>
       <c r="B75" t="s">
+        <v>527</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D75" t="s">
+        <v>371</v>
+      </c>
+      <c r="E75" t="s">
+        <v>372</v>
+      </c>
+      <c r="F75" t="s">
+        <v>652</v>
+      </c>
+      <c r="G75" t="s">
+        <v>373</v>
+      </c>
+      <c r="H75" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
         <v>520</v>
       </c>
-      <c r="H75" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>276</v>
-      </c>
-      <c r="B76" t="s">
-        <v>536</v>
-      </c>
-      <c r="C76" t="s">
-        <v>678</v>
+      <c r="C76" s="4" t="s">
+        <v>612</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>279</v>
+        <v>653</v>
       </c>
       <c r="G76" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="B77" t="s">
-        <v>536</v>
-      </c>
-      <c r="C77" t="s">
-        <v>679</v>
+        <v>520</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="D77" t="s">
-        <v>282</v>
+        <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>283</v>
+        <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="G77" t="s">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="H77" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>408</v>
       </c>
       <c r="B78" t="s">
-        <v>536</v>
-      </c>
-      <c r="C78" t="s">
-        <v>680</v>
+        <v>542</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>717</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>409</v>
       </c>
       <c r="E78" t="s">
-        <v>288</v>
-      </c>
-      <c r="F78" t="s">
-        <v>596</v>
+        <v>410</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="G78" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="H78" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>536</v>
-      </c>
-      <c r="C79" t="s">
-        <v>681</v>
+        <v>528</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>577</v>
       </c>
       <c r="D79" t="s">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>139</v>
       </c>
       <c r="F79" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="G79" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="H79" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>294</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>536</v>
-      </c>
-      <c r="C80" t="s">
-        <v>682</v>
+        <v>520</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>614</v>
       </c>
       <c r="D80" t="s">
-        <v>295</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>296</v>
+        <v>66</v>
       </c>
       <c r="F80" t="s">
-        <v>597</v>
+        <v>655</v>
       </c>
       <c r="G80" t="s">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="H80" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s">
-        <v>530</v>
-      </c>
-      <c r="C81" t="s">
-        <v>683</v>
+        <v>545</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="D81" t="s">
-        <v>300</v>
+        <v>511</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
-      </c>
-      <c r="F81" t="s">
-        <v>598</v>
-      </c>
-      <c r="G81" t="s">
-        <v>302</v>
+        <v>512</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="H81" t="s">
-        <v>303</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>530</v>
+        <v>526</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" t="s">
+        <v>106</v>
       </c>
       <c r="F82" t="s">
-        <v>599</v>
+        <v>547</v>
       </c>
       <c r="G82" t="s">
-        <v>305</v>
+        <v>62</v>
       </c>
       <c r="H82" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B83" t="s">
-        <v>530</v>
-      </c>
-      <c r="C83" t="s">
-        <v>684</v>
+        <v>527</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E83" t="s">
-        <v>309</v>
-      </c>
-      <c r="F83" t="s">
-        <v>600</v>
-      </c>
-      <c r="G83" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H83" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B84" t="s">
-        <v>527</v>
-      </c>
-      <c r="C84" t="s">
-        <v>685</v>
+        <v>536</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="D84" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="E84" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>656</v>
       </c>
       <c r="G84" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="H84" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="B85" t="s">
-        <v>527</v>
-      </c>
-      <c r="C85" t="s">
-        <v>685</v>
+        <v>529</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>581</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="E85" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="F85" t="s">
-        <v>257</v>
+        <v>657</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="H85" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
         <v>527</v>
       </c>
-      <c r="C86" t="s">
-        <v>686</v>
+      <c r="C86" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="D86" t="s">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="E86" t="s">
-        <v>318</v>
+        <v>118</v>
+      </c>
+      <c r="F86" t="s">
+        <v>658</v>
+      </c>
+      <c r="G86" t="s">
+        <v>119</v>
       </c>
       <c r="H86" t="s">
-        <v>319</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="B87" t="s">
-        <v>537</v>
-      </c>
-      <c r="C87" t="s">
-        <v>687</v>
+        <v>527</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>583</v>
       </c>
       <c r="D87" t="s">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="E87" t="s">
-        <v>322</v>
+        <v>420</v>
       </c>
       <c r="F87" t="s">
-        <v>257</v>
+        <v>659</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>421</v>
       </c>
       <c r="H87" t="s">
-        <v>258</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="B88" t="s">
-        <v>538</v>
-      </c>
-      <c r="C88" t="s">
-        <v>700</v>
+        <v>536</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>584</v>
       </c>
       <c r="D88" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="E88" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="F88" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="G88" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="H88" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>327</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>538</v>
-      </c>
-      <c r="C89" t="s">
-        <v>701</v>
-      </c>
-      <c r="D89" t="s">
-        <v>328</v>
-      </c>
-      <c r="E89" t="s">
-        <v>329</v>
-      </c>
-      <c r="F89" t="s">
-        <v>326</v>
-      </c>
-      <c r="G89" t="s">
-        <v>326</v>
+        <v>520</v>
       </c>
       <c r="H89" t="s">
-        <v>326</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>538</v>
-      </c>
-      <c r="C90" t="s">
-        <v>702</v>
-      </c>
-      <c r="D90" t="s">
-        <v>331</v>
-      </c>
-      <c r="E90" t="s">
-        <v>332</v>
-      </c>
-      <c r="F90" t="s">
-        <v>326</v>
-      </c>
-      <c r="G90" t="s">
-        <v>326</v>
-      </c>
-      <c r="H90" t="s">
-        <v>326</v>
+        <v>520</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>333</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
-        <v>538</v>
-      </c>
-      <c r="C91" t="s">
-        <v>703</v>
-      </c>
-      <c r="D91" t="s">
-        <v>334</v>
-      </c>
-      <c r="E91" t="s">
-        <v>335</v>
-      </c>
-      <c r="F91" t="s">
-        <v>326</v>
-      </c>
-      <c r="G91" t="s">
-        <v>326</v>
-      </c>
-      <c r="H91" t="s">
-        <v>326</v>
+        <v>520</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>336</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>520</v>
-      </c>
-      <c r="C92" t="s">
-        <v>688</v>
-      </c>
-      <c r="D92" t="s">
-        <v>337</v>
-      </c>
-      <c r="E92" t="s">
-        <v>338</v>
+        <v>525</v>
       </c>
       <c r="F92" t="s">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="G92" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
       <c r="H92" t="s">
-        <v>340</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>341</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F93" t="s">
-        <v>602</v>
+        <v>661</v>
       </c>
       <c r="G93" t="s">
-        <v>342</v>
+        <v>125</v>
       </c>
       <c r="H93" t="s">
-        <v>343</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>344</v>
+        <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>527</v>
-      </c>
-      <c r="C94" t="s">
-        <v>689</v>
-      </c>
-      <c r="D94" t="s">
-        <v>345</v>
-      </c>
-      <c r="E94" t="s">
-        <v>346</v>
-      </c>
-      <c r="F94" t="s">
-        <v>603</v>
-      </c>
-      <c r="G94" t="s">
-        <v>347</v>
-      </c>
-      <c r="H94" t="s">
-        <v>348</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="B95" t="s">
         <v>520</v>
       </c>
-      <c r="C95" t="s">
-        <v>690</v>
-      </c>
-      <c r="D95" t="s">
-        <v>350</v>
-      </c>
-      <c r="E95" t="s">
-        <v>351</v>
-      </c>
-      <c r="F95" t="s">
-        <v>604</v>
-      </c>
-      <c r="G95" t="s">
-        <v>352</v>
-      </c>
       <c r="H95" t="s">
-        <v>353</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
         <v>520</v>
       </c>
       <c r="F96" t="s">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="G96" t="s">
-        <v>355</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s">
-        <v>356</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>527</v>
-      </c>
-      <c r="C97" t="s">
-        <v>691</v>
-      </c>
-      <c r="D97" t="s">
-        <v>358</v>
-      </c>
-      <c r="E97" t="s">
-        <v>359</v>
+        <v>520</v>
       </c>
       <c r="F97" t="s">
-        <v>606</v>
+        <v>663</v>
       </c>
       <c r="G97" t="s">
-        <v>360</v>
+        <v>91</v>
       </c>
       <c r="H97" t="s">
-        <v>361</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
         <v>520</v>
       </c>
-      <c r="C98" t="s">
-        <v>692</v>
-      </c>
-      <c r="D98" t="s">
-        <v>363</v>
-      </c>
-      <c r="E98" t="s">
-        <v>364</v>
-      </c>
-      <c r="F98" t="s">
-        <v>607</v>
-      </c>
-      <c r="G98" t="s">
-        <v>365</v>
-      </c>
-      <c r="H98" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>367</v>
+        <v>148</v>
       </c>
       <c r="B99" t="s">
         <v>520</v>
       </c>
-      <c r="F99" t="s">
-        <v>608</v>
-      </c>
-      <c r="G99" t="s">
-        <v>368</v>
+      <c r="F99" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="H99" t="s">
-        <v>369</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>370</v>
+        <v>151</v>
       </c>
       <c r="B100" t="s">
-        <v>527</v>
-      </c>
-      <c r="C100" t="s">
-        <v>693</v>
-      </c>
-      <c r="D100" t="s">
-        <v>371</v>
-      </c>
-      <c r="E100" t="s">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="F100" t="s">
-        <v>609</v>
+        <v>665</v>
       </c>
       <c r="G100" t="s">
-        <v>373</v>
+        <v>152</v>
       </c>
       <c r="H100" t="s">
-        <v>374</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>375</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>539</v>
-      </c>
-      <c r="C101" t="s">
-        <v>694</v>
-      </c>
-      <c r="D101" t="s">
-        <v>376</v>
-      </c>
-      <c r="E101" t="s">
-        <v>377</v>
+        <v>520</v>
       </c>
       <c r="F101" t="s">
-        <v>610</v>
+        <v>666</v>
       </c>
       <c r="G101" t="s">
-        <v>378</v>
+        <v>155</v>
       </c>
       <c r="H101" t="s">
-        <v>379</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="B102" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="F102" t="s">
-        <v>611</v>
+        <v>666</v>
       </c>
       <c r="G102" t="s">
-        <v>381</v>
+        <v>155</v>
       </c>
       <c r="H102" t="s">
-        <v>382</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>383</v>
+        <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>527</v>
-      </c>
-      <c r="C103" t="s">
-        <v>695</v>
-      </c>
-      <c r="D103" t="s">
-        <v>384</v>
-      </c>
-      <c r="E103" t="s">
-        <v>385</v>
+        <v>520</v>
       </c>
       <c r="F103" t="s">
-        <v>612</v>
+        <v>667</v>
       </c>
       <c r="G103" t="s">
-        <v>386</v>
+        <v>159</v>
       </c>
       <c r="H103" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>527</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E104" t="s">
-        <v>390</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G104" t="s">
-        <v>391</v>
-      </c>
-      <c r="H104" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>393</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>541</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E105" t="s">
-        <v>395</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="G105" t="s">
-        <v>396</v>
-      </c>
-      <c r="H105" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s">
-        <v>527</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>726</v>
+        <v>520</v>
+      </c>
+      <c r="F106" t="s">
+        <v>668</v>
       </c>
       <c r="G106" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="H106" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E107" t="s">
-        <v>405</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>727</v>
+        <v>520</v>
+      </c>
+      <c r="F107" t="s">
+        <v>669</v>
       </c>
       <c r="G107" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="H107" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="B108" t="s">
-        <v>542</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="D108" t="s">
-        <v>409</v>
-      </c>
-      <c r="E108" t="s">
-        <v>410</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>615</v>
+        <v>540</v>
+      </c>
+      <c r="F108" t="s">
+        <v>670</v>
       </c>
       <c r="G108" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="H108" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="B109" t="s">
-        <v>543</v>
-      </c>
-      <c r="C109" t="s">
-        <v>696</v>
-      </c>
-      <c r="D109" t="s">
-        <v>414</v>
-      </c>
-      <c r="E109" t="s">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="F109" t="s">
-        <v>616</v>
+        <v>671</v>
       </c>
       <c r="G109" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="H109" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>418</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>527</v>
-      </c>
-      <c r="C110" t="s">
-        <v>697</v>
-      </c>
-      <c r="D110" t="s">
-        <v>419</v>
-      </c>
-      <c r="E110" t="s">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="F110" t="s">
-        <v>617</v>
+        <v>672</v>
       </c>
       <c r="G110" t="s">
-        <v>421</v>
+        <v>25</v>
       </c>
       <c r="H110" t="s">
-        <v>422</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>423</v>
+        <v>304</v>
       </c>
       <c r="B111" t="s">
-        <v>527</v>
-      </c>
-      <c r="C111" t="s">
-        <v>698</v>
-      </c>
-      <c r="D111" t="s">
-        <v>424</v>
-      </c>
-      <c r="E111" t="s">
-        <v>425</v>
+        <v>530</v>
       </c>
       <c r="F111" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="G111" t="s">
-        <v>426</v>
+        <v>305</v>
       </c>
       <c r="H111" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>428</v>
+        <v>178</v>
       </c>
       <c r="B112" t="s">
-        <v>527</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="D112" t="s">
-        <v>429</v>
-      </c>
-      <c r="E112" t="s">
-        <v>430</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="G112" t="s">
-        <v>431</v>
-      </c>
-      <c r="H112" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>433</v>
+        <v>37</v>
       </c>
       <c r="B113" t="s">
-        <v>527</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="D113" t="s">
-        <v>434</v>
-      </c>
-      <c r="E113" t="s">
-        <v>435</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>620</v>
+        <v>523</v>
+      </c>
+      <c r="F113" t="s">
+        <v>673</v>
       </c>
       <c r="G113" t="s">
-        <v>436</v>
+        <v>38</v>
       </c>
       <c r="H113" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>438</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>530</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="D114" t="s">
-        <v>439</v>
-      </c>
-      <c r="E114" t="s">
-        <v>440</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>621</v>
+        <v>525</v>
+      </c>
+      <c r="F114" t="s">
+        <v>674</v>
       </c>
       <c r="G114" t="s">
-        <v>441</v>
+        <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>443</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>527</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D115" t="s">
-        <v>444</v>
-      </c>
-      <c r="E115" t="s">
-        <v>445</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="G115" t="s">
-        <v>446</v>
-      </c>
-      <c r="H115" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>448</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
-        <v>527</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="D116" t="s">
-        <v>449</v>
-      </c>
-      <c r="E116" t="s">
-        <v>450</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="G116" t="s">
-        <v>451</v>
-      </c>
-      <c r="H116" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>453</v>
+        <v>172</v>
       </c>
       <c r="B117" t="s">
-        <v>527</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D117" t="s">
-        <v>454</v>
-      </c>
-      <c r="E117" t="s">
-        <v>455</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="G117" t="s">
-        <v>456</v>
-      </c>
-      <c r="H117" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>458</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>527</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D118" t="s">
-        <v>459</v>
-      </c>
-      <c r="E118" t="s">
-        <v>460</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>625</v>
+        <v>520</v>
+      </c>
+      <c r="F118" t="s">
+        <v>675</v>
       </c>
       <c r="G118" t="s">
-        <v>461</v>
+        <v>134</v>
       </c>
       <c r="H118" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>463</v>
+        <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>527</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D119" t="s">
-        <v>464</v>
-      </c>
-      <c r="E119" t="s">
-        <v>465</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G119" t="s">
-        <v>466</v>
-      </c>
-      <c r="H119" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>468</v>
+        <v>219</v>
       </c>
       <c r="B120" t="s">
         <v>527</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="D120" t="s">
-        <v>469</v>
-      </c>
-      <c r="E120" t="s">
-        <v>470</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>627</v>
+      <c r="F120" t="s">
+        <v>676</v>
       </c>
       <c r="G120" t="s">
-        <v>471</v>
+        <v>220</v>
       </c>
       <c r="H120" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>473</v>
+        <v>246</v>
       </c>
       <c r="B121" t="s">
         <v>527</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D121" t="s">
-        <v>474</v>
-      </c>
-      <c r="E121" t="s">
-        <v>475</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>728</v>
+      <c r="F121" t="s">
+        <v>247</v>
       </c>
       <c r="G121" t="s">
-        <v>476</v>
-      </c>
-      <c r="H121" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>478</v>
+        <v>248</v>
       </c>
       <c r="B122" t="s">
         <v>527</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D122" t="s">
-        <v>474</v>
-      </c>
-      <c r="E122" t="s">
-        <v>475</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>728</v>
+      <c r="F122" t="s">
+        <v>247</v>
       </c>
       <c r="G122" t="s">
-        <v>476</v>
-      </c>
-      <c r="H122" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>480</v>
+        <v>222</v>
       </c>
       <c r="B123" t="s">
         <v>527</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="D123" t="s">
-        <v>481</v>
-      </c>
-      <c r="E123" t="s">
-        <v>482</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>628</v>
+      <c r="F123" t="s">
+        <v>677</v>
       </c>
       <c r="G123" t="s">
-        <v>483</v>
+        <v>223</v>
       </c>
       <c r="H123" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>485</v>
+        <v>225</v>
       </c>
       <c r="B124" t="s">
-        <v>527</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D124" t="s">
-        <v>486</v>
-      </c>
-      <c r="E124" t="s">
-        <v>487</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>629</v>
+        <v>531</v>
+      </c>
+      <c r="F124" t="s">
+        <v>678</v>
       </c>
       <c r="G124" t="s">
-        <v>488</v>
+        <v>226</v>
       </c>
       <c r="H124" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>490</v>
+        <v>228</v>
       </c>
       <c r="B125" t="s">
         <v>527</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="D125" t="s">
-        <v>491</v>
-      </c>
-      <c r="E125" t="s">
-        <v>492</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>630</v>
+      <c r="F125" t="s">
+        <v>679</v>
       </c>
       <c r="G125" t="s">
-        <v>493</v>
+        <v>229</v>
       </c>
       <c r="H125" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>495</v>
+        <v>231</v>
       </c>
       <c r="B126" t="s">
-        <v>527</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D126" t="s">
-        <v>496</v>
-      </c>
-      <c r="E126" t="s">
-        <v>497</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>631</v>
+        <v>532</v>
+      </c>
+      <c r="F126" t="s">
+        <v>680</v>
       </c>
       <c r="G126" t="s">
-        <v>498</v>
+        <v>232</v>
       </c>
       <c r="H126" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>500</v>
+        <v>234</v>
       </c>
       <c r="B127" t="s">
         <v>527</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="D127" t="s">
-        <v>501</v>
-      </c>
-      <c r="E127" t="s">
-        <v>502</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>632</v>
+      <c r="F127" t="s">
+        <v>681</v>
       </c>
       <c r="G127" t="s">
-        <v>503</v>
+        <v>235</v>
       </c>
       <c r="H127" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>505</v>
+        <v>237</v>
       </c>
       <c r="B128" t="s">
-        <v>544</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="D128" t="s">
-        <v>506</v>
-      </c>
-      <c r="E128" t="s">
-        <v>507</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>633</v>
+        <v>527</v>
+      </c>
+      <c r="F128" t="s">
+        <v>682</v>
       </c>
       <c r="G128" t="s">
-        <v>508</v>
+        <v>238</v>
       </c>
       <c r="H128" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>510</v>
+        <v>240</v>
       </c>
       <c r="B129" t="s">
-        <v>545</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="D129" t="s">
-        <v>511</v>
-      </c>
-      <c r="E129" t="s">
-        <v>512</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>634</v>
+        <v>527</v>
+      </c>
+      <c r="F129" t="s">
+        <v>683</v>
       </c>
       <c r="G129" t="s">
-        <v>513</v>
+        <v>241</v>
       </c>
       <c r="H129" t="s">
-        <v>514</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>515</v>
+        <v>243</v>
       </c>
       <c r="B130" t="s">
-        <v>546</v>
-      </c>
-      <c r="C130" t="s">
-        <v>699</v>
-      </c>
-      <c r="D130" t="s">
-        <v>516</v>
-      </c>
-      <c r="E130" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="F130" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="G130" t="s">
-        <v>518</v>
+        <v>244</v>
       </c>
       <c r="H130" t="s">
-        <v>519</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N130">
+      <sortCondition ref="D2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24207054-34F9-4A41-BC71-A184F805D6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAAAF46-DCFB-40E6-AB5E-3B2B9A2ACB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="2610" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="741">
   <si>
     <t>id</t>
   </si>
@@ -2488,6 +2488,42 @@
   <si>
     <t>Sobremesa de frutas
 Festa de coquetel!</t>
+  </si>
+  <si>
+    <t>negotiation_darkness</t>
+  </si>
+  <si>
+    <t>EA 23.136</t>
+  </si>
+  <si>
+    <t>Negotiation with Darkness</t>
+  </si>
+  <si>
+    <t>闇との対話</t>
+  </si>
+  <si>
+    <t>Have you seen Kettle?|You received a bracelet from Demitas to break the barrier around the Exile's Village. Let's head to the village located east of Mysilia.</t>
+  </si>
+  <si>
+    <t>ケトルを見なかったか？|デミタスから追放者の村の結界を解く腕輪を受け取った。ミシリアの東に位置する追放者の村を訪ねてみよう。</t>
+  </si>
+  <si>
+    <t>negotiation_darkness1</t>
+  </si>
+  <si>
+    <t>|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder. (To be continued)</t>
+  </si>
+  <si>
+    <t>|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけてみよう（続く）</t>
+  </si>
+  <si>
+    <t>Negociação com as Trevas</t>
+  </si>
+  <si>
+    <t>Você viu a Kettle?|Você recebeu uma pulseira de Demitas para quebrar a barreira ao redor da Vila dos Exilados. Vamos até a vila localizada a leste de Mysilia.</t>
+  </si>
+  <si>
+    <t>|Você chegou à Vila dos Exilados. Vamos falar com Bicerin, o ancião da vila. (Continua...)</t>
   </si>
 </sst>
 </file>
@@ -2872,11 +2908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="2" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2886,7 +2922,8 @@
     <col min="3" max="3" width="36.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="117.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="89.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="89.85546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2942,2849 +2979,2893 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>399</v>
+        <v>520</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>708</v>
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>620</v>
       </c>
       <c r="G3" t="s">
-        <v>401</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>617</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>623</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>496</v>
+        <v>520</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" t="s">
+        <v>337</v>
       </c>
       <c r="E5" t="s">
-        <v>497</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>707</v>
+        <v>338</v>
+      </c>
+      <c r="F5" t="s">
+        <v>633</v>
       </c>
       <c r="G5" t="s">
-        <v>498</v>
+        <v>339</v>
       </c>
       <c r="H5" t="s">
-        <v>499</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
         <v>520</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>617</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>485</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>710</v>
+        <v>520</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>363</v>
       </c>
       <c r="E7" t="s">
-        <v>487</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>706</v>
+        <v>364</v>
+      </c>
+      <c r="F7" t="s">
+        <v>636</v>
       </c>
       <c r="G7" t="s">
-        <v>488</v>
+        <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>489</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>585</v>
+        <v>639</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>587</v>
+        <v>643</v>
       </c>
       <c r="G9" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F10" t="s">
-        <v>621</v>
-      </c>
-      <c r="G10" t="s">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>711</v>
+        <v>520</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>608</v>
       </c>
       <c r="D11" t="s">
-        <v>434</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>435</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>705</v>
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>646</v>
       </c>
       <c r="G11" t="s">
-        <v>436</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>437</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>586</v>
+        <v>650</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
-        <v>527</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>712</v>
+        <v>520</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="D13" t="s">
-        <v>464</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>465</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>704</v>
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>651</v>
       </c>
       <c r="G13" t="s">
-        <v>466</v>
+        <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>467</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="D14" t="s">
-        <v>516</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>517</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="G14" t="s">
-        <v>518</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>519</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>616</v>
+        <v>547</v>
       </c>
       <c r="G15" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>290</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>520</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>527</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" t="s">
-        <v>257</v>
+        <v>520</v>
       </c>
       <c r="H17" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>537</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D18" t="s">
-        <v>321</v>
-      </c>
-      <c r="E18" t="s">
-        <v>322</v>
-      </c>
-      <c r="F18" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" t="s">
-        <v>257</v>
-      </c>
-      <c r="H18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>480</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>527</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D19" t="s">
-        <v>481</v>
-      </c>
-      <c r="E19" t="s">
-        <v>482</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="G19" t="s">
-        <v>483</v>
-      </c>
-      <c r="H19" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>500</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>527</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D20" t="s">
-        <v>501</v>
-      </c>
-      <c r="E20" t="s">
-        <v>502</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="G20" t="s">
-        <v>503</v>
-      </c>
-      <c r="H20" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
-        <v>524</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>428</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>527</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D22" t="s">
-        <v>429</v>
-      </c>
-      <c r="E22" t="s">
-        <v>430</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>700</v>
+        <v>520</v>
+      </c>
+      <c r="F22" t="s">
+        <v>662</v>
       </c>
       <c r="G22" t="s">
-        <v>431</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>432</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>525</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" t="s">
-        <v>102</v>
+        <v>520</v>
       </c>
       <c r="F23" t="s">
-        <v>547</v>
+        <v>663</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>525</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" t="s">
-        <v>624</v>
-      </c>
-      <c r="G24" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>527</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D25" t="s">
-        <v>345</v>
-      </c>
-      <c r="E25" t="s">
-        <v>346</v>
-      </c>
-      <c r="F25" t="s">
-        <v>625</v>
-      </c>
-      <c r="G25" t="s">
-        <v>347</v>
+        <v>520</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="H25" t="s">
-        <v>348</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
-        <v>525</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" t="s">
-        <v>169</v>
+        <v>520</v>
       </c>
       <c r="F26" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>413</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
-        <v>543</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="D27" t="s">
-        <v>414</v>
-      </c>
-      <c r="E27" t="s">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="F27" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="G27" t="s">
-        <v>416</v>
+        <v>155</v>
       </c>
       <c r="H27" t="s">
-        <v>417</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>525</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="D28" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" t="s">
-        <v>164</v>
+        <v>520</v>
       </c>
       <c r="F28" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>458</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
-        <v>527</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="D29" t="s">
-        <v>459</v>
-      </c>
-      <c r="E29" t="s">
-        <v>460</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>699</v>
+        <v>520</v>
+      </c>
+      <c r="F29" t="s">
+        <v>667</v>
       </c>
       <c r="G29" t="s">
-        <v>461</v>
+        <v>159</v>
       </c>
       <c r="H29" t="s">
-        <v>462</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>527</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D30" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" t="s">
-        <v>629</v>
-      </c>
-      <c r="G30" t="s">
-        <v>217</v>
-      </c>
-      <c r="H30" t="s">
-        <v>218</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s">
-        <v>538</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="D31" t="s">
-        <v>324</v>
-      </c>
-      <c r="E31" t="s">
-        <v>325</v>
+        <v>520</v>
       </c>
       <c r="F31" t="s">
-        <v>326</v>
+        <v>668</v>
       </c>
       <c r="G31" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="H31" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s">
-        <v>538</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D32" t="s">
-        <v>328</v>
-      </c>
-      <c r="E32" t="s">
-        <v>329</v>
+        <v>520</v>
       </c>
       <c r="F32" t="s">
-        <v>326</v>
+        <v>669</v>
       </c>
       <c r="G32" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="H32" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="B33" t="s">
-        <v>538</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D33" t="s">
-        <v>334</v>
-      </c>
-      <c r="E33" t="s">
-        <v>335</v>
+        <v>520</v>
       </c>
       <c r="F33" t="s">
-        <v>326</v>
+        <v>671</v>
       </c>
       <c r="G33" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="H33" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>538</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D34" t="s">
-        <v>331</v>
-      </c>
-      <c r="E34" t="s">
-        <v>332</v>
+        <v>520</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>672</v>
       </c>
       <c r="G34" t="s">
-        <v>326</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>326</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>522</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>630</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>448</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>527</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D36" t="s">
-        <v>449</v>
-      </c>
-      <c r="E36" t="s">
-        <v>450</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>698</v>
+        <v>520</v>
+      </c>
+      <c r="F36" t="s">
+        <v>675</v>
       </c>
       <c r="G36" t="s">
-        <v>451</v>
+        <v>134</v>
       </c>
       <c r="H36" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>490</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>527</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="D37" t="s">
-        <v>491</v>
-      </c>
-      <c r="E37" t="s">
-        <v>492</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G37" t="s">
-        <v>493</v>
-      </c>
-      <c r="H37" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="D38" t="s">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>293</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
       <c r="G38" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="B39" t="s">
-        <v>530</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D39" t="s">
-        <v>205</v>
-      </c>
-      <c r="E39" t="s">
-        <v>206</v>
+        <v>540</v>
       </c>
       <c r="F39" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="G39" t="s">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="H39" t="s">
-        <v>208</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="D40" t="s">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="F40" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="G40" t="s">
-        <v>302</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>303</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>413</v>
       </c>
       <c r="B41" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D41" t="s">
-        <v>337</v>
+        <v>414</v>
       </c>
       <c r="E41" t="s">
-        <v>338</v>
+        <v>415</v>
       </c>
       <c r="F41" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="G41" t="s">
-        <v>339</v>
+        <v>416</v>
       </c>
       <c r="H41" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>601</v>
+        <v>552</v>
       </c>
       <c r="D42" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>351</v>
+        <v>196</v>
       </c>
       <c r="F42" t="s">
-        <v>634</v>
+        <v>587</v>
       </c>
       <c r="G42" t="s">
-        <v>352</v>
+        <v>197</v>
       </c>
       <c r="H42" t="s">
-        <v>353</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="D43" t="s">
-        <v>376</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>377</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="G43" t="s">
-        <v>378</v>
+        <v>182</v>
       </c>
       <c r="H43" t="s">
-        <v>379</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="D44" t="s">
-        <v>363</v>
+        <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="F44" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="G44" t="s">
-        <v>365</v>
+        <v>176</v>
       </c>
       <c r="H44" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D45" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="F45" t="s">
-        <v>549</v>
+        <v>649</v>
       </c>
       <c r="G45" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="H45" t="s">
-        <v>285</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="F46" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D47" t="s">
-        <v>358</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>359</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>638</v>
+        <v>547</v>
       </c>
       <c r="G47" t="s">
-        <v>360</v>
+        <v>62</v>
       </c>
       <c r="H47" t="s">
-        <v>361</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F48" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
-        <v>527</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>725</v>
+        <v>525</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>559</v>
       </c>
       <c r="D49" t="s">
-        <v>444</v>
+        <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>445</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>696</v>
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>626</v>
       </c>
       <c r="G49" t="s">
-        <v>446</v>
+        <v>170</v>
       </c>
       <c r="H49" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>383</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D50" t="s">
-        <v>384</v>
+        <v>163</v>
       </c>
       <c r="E50" t="s">
-        <v>385</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G50" t="s">
-        <v>386</v>
+        <v>165</v>
       </c>
       <c r="H50" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>544</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>724</v>
+        <v>525</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="D51" t="s">
-        <v>506</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>507</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>695</v>
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>637</v>
       </c>
       <c r="G51" t="s">
-        <v>508</v>
+        <v>110</v>
       </c>
       <c r="H51" t="s">
-        <v>509</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>534</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D52" t="s">
-        <v>265</v>
-      </c>
-      <c r="E52" t="s">
-        <v>266</v>
+        <v>525</v>
       </c>
       <c r="F52" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="G52" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="H52" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>438</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>530</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D53" t="s">
-        <v>439</v>
-      </c>
-      <c r="E53" t="s">
-        <v>440</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>694</v>
+        <v>525</v>
+      </c>
+      <c r="F53" t="s">
+        <v>661</v>
       </c>
       <c r="G53" t="s">
-        <v>441</v>
+        <v>125</v>
       </c>
       <c r="H53" t="s">
-        <v>442</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>423</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>527</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D54" t="s">
-        <v>424</v>
-      </c>
-      <c r="E54" t="s">
-        <v>425</v>
-      </c>
-      <c r="F54" t="s">
-        <v>642</v>
-      </c>
-      <c r="G54" t="s">
-        <v>426</v>
-      </c>
-      <c r="H54" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>393</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>541</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D55" t="s">
-        <v>394</v>
-      </c>
-      <c r="E55" t="s">
-        <v>395</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H55" t="s">
-        <v>397</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>520</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D56" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" t="s">
-        <v>29</v>
+        <v>525</v>
       </c>
       <c r="F56" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>521</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D57" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" t="s">
-        <v>619</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s">
-        <v>23</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>529</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D58" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" t="s">
-        <v>181</v>
-      </c>
-      <c r="F58" t="s">
-        <v>644</v>
-      </c>
-      <c r="G58" t="s">
-        <v>182</v>
-      </c>
-      <c r="H58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>468</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s">
-        <v>527</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>721</v>
+        <v>538</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="D59" t="s">
-        <v>469</v>
+        <v>324</v>
       </c>
       <c r="E59" t="s">
-        <v>470</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>692</v>
+        <v>325</v>
+      </c>
+      <c r="F59" t="s">
+        <v>326</v>
       </c>
       <c r="G59" t="s">
-        <v>471</v>
+        <v>326</v>
       </c>
       <c r="H59" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>453</v>
+        <v>327</v>
       </c>
       <c r="B60" t="s">
-        <v>527</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>720</v>
+        <v>538</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>561</v>
       </c>
       <c r="D60" t="s">
-        <v>454</v>
+        <v>328</v>
       </c>
       <c r="E60" t="s">
-        <v>455</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>691</v>
+        <v>329</v>
+      </c>
+      <c r="F60" t="s">
+        <v>326</v>
       </c>
       <c r="G60" t="s">
-        <v>456</v>
+        <v>326</v>
       </c>
       <c r="H60" t="s">
-        <v>457</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="B61" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>334</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="F61" t="s">
-        <v>645</v>
+        <v>326</v>
       </c>
       <c r="G61" t="s">
-        <v>176</v>
+        <v>326</v>
       </c>
       <c r="H61" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>331</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>332</v>
+      </c>
+      <c r="F62" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" t="s">
+        <v>326</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s">
-        <v>520</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D63" t="s">
-        <v>55</v>
+        <v>527</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="E63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" t="s">
-        <v>646</v>
+        <v>400</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="G63" t="s">
-        <v>57</v>
+        <v>401</v>
       </c>
       <c r="H63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>388</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
         <v>527</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>389</v>
+      <c r="C64" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D64" t="s">
+        <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>390</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>391</v>
+        <v>201</v>
+      </c>
+      <c r="F64" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" t="s">
+        <v>202</v>
       </c>
       <c r="H64" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>495</v>
       </c>
       <c r="B65" t="s">
         <v>527</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D65" t="s">
-        <v>210</v>
+      <c r="C65" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
-      </c>
-      <c r="F65" t="s">
-        <v>548</v>
+        <v>497</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="G65" t="s">
-        <v>212</v>
+        <v>498</v>
       </c>
       <c r="H65" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>307</v>
+        <v>485</v>
       </c>
       <c r="B66" t="s">
-        <v>530</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>609</v>
+        <v>527</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="D66" t="s">
-        <v>308</v>
+        <v>486</v>
       </c>
       <c r="E66" t="s">
-        <v>309</v>
-      </c>
-      <c r="F66" t="s">
-        <v>647</v>
+        <v>487</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="G66" t="s">
-        <v>310</v>
+        <v>488</v>
       </c>
       <c r="H66" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>473</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s">
         <v>527</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>719</v>
+      <c r="C67" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="D67" t="s">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>475</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>686</v>
+        <v>251</v>
+      </c>
+      <c r="F67" t="s">
+        <v>585</v>
       </c>
       <c r="G67" t="s">
-        <v>476</v>
+        <v>252</v>
       </c>
       <c r="H67" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s">
         <v>527</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D68" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="E68" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>648</v>
+        <v>705</v>
       </c>
       <c r="G68" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="H68" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s">
-        <v>529</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>610</v>
+        <v>527</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>464</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
-      </c>
-      <c r="F69" t="s">
-        <v>649</v>
+        <v>465</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="G69" t="s">
-        <v>187</v>
+        <v>466</v>
       </c>
       <c r="H69" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>650</v>
+        <v>257</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
-      </c>
-      <c r="L70" t="s">
-        <v>52</v>
-      </c>
-      <c r="M70" t="s">
-        <v>52</v>
-      </c>
-      <c r="N70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>480</v>
       </c>
       <c r="B71" t="s">
-        <v>520</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>611</v>
+        <v>527</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>481</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
-      </c>
-      <c r="F71" t="s">
-        <v>651</v>
+        <v>482</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>703</v>
       </c>
       <c r="G71" t="s">
-        <v>131</v>
+        <v>483</v>
       </c>
       <c r="H71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>500</v>
       </c>
       <c r="B72" t="s">
         <v>527</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>575</v>
+      <c r="C72" s="3" t="s">
+        <v>714</v>
       </c>
       <c r="D72" t="s">
-        <v>313</v>
+        <v>501</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
-      </c>
-      <c r="F72" t="s">
-        <v>257</v>
+        <v>502</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="G72" t="s">
-        <v>257</v>
+        <v>503</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>315</v>
+        <v>428</v>
       </c>
       <c r="B73" t="s">
         <v>527</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>575</v>
+      <c r="C73" s="3" t="s">
+        <v>715</v>
       </c>
       <c r="D73" t="s">
-        <v>313</v>
+        <v>429</v>
       </c>
       <c r="E73" t="s">
-        <v>314</v>
-      </c>
-      <c r="F73" t="s">
-        <v>257</v>
+        <v>430</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>700</v>
       </c>
       <c r="G73" t="s">
-        <v>257</v>
+        <v>431</v>
       </c>
       <c r="H73" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="B74" t="s">
         <v>527</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>718</v>
+      <c r="C74" s="4" t="s">
+        <v>593</v>
       </c>
       <c r="D74" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="E74" t="s">
-        <v>405</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>690</v>
+        <v>346</v>
+      </c>
+      <c r="F74" t="s">
+        <v>625</v>
       </c>
       <c r="G74" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="H74" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>370</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s">
         <v>527</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>576</v>
+      <c r="C75" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="D75" t="s">
-        <v>371</v>
+        <v>459</v>
       </c>
       <c r="E75" t="s">
-        <v>372</v>
-      </c>
-      <c r="F75" t="s">
-        <v>652</v>
+        <v>460</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="G75" t="s">
-        <v>373</v>
+        <v>461</v>
       </c>
       <c r="H75" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="B76" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="F76" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="G76" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="H76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>448</v>
       </c>
       <c r="B77" t="s">
-        <v>520</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>613</v>
+        <v>527</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>727</v>
       </c>
       <c r="D77" t="s">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" t="s">
-        <v>547</v>
+        <v>450</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="G77" t="s">
-        <v>62</v>
+        <v>451</v>
       </c>
       <c r="H77" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="B78" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="D78" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="E78" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="G78" t="s">
-        <v>411</v>
+        <v>493</v>
       </c>
       <c r="H78" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="B79" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="E79" t="s">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="F79" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="G79" t="s">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="H79" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>443</v>
       </c>
       <c r="B80" t="s">
-        <v>520</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>614</v>
+        <v>527</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>725</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>444</v>
       </c>
       <c r="E80" t="s">
-        <v>66</v>
-      </c>
-      <c r="F80" t="s">
-        <v>655</v>
+        <v>445</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>696</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>446</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s">
-        <v>545</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>716</v>
+        <v>527</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="D81" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="E81" t="s">
-        <v>512</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>513</v>
+        <v>385</v>
+      </c>
+      <c r="F81" t="s">
+        <v>640</v>
+      </c>
+      <c r="G81" t="s">
+        <v>386</v>
       </c>
       <c r="H81" t="s">
-        <v>514</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>423</v>
       </c>
       <c r="B82" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
       <c r="E82" t="s">
-        <v>106</v>
+        <v>425</v>
       </c>
       <c r="F82" t="s">
-        <v>547</v>
+        <v>642</v>
       </c>
       <c r="G82" t="s">
-        <v>62</v>
+        <v>426</v>
       </c>
       <c r="H82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>468</v>
       </c>
       <c r="B83" t="s">
         <v>527</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>579</v>
+      <c r="C83" s="3" t="s">
+        <v>721</v>
       </c>
       <c r="D83" t="s">
-        <v>317</v>
+        <v>469</v>
       </c>
       <c r="E83" t="s">
-        <v>318</v>
+        <v>470</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G83" t="s">
+        <v>471</v>
       </c>
       <c r="H83" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="B84" t="s">
-        <v>536</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>580</v>
+        <v>527</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>720</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>454</v>
       </c>
       <c r="E84" t="s">
-        <v>296</v>
-      </c>
-      <c r="F84" t="s">
-        <v>656</v>
+        <v>455</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="G84" t="s">
-        <v>297</v>
+        <v>456</v>
       </c>
       <c r="H84" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>189</v>
+        <v>388</v>
       </c>
       <c r="B85" t="s">
-        <v>529</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D85" t="s">
-        <v>190</v>
+        <v>527</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="E85" t="s">
-        <v>191</v>
-      </c>
-      <c r="F85" t="s">
-        <v>657</v>
-      </c>
-      <c r="G85" t="s">
-        <v>192</v>
+        <v>390</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="H85" t="s">
-        <v>193</v>
+        <v>392</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B86" t="s">
         <v>527</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="F86" t="s">
-        <v>658</v>
+        <v>548</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="H86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="B87" t="s">
         <v>527</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>583</v>
+      <c r="C87" s="3" t="s">
+        <v>719</v>
       </c>
       <c r="D87" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="E87" t="s">
-        <v>420</v>
-      </c>
-      <c r="F87" t="s">
-        <v>659</v>
+        <v>475</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>686</v>
       </c>
       <c r="G87" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="H87" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>276</v>
+        <v>478</v>
       </c>
       <c r="B88" t="s">
-        <v>536</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>584</v>
+        <v>527</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>719</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>474</v>
       </c>
       <c r="E88" t="s">
-        <v>278</v>
-      </c>
-      <c r="F88" t="s">
-        <v>279</v>
+        <v>475</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>648</v>
       </c>
       <c r="G88" t="s">
-        <v>279</v>
+        <v>476</v>
       </c>
       <c r="H88" t="s">
-        <v>280</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>527</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D89" t="s">
+        <v>313</v>
+      </c>
+      <c r="E89" t="s">
+        <v>314</v>
+      </c>
+      <c r="F89" t="s">
+        <v>257</v>
+      </c>
+      <c r="G89" t="s">
+        <v>257</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D90" t="s">
+        <v>313</v>
+      </c>
+      <c r="E90" t="s">
+        <v>314</v>
+      </c>
+      <c r="F90" t="s">
+        <v>257</v>
+      </c>
+      <c r="G90" t="s">
+        <v>257</v>
+      </c>
+      <c r="H90" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s">
-        <v>520</v>
+        <v>527</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D91" t="s">
+        <v>404</v>
+      </c>
+      <c r="E91" t="s">
+        <v>405</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G91" t="s">
+        <v>406</v>
+      </c>
+      <c r="H91" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>370</v>
       </c>
       <c r="B92" t="s">
-        <v>525</v>
+        <v>527</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D92" t="s">
+        <v>371</v>
+      </c>
+      <c r="E92" t="s">
+        <v>372</v>
       </c>
       <c r="F92" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G92" t="s">
-        <v>122</v>
+        <v>373</v>
       </c>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s">
-        <v>525</v>
-      </c>
-      <c r="F93" t="s">
-        <v>661</v>
-      </c>
-      <c r="G93" t="s">
-        <v>125</v>
+        <v>527</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D93" t="s">
+        <v>317</v>
+      </c>
+      <c r="E93" t="s">
+        <v>318</v>
       </c>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>520</v>
+        <v>527</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" t="s">
+        <v>658</v>
+      </c>
+      <c r="G94" t="s">
+        <v>119</v>
+      </c>
+      <c r="H94" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>274</v>
+        <v>418</v>
       </c>
       <c r="B95" t="s">
-        <v>520</v>
+        <v>527</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D95" t="s">
+        <v>419</v>
+      </c>
+      <c r="E95" t="s">
+        <v>420</v>
+      </c>
+      <c r="F95" t="s">
+        <v>659</v>
+      </c>
+      <c r="G95" t="s">
+        <v>421</v>
       </c>
       <c r="H95" t="s">
-        <v>275</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="B96" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F96" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="G96" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="H96" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="B97" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F97" t="s">
-        <v>663</v>
+        <v>247</v>
       </c>
       <c r="G97" t="s">
-        <v>91</v>
-      </c>
-      <c r="H97" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>248</v>
       </c>
       <c r="B98" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="F98" t="s">
+        <v>247</v>
+      </c>
+      <c r="G98" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="B99" t="s">
-        <v>520</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>149</v>
+        <v>527</v>
+      </c>
+      <c r="F99" t="s">
+        <v>677</v>
+      </c>
+      <c r="G99" t="s">
+        <v>223</v>
       </c>
       <c r="H99" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="B100" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F100" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="G100" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="H100" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F101" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="G101" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="H101" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="B102" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F102" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="G102" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="H102" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="B103" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F103" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="G103" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="H103" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>375</v>
       </c>
       <c r="B104" t="s">
-        <v>520</v>
+        <v>539</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D104" t="s">
+        <v>376</v>
+      </c>
+      <c r="E104" t="s">
+        <v>377</v>
+      </c>
+      <c r="F104" t="s">
+        <v>635</v>
+      </c>
+      <c r="G104" t="s">
+        <v>378</v>
+      </c>
+      <c r="H104" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="B105" t="s">
-        <v>525</v>
+        <v>534</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D105" t="s">
+        <v>260</v>
+      </c>
+      <c r="E105" t="s">
+        <v>261</v>
+      </c>
+      <c r="F105" t="s">
+        <v>586</v>
+      </c>
+      <c r="G105" t="s">
+        <v>262</v>
+      </c>
+      <c r="H105" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="B106" t="s">
-        <v>520</v>
+        <v>534</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D106" t="s">
+        <v>265</v>
+      </c>
+      <c r="E106" t="s">
+        <v>266</v>
       </c>
       <c r="F106" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="G106" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="H106" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>354</v>
+        <v>76</v>
       </c>
       <c r="B107" t="s">
-        <v>520</v>
-      </c>
-      <c r="F107" t="s">
-        <v>669</v>
+        <v>524</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D107" t="s">
+        <v>77</v>
+      </c>
+      <c r="E107" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>701</v>
       </c>
       <c r="G107" t="s">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="H107" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B108" t="s">
-        <v>540</v>
-      </c>
-      <c r="F108" t="s">
-        <v>670</v>
+        <v>542</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D108" t="s">
+        <v>409</v>
+      </c>
+      <c r="E108" t="s">
+        <v>410</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="G108" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="H108" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>367</v>
+        <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>520</v>
+        <v>526</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D109" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" t="s">
+        <v>106</v>
       </c>
       <c r="F109" t="s">
-        <v>671</v>
+        <v>547</v>
       </c>
       <c r="G109" t="s">
-        <v>368</v>
+        <v>62</v>
       </c>
       <c r="H109" t="s">
-        <v>369</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="B110" t="s">
-        <v>520</v>
+        <v>535</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D110" t="s">
+        <v>270</v>
+      </c>
+      <c r="E110" t="s">
+        <v>271</v>
       </c>
       <c r="F110" t="s">
-        <v>672</v>
+        <v>621</v>
       </c>
       <c r="G110" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="H110" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="B111" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F111" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G111" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="H111" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>286</v>
       </c>
       <c r="B112" t="s">
-        <v>525</v>
+        <v>536</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D112" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112" t="s">
+        <v>288</v>
+      </c>
+      <c r="F112" t="s">
+        <v>616</v>
+      </c>
+      <c r="G112" t="s">
+        <v>289</v>
+      </c>
+      <c r="H112" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="B113" t="s">
-        <v>523</v>
+        <v>536</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D113" t="s">
+        <v>292</v>
+      </c>
+      <c r="E113" t="s">
+        <v>293</v>
       </c>
       <c r="F113" t="s">
-        <v>673</v>
+        <v>548</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="H113" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c r="B114" t="s">
-        <v>525</v>
+        <v>536</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D114" t="s">
+        <v>282</v>
+      </c>
+      <c r="E114" t="s">
+        <v>283</v>
       </c>
       <c r="F114" t="s">
-        <v>674</v>
+        <v>549</v>
       </c>
       <c r="G114" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="H114" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="B115" t="s">
-        <v>525</v>
+        <v>536</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D115" t="s">
+        <v>295</v>
+      </c>
+      <c r="E115" t="s">
+        <v>296</v>
+      </c>
+      <c r="F115" t="s">
+        <v>656</v>
+      </c>
+      <c r="G115" t="s">
+        <v>297</v>
+      </c>
+      <c r="H115" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>520</v>
+        <v>536</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D116" t="s">
+        <v>277</v>
+      </c>
+      <c r="E116" t="s">
+        <v>278</v>
+      </c>
+      <c r="F116" t="s">
+        <v>279</v>
+      </c>
+      <c r="G116" t="s">
+        <v>279</v>
+      </c>
+      <c r="H116" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B117" t="s">
-        <v>525</v>
+        <v>530</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D117" t="s">
+        <v>205</v>
+      </c>
+      <c r="E117" t="s">
+        <v>206</v>
+      </c>
+      <c r="F117" t="s">
+        <v>631</v>
+      </c>
+      <c r="G117" t="s">
+        <v>207</v>
+      </c>
+      <c r="H117" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="B118" t="s">
-        <v>520</v>
+        <v>530</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D118" t="s">
+        <v>300</v>
+      </c>
+      <c r="E118" t="s">
+        <v>301</v>
       </c>
       <c r="F118" t="s">
-        <v>675</v>
+        <v>632</v>
       </c>
       <c r="G118" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>438</v>
       </c>
       <c r="B119" t="s">
-        <v>520</v>
+        <v>530</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E119" t="s">
+        <v>440</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G119" t="s">
+        <v>441</v>
+      </c>
+      <c r="H119" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s">
-        <v>527</v>
+        <v>530</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D120" t="s">
+        <v>308</v>
+      </c>
+      <c r="E120" t="s">
+        <v>309</v>
       </c>
       <c r="F120" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="G120" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="H120" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="B121" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F121" t="s">
-        <v>247</v>
+        <v>688</v>
       </c>
       <c r="G121" t="s">
-        <v>247</v>
+        <v>305</v>
+      </c>
+      <c r="H121" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F122" t="s">
-        <v>247</v>
+        <v>684</v>
       </c>
       <c r="G122" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="H122" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F123" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G123" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H123" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>729</v>
       </c>
       <c r="B124" t="s">
-        <v>531</v>
+        <v>730</v>
+      </c>
+      <c r="C124" t="s">
+        <v>738</v>
+      </c>
+      <c r="D124" t="s">
+        <v>731</v>
+      </c>
+      <c r="E124" t="s">
+        <v>732</v>
       </c>
       <c r="F124" t="s">
-        <v>678</v>
+        <v>739</v>
       </c>
       <c r="G124" t="s">
-        <v>226</v>
+        <v>733</v>
       </c>
       <c r="H124" t="s">
-        <v>227</v>
+        <v>734</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>228</v>
+        <v>735</v>
       </c>
       <c r="B125" t="s">
-        <v>527</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="C125"/>
       <c r="F125" t="s">
-        <v>679</v>
+        <v>740</v>
       </c>
       <c r="G125" t="s">
-        <v>229</v>
+        <v>736</v>
       </c>
       <c r="H125" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>231</v>
+        <v>393</v>
       </c>
       <c r="B126" t="s">
-        <v>532</v>
-      </c>
-      <c r="F126" t="s">
-        <v>680</v>
-      </c>
-      <c r="G126" t="s">
-        <v>232</v>
+        <v>541</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D126" t="s">
+        <v>394</v>
+      </c>
+      <c r="E126" t="s">
+        <v>395</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="H126" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>234</v>
+        <v>515</v>
       </c>
       <c r="B127" t="s">
-        <v>527</v>
+        <v>546</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D127" t="s">
+        <v>516</v>
+      </c>
+      <c r="E127" t="s">
+        <v>517</v>
       </c>
       <c r="F127" t="s">
-        <v>681</v>
+        <v>622</v>
       </c>
       <c r="G127" t="s">
-        <v>235</v>
+        <v>518</v>
       </c>
       <c r="H127" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>237</v>
+        <v>510</v>
       </c>
       <c r="B128" t="s">
-        <v>527</v>
-      </c>
-      <c r="F128" t="s">
-        <v>682</v>
-      </c>
-      <c r="G128" t="s">
-        <v>238</v>
+        <v>545</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D128" t="s">
+        <v>511</v>
+      </c>
+      <c r="E128" t="s">
+        <v>512</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="H128" t="s">
-        <v>239</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="B129" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F129" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="G129" t="s">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="H129" t="s">
-        <v>242</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>533</v>
+        <v>521</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>684</v>
+        <v>619</v>
       </c>
       <c r="G130" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="H130" t="s">
-        <v>245</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>320</v>
+      </c>
+      <c r="B131" t="s">
+        <v>537</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D131" t="s">
+        <v>321</v>
+      </c>
+      <c r="E131" t="s">
+        <v>322</v>
+      </c>
+      <c r="F131" t="s">
+        <v>257</v>
+      </c>
+      <c r="G131" t="s">
+        <v>257</v>
+      </c>
+      <c r="H131" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>505</v>
+      </c>
+      <c r="B132" t="s">
+        <v>544</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D132" t="s">
+        <v>506</v>
+      </c>
+      <c r="E132" t="s">
+        <v>507</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G132" t="s">
+        <v>508</v>
+      </c>
+      <c r="H132" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N130">
-      <sortCondition ref="D2"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N132">
+      <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAAAF46-DCFB-40E6-AB5E-3B2B9A2ACB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40381FCC-47E0-4DAE-824C-33ABE1C182FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="2610" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="3675" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="769">
   <si>
     <t>id</t>
   </si>
@@ -2525,12 +2525,98 @@
   <si>
     <t>|Você chegou à Vila dos Exilados. Vamos falar com Bicerin, o ancião da vila. (Continua...)</t>
   </si>
+  <si>
+    <t>nasu</t>
+  </si>
+  <si>
+    <t>EA 23.184</t>
+  </si>
+  <si>
+    <t>Seeking the Legendary Bag!</t>
+  </si>
+  <si>
+    <t>伝説の鞄の謎を追え！</t>
+  </si>
+  <si>
+    <t>Accompany Nanasu and explore the “Forest of the Lost Way,” located northwest of Specwing.</t>
+  </si>
+  <si>
+    <t>妖精のナナスを連れ、スペクウィングの北西にある「帰らずの森」を探索しよう。</t>
+  </si>
+  <si>
+    <t>nasu1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+At the deepest part of the forest, Nanasu’s rivals, Raina and Poina, await you. Eliminate the insolent fairies.</t>
+  </si>
+  <si>
+    <t>帰らずの森の最奥でナナスのライバルのライナとポイナが待ち受けていた。生意気な妖精たちを駆除しよう。</t>
+  </si>
+  <si>
+    <t>nasu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+You have found the mysterious bag that Nanasu desired. Speak to her and hand it over.</t>
+  </si>
+  <si>
+    <t>あなたはナナスが欲しがっていた不思議な鞄を見つけた。ナナスに話しかけ、鞄を渡そう。</t>
+  </si>
+  <si>
+    <t>EA 23.198</t>
+  </si>
+  <si>
+    <t>|You arrived at the Exile's Village. Let's speak to Bicerin, the village elder.</t>
+  </si>
+  <si>
+    <t>|追放者の村に辿り着いた。追放者の長のビチェリンに話しかけよう。</t>
+  </si>
+  <si>
+    <t>negotiation_darkness2</t>
+  </si>
+  <si>
+    <t>|Bicerin, the elder of the exiles, entrusted you with the mission to return Duponne from the Sunken Temple of Lurie.</t>
+  </si>
+  <si>
+    <t>|ルーリエ海底神殿からデュポンヌを連れ帰るよう、追放者の長ビチェリンに依頼された。</t>
+  </si>
+  <si>
+    <t>negotiation_darkness4</t>
+  </si>
+  <si>
+    <t>|The mission given by Bicerin has been fulfilled. Time to return to the Village of Atonement and inform him.</t>
+  </si>
+  <si>
+    <t>|ビチェリンの依頼を達成した。贖罪の村に戻り、ビチェリンに報告しなければならない。</t>
+  </si>
+  <si>
+    <t>Em Busca da Bolsa Lendária!</t>
+  </si>
+  <si>
+    <t>Acompanhe Nanasu e explore a "Floresta do Caminho Perdido", localizada a noroeste de Specwing.</t>
+  </si>
+  <si>
+    <t>|Você chegou à Vila dos Exilados. Vamos falar com Bicerin, o líder da vila.</t>
+  </si>
+  <si>
+    <t>|Bicerin, o líder dos exilados, confiou a você a missão de retornar Duponne do Templo Submerso de Lurie.</t>
+  </si>
+  <si>
+    <t>|A missão dada por Bicerin foi cumprida. Hora de retornar à Vila da Expiação e informá-lo.</t>
+  </si>
+  <si>
+    <t>Na parte mais profunda da floresta, as rivais de Nanasu, Raina e Poina, aguardam por você. Elimine as fadas insolentes.</t>
+  </si>
+  <si>
+    <t>Você encontrou a bolsa misteriosa que Nanasu desejava. Fale com ela e entregue-a.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2908,31 +2994,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="117.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="117.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="89.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="89.875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="109.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="109.75" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="14" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2976,10 +3062,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3014,7 +3100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -3040,7 +3126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>336</v>
       </c>
@@ -3066,7 +3152,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="141.75" customHeight="1">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -3092,7 +3178,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>362</v>
       </c>
@@ -3118,7 +3204,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3144,7 +3230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3170,7 +3256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -3190,7 +3276,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -3216,7 +3302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -3251,7 +3337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -3277,7 +3363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -3303,7 +3389,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3329,7 +3415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3355,7 +3441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -3366,7 +3452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -3374,7 +3460,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -3382,7 +3468,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -3390,7 +3476,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>274</v>
       </c>
@@ -3401,7 +3487,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -3418,7 +3504,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -3435,7 +3521,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3443,7 +3529,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="42.75">
       <c r="A25" t="s">
         <v>148</v>
       </c>
@@ -3460,7 +3546,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -3477,7 +3563,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -3494,7 +3580,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -3511,7 +3597,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -3528,7 +3614,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -3536,7 +3622,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>341</v>
       </c>
@@ -3553,7 +3639,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>354</v>
       </c>
@@ -3570,7 +3656,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>367</v>
       </c>
@@ -3587,7 +3673,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -3604,7 +3690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3612,7 +3698,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -3629,7 +3715,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -3637,7 +3723,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -3663,7 +3749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>380</v>
       </c>
@@ -3680,7 +3766,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -3706,7 +3792,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>413</v>
       </c>
@@ -3732,7 +3818,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -3758,7 +3844,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -3784,7 +3870,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -3810,7 +3896,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -3836,7 +3922,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>189</v>
       </c>
@@ -3862,7 +3948,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -3888,7 +3974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -3914,7 +4000,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -3940,7 +4026,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -3966,7 +4052,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -3992,7 +4078,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -4009,7 +4095,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -4026,7 +4112,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -4034,7 +4120,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -4042,7 +4128,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -4059,7 +4145,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>115</v>
       </c>
@@ -4067,7 +4153,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -4075,7 +4161,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>323</v>
       </c>
@@ -4101,7 +4187,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>327</v>
       </c>
@@ -4127,7 +4213,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>333</v>
       </c>
@@ -4153,7 +4239,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>330</v>
       </c>
@@ -4179,7 +4265,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="28.5">
       <c r="A63" t="s">
         <v>398</v>
       </c>
@@ -4205,7 +4291,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>199</v>
       </c>
@@ -4231,7 +4317,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="28.5">
       <c r="A65" t="s">
         <v>495</v>
       </c>
@@ -4257,7 +4343,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="28.5">
       <c r="A66" t="s">
         <v>485</v>
       </c>
@@ -4283,7 +4369,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>249</v>
       </c>
@@ -4309,7 +4395,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="42.75">
       <c r="A68" t="s">
         <v>433</v>
       </c>
@@ -4335,7 +4421,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="28.5">
       <c r="A69" t="s">
         <v>463</v>
       </c>
@@ -4361,7 +4447,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>254</v>
       </c>
@@ -4387,7 +4473,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="28.5">
       <c r="A71" t="s">
         <v>480</v>
       </c>
@@ -4413,7 +4499,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="42.75">
       <c r="A72" t="s">
         <v>500</v>
       </c>
@@ -4439,7 +4525,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="42.75">
       <c r="A73" t="s">
         <v>428</v>
       </c>
@@ -4465,7 +4551,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>344</v>
       </c>
@@ -4491,7 +4577,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="28.5">
       <c r="A75" t="s">
         <v>458</v>
       </c>
@@ -4517,7 +4603,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>214</v>
       </c>
@@ -4543,7 +4629,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="28.5">
       <c r="A77" t="s">
         <v>448</v>
       </c>
@@ -4569,7 +4655,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="28.5">
       <c r="A78" t="s">
         <v>490</v>
       </c>
@@ -4595,7 +4681,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -4621,7 +4707,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="28.5">
       <c r="A80" t="s">
         <v>443</v>
       </c>
@@ -4647,7 +4733,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>383</v>
       </c>
@@ -4673,7 +4759,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>423</v>
       </c>
@@ -4699,7 +4785,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="28.5">
       <c r="A83" t="s">
         <v>468</v>
       </c>
@@ -4725,7 +4811,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="28.5">
       <c r="A84" t="s">
         <v>453</v>
       </c>
@@ -4751,7 +4837,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="199.5">
       <c r="A85" t="s">
         <v>388</v>
       </c>
@@ -4777,7 +4863,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>209</v>
       </c>
@@ -4803,7 +4889,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="28.5">
       <c r="A87" t="s">
         <v>473</v>
       </c>
@@ -4829,7 +4915,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="28.5">
       <c r="A88" t="s">
         <v>478</v>
       </c>
@@ -4855,7 +4941,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>312</v>
       </c>
@@ -4881,7 +4967,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>315</v>
       </c>
@@ -4907,7 +4993,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="42.75">
       <c r="A91" t="s">
         <v>403</v>
       </c>
@@ -4933,7 +5019,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>370</v>
       </c>
@@ -4959,7 +5045,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>316</v>
       </c>
@@ -4979,7 +5065,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -5005,7 +5091,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>418</v>
       </c>
@@ -5031,7 +5117,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>219</v>
       </c>
@@ -5048,7 +5134,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>246</v>
       </c>
@@ -5062,7 +5148,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>248</v>
       </c>
@@ -5076,7 +5162,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -5093,7 +5179,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>228</v>
       </c>
@@ -5110,7 +5196,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>234</v>
       </c>
@@ -5127,7 +5213,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>237</v>
       </c>
@@ -5144,7 +5230,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>240</v>
       </c>
@@ -5161,7 +5247,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>375</v>
       </c>
@@ -5187,7 +5273,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>259</v>
       </c>
@@ -5213,7 +5299,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>264</v>
       </c>
@@ -5239,7 +5325,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="42.75">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -5265,7 +5351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="42.75">
       <c r="A108" t="s">
         <v>408</v>
       </c>
@@ -5291,7 +5377,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -5317,7 +5403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>269</v>
       </c>
@@ -5343,7 +5429,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>231</v>
       </c>
@@ -5360,7 +5446,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>286</v>
       </c>
@@ -5386,7 +5472,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>291</v>
       </c>
@@ -5412,7 +5498,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>281</v>
       </c>
@@ -5438,7 +5524,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>294</v>
       </c>
@@ -5464,7 +5550,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -5490,7 +5576,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>204</v>
       </c>
@@ -5516,7 +5602,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>299</v>
       </c>
@@ -5542,7 +5628,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="42.75">
       <c r="A119" t="s">
         <v>438</v>
       </c>
@@ -5568,7 +5654,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>307</v>
       </c>
@@ -5594,7 +5680,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>304</v>
       </c>
@@ -5611,7 +5697,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -5628,7 +5714,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>225</v>
       </c>
@@ -5645,7 +5731,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>729</v>
       </c>
@@ -5671,7 +5757,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>735</v>
       </c>
@@ -5689,7 +5775,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="156.75">
       <c r="A126" t="s">
         <v>393</v>
       </c>
@@ -5715,7 +5801,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>515</v>
       </c>
@@ -5741,7 +5827,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="85.5">
       <c r="A128" t="s">
         <v>510</v>
       </c>
@@ -5767,7 +5853,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>37</v>
       </c>
@@ -5784,7 +5870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -5810,7 +5896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>320</v>
       </c>
@@ -5836,7 +5922,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="42.75">
       <c r="A132" t="s">
         <v>505</v>
       </c>
@@ -5860,6 +5946,122 @@
       </c>
       <c r="H132" t="s">
         <v>509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>741</v>
+      </c>
+      <c r="B133" t="s">
+        <v>742</v>
+      </c>
+      <c r="C133" t="s">
+        <v>762</v>
+      </c>
+      <c r="D133" t="s">
+        <v>743</v>
+      </c>
+      <c r="E133" t="s">
+        <v>744</v>
+      </c>
+      <c r="F133" t="s">
+        <v>763</v>
+      </c>
+      <c r="G133" t="s">
+        <v>745</v>
+      </c>
+      <c r="H133" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="28.5">
+      <c r="A134" t="s">
+        <v>747</v>
+      </c>
+      <c r="B134" t="s">
+        <v>742</v>
+      </c>
+      <c r="C134"/>
+      <c r="F134" t="s">
+        <v>767</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H134" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.5">
+      <c r="A135" t="s">
+        <v>750</v>
+      </c>
+      <c r="B135" t="s">
+        <v>742</v>
+      </c>
+      <c r="C135"/>
+      <c r="F135" t="s">
+        <v>768</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="H135" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>735</v>
+      </c>
+      <c r="B136" t="s">
+        <v>753</v>
+      </c>
+      <c r="C136"/>
+      <c r="F136" t="s">
+        <v>764</v>
+      </c>
+      <c r="G136" t="s">
+        <v>754</v>
+      </c>
+      <c r="H136" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>756</v>
+      </c>
+      <c r="B137" t="s">
+        <v>753</v>
+      </c>
+      <c r="C137"/>
+      <c r="F137" t="s">
+        <v>765</v>
+      </c>
+      <c r="G137" t="s">
+        <v>757</v>
+      </c>
+      <c r="H137" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>759</v>
+      </c>
+      <c r="B138" t="s">
+        <v>753</v>
+      </c>
+      <c r="C138"/>
+      <c r="F138" t="s">
+        <v>766</v>
+      </c>
+      <c r="G138" t="s">
+        <v>760</v>
+      </c>
+      <c r="H138" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>

--- a/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40381FCC-47E0-4DAE-824C-33ABE1C182FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D3DD23-EA01-4918-9799-87536BE20322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="3675" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -2616,7 +2616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2996,29 +2996,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="117.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="117.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="89.875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="255.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="89.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="109.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="109.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="14" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3062,1600 +3062,1761 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>520</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>617</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>520</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>617</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>338</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>633</v>
+        <v>548</v>
       </c>
       <c r="G5" t="s">
-        <v>339</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="141.75" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>634</v>
+        <v>548</v>
       </c>
       <c r="G6" t="s">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="H6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="D7" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="E7" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="F7" t="s">
-        <v>636</v>
+        <v>326</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="F8" t="s">
-        <v>639</v>
+        <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="F9" t="s">
-        <v>643</v>
+        <v>326</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>326</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>335</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" t="s">
+        <v>326</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>759</v>
       </c>
       <c r="B11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="C11"/>
       <c r="F11" t="s">
-        <v>646</v>
+        <v>766</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>760</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>756</v>
       </c>
       <c r="B12" t="s">
-        <v>520</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="C12"/>
       <c r="F12" t="s">
-        <v>650</v>
+        <v>765</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>757</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>520</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
       <c r="F13" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" t="s">
-        <v>145</v>
+        <v>525</v>
       </c>
       <c r="F14" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>520</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
       <c r="F15" t="s">
-        <v>547</v>
+        <v>663</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
         <v>520</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
       <c r="F16" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>735</v>
       </c>
       <c r="B17" t="s">
-        <v>520</v>
+        <v>730</v>
+      </c>
+      <c r="C17"/>
+      <c r="F17" t="s">
+        <v>740</v>
+      </c>
+      <c r="G17" t="s">
+        <v>736</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>735</v>
       </c>
       <c r="B18" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>753</v>
+      </c>
+      <c r="C18"/>
+      <c r="F18" t="s">
+        <v>764</v>
+      </c>
+      <c r="G18" t="s">
+        <v>754</v>
+      </c>
+      <c r="H18" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="F19" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20" t="s">
+        <v>666</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
         <v>520</v>
       </c>
+      <c r="F21" t="s">
+        <v>666</v>
+      </c>
+      <c r="G21" t="s">
+        <v>155</v>
+      </c>
       <c r="H21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
         <v>520</v>
       </c>
       <c r="F22" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s">
-        <v>520</v>
+        <v>535</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" t="s">
+        <v>271</v>
       </c>
       <c r="F23" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="42.75">
+        <v>525</v>
+      </c>
+      <c r="F24" t="s">
+        <v>661</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
         <v>520</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>149</v>
+      <c r="F25" t="s">
+        <v>675</v>
+      </c>
+      <c r="G25" t="s">
+        <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F26" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F27" t="s">
-        <v>666</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
-      </c>
-      <c r="H27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F28" t="s">
-        <v>666</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="B29" t="s">
         <v>520</v>
       </c>
+      <c r="C29" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D29" t="s">
+        <v>363</v>
+      </c>
+      <c r="E29" t="s">
+        <v>364</v>
+      </c>
       <c r="F29" t="s">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s">
+        <v>536</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" t="s">
+        <v>616</v>
+      </c>
+      <c r="G30" t="s">
+        <v>289</v>
+      </c>
+      <c r="H30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" t="s">
+        <v>533</v>
+      </c>
+      <c r="F31" t="s">
+        <v>684</v>
+      </c>
+      <c r="G31" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>741</v>
+      </c>
+      <c r="B32" t="s">
+        <v>742</v>
+      </c>
+      <c r="C32" t="s">
+        <v>762</v>
+      </c>
+      <c r="D32" t="s">
+        <v>743</v>
+      </c>
+      <c r="E32" t="s">
+        <v>744</v>
+      </c>
+      <c r="F32" t="s">
+        <v>763</v>
+      </c>
+      <c r="G32" t="s">
+        <v>745</v>
+      </c>
+      <c r="H32" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>515</v>
+      </c>
+      <c r="B33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D33" t="s">
+        <v>516</v>
+      </c>
+      <c r="E33" t="s">
+        <v>517</v>
+      </c>
+      <c r="F33" t="s">
+        <v>622</v>
+      </c>
+      <c r="G33" t="s">
+        <v>518</v>
+      </c>
+      <c r="H33" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" t="s">
+        <v>527</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" t="s">
+        <v>585</v>
+      </c>
+      <c r="G34" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35" t="s">
+        <v>527</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D35" t="s">
+        <v>424</v>
+      </c>
+      <c r="E35" t="s">
+        <v>425</v>
+      </c>
+      <c r="F35" t="s">
+        <v>642</v>
+      </c>
+      <c r="G35" t="s">
+        <v>426</v>
+      </c>
+      <c r="H35" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>527</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" t="s">
+        <v>658</v>
+      </c>
+      <c r="G36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>428</v>
+      </c>
+      <c r="B37" t="s">
+        <v>527</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D37" t="s">
+        <v>429</v>
+      </c>
+      <c r="E37" t="s">
+        <v>430</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G37" t="s">
+        <v>431</v>
+      </c>
+      <c r="H37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>341</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C38" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
+        <v>655</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D39" t="s">
+        <v>345</v>
+      </c>
+      <c r="E39" t="s">
+        <v>346</v>
+      </c>
+      <c r="F39" t="s">
+        <v>625</v>
+      </c>
+      <c r="G39" t="s">
+        <v>347</v>
+      </c>
+      <c r="H39" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B40" t="s">
+        <v>527</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D40" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" t="s">
+        <v>372</v>
+      </c>
+      <c r="F40" t="s">
+        <v>652</v>
+      </c>
+      <c r="G40" t="s">
+        <v>373</v>
+      </c>
+      <c r="H40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>357</v>
+      </c>
+      <c r="B41" t="s">
+        <v>527</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D41" t="s">
+        <v>358</v>
+      </c>
+      <c r="E41" t="s">
+        <v>359</v>
+      </c>
+      <c r="F41" t="s">
+        <v>638</v>
+      </c>
+      <c r="G41" t="s">
+        <v>360</v>
+      </c>
+      <c r="H41" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>383</v>
+      </c>
+      <c r="B42" t="s">
+        <v>527</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D42" t="s">
+        <v>384</v>
+      </c>
+      <c r="E42" t="s">
+        <v>385</v>
+      </c>
+      <c r="F42" t="s">
+        <v>640</v>
+      </c>
+      <c r="G42" t="s">
+        <v>386</v>
+      </c>
+      <c r="H42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>495</v>
+      </c>
+      <c r="B43" t="s">
+        <v>527</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E43" t="s">
+        <v>497</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G43" t="s">
+        <v>498</v>
+      </c>
+      <c r="H43" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" t="s">
+        <v>530</v>
+      </c>
+      <c r="F44" t="s">
+        <v>688</v>
+      </c>
+      <c r="G44" t="s">
+        <v>305</v>
+      </c>
+      <c r="H44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>448</v>
+      </c>
+      <c r="B45" t="s">
+        <v>527</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D45" t="s">
+        <v>449</v>
+      </c>
+      <c r="E45" t="s">
+        <v>450</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G45" t="s">
+        <v>451</v>
+      </c>
+      <c r="H45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>505</v>
+      </c>
+      <c r="B46" t="s">
+        <v>544</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D46" t="s">
+        <v>506</v>
+      </c>
+      <c r="E46" t="s">
+        <v>507</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G46" t="s">
+        <v>508</v>
+      </c>
+      <c r="H46" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
         <v>520</v>
       </c>
-      <c r="F31" t="s">
-        <v>668</v>
-      </c>
-      <c r="G31" t="s">
-        <v>342</v>
-      </c>
-      <c r="H31" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>354</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C47" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>623</v>
+      </c>
+      <c r="G47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
         <v>520</v>
       </c>
-      <c r="F32" t="s">
-        <v>669</v>
-      </c>
-      <c r="G32" t="s">
-        <v>355</v>
-      </c>
-      <c r="H32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>367</v>
-      </c>
-      <c r="B33" t="s">
-        <v>520</v>
-      </c>
-      <c r="F33" t="s">
-        <v>671</v>
-      </c>
-      <c r="G33" t="s">
-        <v>368</v>
-      </c>
-      <c r="H33" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>520</v>
-      </c>
-      <c r="F34" t="s">
-        <v>672</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" t="s">
-        <v>520</v>
-      </c>
-      <c r="F36" t="s">
-        <v>675</v>
-      </c>
-      <c r="G36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>522</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" t="s">
-        <v>630</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="s">
-        <v>380</v>
-      </c>
-      <c r="B39" t="s">
-        <v>540</v>
-      </c>
-      <c r="F39" t="s">
-        <v>670</v>
-      </c>
-      <c r="G39" t="s">
-        <v>381</v>
-      </c>
-      <c r="H39" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" t="s">
-        <v>528</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" t="s">
-        <v>654</v>
-      </c>
-      <c r="G40" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>413</v>
-      </c>
-      <c r="B41" t="s">
-        <v>543</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="D41" t="s">
-        <v>414</v>
-      </c>
-      <c r="E41" t="s">
-        <v>415</v>
-      </c>
-      <c r="F41" t="s">
-        <v>627</v>
-      </c>
-      <c r="G41" t="s">
-        <v>416</v>
-      </c>
-      <c r="H41" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" t="s">
-        <v>529</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D42" t="s">
-        <v>195</v>
-      </c>
-      <c r="E42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" t="s">
-        <v>587</v>
-      </c>
-      <c r="G42" t="s">
-        <v>197</v>
-      </c>
-      <c r="H42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43" t="s">
-        <v>529</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D43" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" t="s">
-        <v>644</v>
-      </c>
-      <c r="G43" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" t="s">
-        <v>529</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D44" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44" t="s">
-        <v>645</v>
-      </c>
-      <c r="G44" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" t="s">
-        <v>529</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D45" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" t="s">
-        <v>649</v>
-      </c>
-      <c r="G45" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" t="s">
-        <v>529</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D46" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" t="s">
-        <v>657</v>
-      </c>
-      <c r="G46" t="s">
-        <v>192</v>
-      </c>
-      <c r="H46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>525</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>547</v>
-      </c>
-      <c r="G47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
+      <c r="C48" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" t="s">
+        <v>653</v>
+      </c>
+      <c r="G48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>443</v>
+      </c>
+      <c r="B49" t="s">
+        <v>527</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D49" t="s">
+        <v>444</v>
+      </c>
+      <c r="E49" t="s">
+        <v>445</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G49" t="s">
+        <v>446</v>
+      </c>
+      <c r="H49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>398</v>
+      </c>
+      <c r="B50" t="s">
+        <v>527</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E50" t="s">
+        <v>400</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="G50" t="s">
+        <v>401</v>
+      </c>
+      <c r="H50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>525</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" t="s">
-        <v>624</v>
-      </c>
-      <c r="G48" t="s">
-        <v>97</v>
-      </c>
-      <c r="H48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" t="s">
-        <v>525</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D49" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" t="s">
-        <v>169</v>
-      </c>
-      <c r="F49" t="s">
-        <v>626</v>
-      </c>
-      <c r="G49" t="s">
-        <v>170</v>
-      </c>
-      <c r="H49" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" t="s">
-        <v>525</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="D50" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" t="s">
-        <v>628</v>
-      </c>
-      <c r="G50" t="s">
-        <v>165</v>
-      </c>
-      <c r="H50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>107</v>
       </c>
       <c r="B51" t="s">
         <v>525</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="G51" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F52" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="H52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
-        <v>525</v>
+        <v>534</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D53" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" t="s">
+        <v>266</v>
       </c>
       <c r="F53" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="G53" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="H53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>510</v>
       </c>
       <c r="B54" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>545</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D54" t="s">
+        <v>511</v>
+      </c>
+      <c r="E54" t="s">
+        <v>512</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H54" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>527</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D55" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" t="s">
+        <v>201</v>
+      </c>
+      <c r="F55" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55" t="s">
+        <v>202</v>
+      </c>
+      <c r="H55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
         <v>525</v>
       </c>
+      <c r="C56" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D56" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" t="s">
+        <v>169</v>
+      </c>
       <c r="F56" t="s">
-        <v>674</v>
+        <v>626</v>
       </c>
       <c r="G56" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>527</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D57" t="s">
+        <v>404</v>
+      </c>
+      <c r="E57" t="s">
+        <v>405</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G57" t="s">
+        <v>406</v>
+      </c>
+      <c r="H57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>539</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D58" t="s">
+        <v>376</v>
+      </c>
+      <c r="E58" t="s">
+        <v>377</v>
+      </c>
+      <c r="F58" t="s">
+        <v>635</v>
+      </c>
+      <c r="G58" t="s">
+        <v>378</v>
+      </c>
+      <c r="H58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="B59" t="s">
-        <v>538</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="D59" t="s">
-        <v>324</v>
-      </c>
-      <c r="E59" t="s">
-        <v>325</v>
+        <v>527</v>
       </c>
       <c r="F59" t="s">
-        <v>326</v>
+        <v>679</v>
       </c>
       <c r="G59" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="H59" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
-        <v>538</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D60" t="s">
-        <v>328</v>
-      </c>
-      <c r="E60" t="s">
-        <v>329</v>
+        <v>531</v>
       </c>
       <c r="F60" t="s">
-        <v>326</v>
+        <v>678</v>
       </c>
       <c r="G60" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="H60" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>333</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s">
-        <v>538</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>562</v>
+        <v>527</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>721</v>
       </c>
       <c r="D61" t="s">
-        <v>334</v>
+        <v>469</v>
       </c>
       <c r="E61" t="s">
-        <v>335</v>
-      </c>
-      <c r="F61" t="s">
-        <v>326</v>
+        <v>470</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="G61" t="s">
-        <v>326</v>
+        <v>471</v>
       </c>
       <c r="H61" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="D62" t="s">
-        <v>331</v>
+        <v>419</v>
       </c>
       <c r="E62" t="s">
-        <v>332</v>
+        <v>420</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>659</v>
       </c>
       <c r="G62" t="s">
-        <v>326</v>
+        <v>421</v>
       </c>
       <c r="H62" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="28.5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s">
         <v>527</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>399</v>
+      <c r="C63" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D63" t="s">
+        <v>255</v>
       </c>
       <c r="E63" t="s">
-        <v>400</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>708</v>
+        <v>256</v>
+      </c>
+      <c r="F63" t="s">
+        <v>257</v>
       </c>
       <c r="G63" t="s">
-        <v>401</v>
+        <v>257</v>
       </c>
       <c r="H63" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D64" t="s">
-        <v>200</v>
+        <v>321</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="G64" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="H64" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="28.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>495</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s">
         <v>527</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>496</v>
+      <c r="C65" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D65" t="s">
+        <v>313</v>
       </c>
       <c r="E65" t="s">
-        <v>497</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>707</v>
+        <v>314</v>
+      </c>
+      <c r="F65" t="s">
+        <v>257</v>
       </c>
       <c r="G65" t="s">
-        <v>498</v>
+        <v>257</v>
       </c>
       <c r="H65" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="28.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>485</v>
+        <v>315</v>
       </c>
       <c r="B66" t="s">
         <v>527</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>710</v>
+      <c r="C66" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="D66" t="s">
-        <v>486</v>
+        <v>313</v>
       </c>
       <c r="E66" t="s">
-        <v>487</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>706</v>
+        <v>314</v>
+      </c>
+      <c r="F66" t="s">
+        <v>257</v>
       </c>
       <c r="G66" t="s">
-        <v>488</v>
+        <v>257</v>
       </c>
       <c r="H66" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>585</v>
+        <v>643</v>
       </c>
       <c r="G67" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="42.75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>433</v>
+        <v>747</v>
       </c>
       <c r="B68" t="s">
-        <v>527</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D68" t="s">
-        <v>434</v>
-      </c>
-      <c r="E68" t="s">
-        <v>435</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="G68" t="s">
-        <v>436</v>
+        <v>742</v>
+      </c>
+      <c r="C68"/>
+      <c r="F68" t="s">
+        <v>767</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>748</v>
       </c>
       <c r="H68" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="28.5">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="B69" t="s">
         <v>527</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D69" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="E69" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G69" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="H69" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="D70" t="s">
-        <v>255</v>
+        <v>414</v>
       </c>
       <c r="E70" t="s">
-        <v>256</v>
+        <v>415</v>
       </c>
       <c r="F70" t="s">
-        <v>257</v>
+        <v>627</v>
       </c>
       <c r="G70" t="s">
-        <v>257</v>
+        <v>416</v>
       </c>
       <c r="H70" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="28.5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" t="s">
+        <v>536</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D71" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>549</v>
+      </c>
+      <c r="G71" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>393</v>
+      </c>
+      <c r="B72" t="s">
+        <v>541</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D72" t="s">
+        <v>394</v>
+      </c>
+      <c r="E72" t="s">
+        <v>395</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H72" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>480</v>
-      </c>
-      <c r="B71" t="s">
-        <v>527</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D71" t="s">
-        <v>481</v>
-      </c>
-      <c r="E71" t="s">
-        <v>482</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="G71" t="s">
-        <v>483</v>
-      </c>
-      <c r="H71" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="42.75">
-      <c r="A72" t="s">
-        <v>500</v>
-      </c>
-      <c r="B72" t="s">
-        <v>527</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D72" t="s">
-        <v>501</v>
-      </c>
-      <c r="E72" t="s">
-        <v>502</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="G72" t="s">
-        <v>503</v>
-      </c>
-      <c r="H72" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="42.75">
-      <c r="A73" t="s">
-        <v>428</v>
       </c>
       <c r="B73" t="s">
         <v>527</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D73" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="E73" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="G73" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="H73" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="B74" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="D74" t="s">
-        <v>345</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
-        <v>346</v>
+        <v>186</v>
       </c>
       <c r="F74" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="G74" t="s">
-        <v>347</v>
+        <v>187</v>
       </c>
       <c r="H74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>458</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s">
-        <v>527</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="D75" t="s">
-        <v>459</v>
-      </c>
-      <c r="E75" t="s">
-        <v>460</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>699</v>
+        <v>532</v>
+      </c>
+      <c r="F75" t="s">
+        <v>680</v>
       </c>
       <c r="G75" t="s">
-        <v>461</v>
+        <v>232</v>
       </c>
       <c r="H75" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>336</v>
       </c>
       <c r="B76" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="E76" t="s">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c r="F76" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="G76" t="s">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c r="H76" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="28.5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>448</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>527</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>727</v>
+        <v>520</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>611</v>
       </c>
       <c r="D77" t="s">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="E77" t="s">
-        <v>450</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>698</v>
+        <v>130</v>
+      </c>
+      <c r="F77" t="s">
+        <v>651</v>
       </c>
       <c r="G77" t="s">
-        <v>451</v>
+        <v>131</v>
       </c>
       <c r="H77" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="28.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>490</v>
       </c>
@@ -4681,1393 +4842,1232 @@
         <v>494</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>357</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>565</v>
+        <v>581</v>
       </c>
       <c r="D79" t="s">
-        <v>358</v>
+        <v>190</v>
       </c>
       <c r="E79" t="s">
-        <v>359</v>
+        <v>191</v>
       </c>
       <c r="F79" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="G79" t="s">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="H79" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="28.5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>443</v>
+        <v>276</v>
       </c>
       <c r="B80" t="s">
-        <v>527</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>725</v>
+        <v>536</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>584</v>
       </c>
       <c r="D80" t="s">
-        <v>444</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
-        <v>445</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>696</v>
+        <v>278</v>
+      </c>
+      <c r="F80" t="s">
+        <v>279</v>
       </c>
       <c r="G80" t="s">
-        <v>446</v>
+        <v>279</v>
       </c>
       <c r="H80" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>383</v>
+        <v>259</v>
       </c>
       <c r="B81" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="D81" t="s">
-        <v>384</v>
+        <v>260</v>
       </c>
       <c r="E81" t="s">
-        <v>385</v>
+        <v>261</v>
       </c>
       <c r="F81" t="s">
-        <v>640</v>
+        <v>586</v>
       </c>
       <c r="G81" t="s">
-        <v>386</v>
+        <v>262</v>
       </c>
       <c r="H81" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>423</v>
+        <v>500</v>
       </c>
       <c r="B82" t="s">
         <v>527</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>606</v>
+      <c r="C82" s="3" t="s">
+        <v>714</v>
       </c>
       <c r="D82" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="E82" t="s">
-        <v>425</v>
-      </c>
-      <c r="F82" t="s">
-        <v>642</v>
+        <v>502</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="G82" t="s">
-        <v>426</v>
+        <v>503</v>
       </c>
       <c r="H82" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="28.5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>468</v>
+        <v>307</v>
       </c>
       <c r="B83" t="s">
-        <v>527</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>721</v>
+        <v>530</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="D83" t="s">
-        <v>469</v>
+        <v>308</v>
       </c>
       <c r="E83" t="s">
-        <v>470</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>692</v>
+        <v>309</v>
+      </c>
+      <c r="F83" t="s">
+        <v>647</v>
       </c>
       <c r="G83" t="s">
-        <v>471</v>
+        <v>310</v>
       </c>
       <c r="H83" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="28.5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B84" t="s">
         <v>527</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D84" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="E84" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G84" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="H84" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="199.5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
       <c r="B85" t="s">
         <v>527</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>389</v>
+        <v>719</v>
+      </c>
+      <c r="D85" t="s">
+        <v>474</v>
       </c>
       <c r="E85" t="s">
-        <v>390</v>
+        <v>475</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>391</v>
+        <v>648</v>
+      </c>
+      <c r="G85" t="s">
+        <v>476</v>
       </c>
       <c r="H85" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B86" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="D86" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F86" t="s">
-        <v>548</v>
+        <v>631</v>
       </c>
       <c r="G86" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="28.5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>473</v>
+        <v>194</v>
       </c>
       <c r="B87" t="s">
-        <v>527</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>719</v>
+        <v>529</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>552</v>
       </c>
       <c r="D87" t="s">
-        <v>474</v>
+        <v>195</v>
       </c>
       <c r="E87" t="s">
-        <v>475</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>686</v>
+        <v>196</v>
+      </c>
+      <c r="F87" t="s">
+        <v>587</v>
       </c>
       <c r="G87" t="s">
-        <v>476</v>
+        <v>197</v>
       </c>
       <c r="H87" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="28.5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>478</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>527</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>719</v>
+        <v>520</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>608</v>
       </c>
       <c r="D88" t="s">
-        <v>474</v>
+        <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>475</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>648</v>
+        <v>56</v>
+      </c>
+      <c r="F88" t="s">
+        <v>646</v>
       </c>
       <c r="G88" t="s">
-        <v>476</v>
+        <v>57</v>
       </c>
       <c r="H88" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>312</v>
+        <v>458</v>
       </c>
       <c r="B89" t="s">
         <v>527</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>575</v>
+      <c r="C89" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="D89" t="s">
-        <v>313</v>
+        <v>459</v>
       </c>
       <c r="E89" t="s">
-        <v>314</v>
-      </c>
-      <c r="F89" t="s">
-        <v>257</v>
+        <v>460</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="G89" t="s">
-        <v>257</v>
+        <v>461</v>
       </c>
       <c r="H89" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>315</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="D90" t="s">
-        <v>313</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
-        <v>314</v>
+        <v>109</v>
       </c>
       <c r="F90" t="s">
-        <v>257</v>
+        <v>637</v>
       </c>
       <c r="G90" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="H90" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="42.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>527</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>718</v>
+        <v>520</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="D91" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="E91" t="s">
-        <v>405</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>690</v>
+        <v>351</v>
+      </c>
+      <c r="F91" t="s">
+        <v>634</v>
       </c>
       <c r="G91" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="H91" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>370</v>
+        <v>214</v>
       </c>
       <c r="B92" t="s">
         <v>527</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="D92" t="s">
-        <v>371</v>
+        <v>215</v>
       </c>
       <c r="E92" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="F92" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="G92" t="s">
-        <v>373</v>
+        <v>217</v>
       </c>
       <c r="H92" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B93" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D93" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="E93" t="s">
-        <v>318</v>
+        <v>296</v>
+      </c>
+      <c r="F93" t="s">
+        <v>656</v>
+      </c>
+      <c r="G93" t="s">
+        <v>297</v>
       </c>
       <c r="H93" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="E94" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="H94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>418</v>
+        <v>237</v>
       </c>
       <c r="B95" t="s">
         <v>527</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D95" t="s">
-        <v>419</v>
-      </c>
-      <c r="E95" t="s">
-        <v>420</v>
-      </c>
       <c r="F95" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="G95" t="s">
-        <v>421</v>
+        <v>238</v>
       </c>
       <c r="H95" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>219</v>
+        <v>433</v>
       </c>
       <c r="B96" t="s">
         <v>527</v>
       </c>
-      <c r="F96" t="s">
-        <v>676</v>
+      <c r="C96" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D96" t="s">
+        <v>434</v>
+      </c>
+      <c r="E96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="G96" t="s">
-        <v>220</v>
+        <v>436</v>
       </c>
       <c r="H96" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="B97" t="s">
-        <v>527</v>
+        <v>525</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D97" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" t="s">
+        <v>164</v>
       </c>
       <c r="F97" t="s">
-        <v>247</v>
+        <v>628</v>
       </c>
       <c r="G97" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="H97" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="B98" t="s">
-        <v>527</v>
+        <v>530</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D98" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" t="s">
+        <v>301</v>
       </c>
       <c r="F98" t="s">
-        <v>247</v>
+        <v>632</v>
       </c>
       <c r="G98" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>302</v>
+      </c>
+      <c r="H98" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B99" t="s">
         <v>527</v>
       </c>
       <c r="F99" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="G99" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H99" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>228</v>
+        <v>438</v>
       </c>
       <c r="B100" t="s">
-        <v>527</v>
-      </c>
-      <c r="F100" t="s">
-        <v>679</v>
+        <v>530</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E100" t="s">
+        <v>440</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="G100" t="s">
-        <v>229</v>
+        <v>441</v>
       </c>
       <c r="H100" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>527</v>
+        <v>521</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>681</v>
+        <v>619</v>
       </c>
       <c r="G101" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="H101" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>408</v>
       </c>
       <c r="B102" t="s">
-        <v>527</v>
-      </c>
-      <c r="F102" t="s">
-        <v>682</v>
+        <v>542</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D102" t="s">
+        <v>409</v>
+      </c>
+      <c r="E102" t="s">
+        <v>410</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="G102" t="s">
-        <v>238</v>
+        <v>411</v>
       </c>
       <c r="H102" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>240</v>
+        <v>453</v>
       </c>
       <c r="B103" t="s">
         <v>527</v>
       </c>
-      <c r="F103" t="s">
+      <c r="C103" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D103" t="s">
+        <v>454</v>
+      </c>
+      <c r="E103" t="s">
+        <v>455</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G103" t="s">
+        <v>456</v>
+      </c>
+      <c r="H103" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" t="s">
+        <v>529</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D104" t="s">
+        <v>174</v>
+      </c>
+      <c r="E104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F104" t="s">
+        <v>645</v>
+      </c>
+      <c r="G104" t="s">
+        <v>176</v>
+      </c>
+      <c r="H104" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>525</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D105" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" t="s">
+        <v>547</v>
+      </c>
+      <c r="G105" t="s">
+        <v>62</v>
+      </c>
+      <c r="H105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" t="s">
+        <v>520</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D106" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106" t="s">
+        <v>61</v>
+      </c>
+      <c r="F106" t="s">
+        <v>547</v>
+      </c>
+      <c r="G106" t="s">
+        <v>62</v>
+      </c>
+      <c r="H106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>526</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D107" t="s">
+        <v>105</v>
+      </c>
+      <c r="E107" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" t="s">
+        <v>547</v>
+      </c>
+      <c r="G107" t="s">
+        <v>62</v>
+      </c>
+      <c r="H107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>527</v>
+      </c>
+      <c r="F108" t="s">
+        <v>676</v>
+      </c>
+      <c r="G108" t="s">
+        <v>220</v>
+      </c>
+      <c r="H108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>341</v>
+      </c>
+      <c r="B109" t="s">
+        <v>520</v>
+      </c>
+      <c r="F109" t="s">
+        <v>668</v>
+      </c>
+      <c r="G109" t="s">
+        <v>342</v>
+      </c>
+      <c r="H109" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>367</v>
+      </c>
+      <c r="B110" t="s">
+        <v>520</v>
+      </c>
+      <c r="F110" t="s">
+        <v>671</v>
+      </c>
+      <c r="G110" t="s">
+        <v>368</v>
+      </c>
+      <c r="H110" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>354</v>
+      </c>
+      <c r="B111" t="s">
+        <v>520</v>
+      </c>
+      <c r="F111" t="s">
+        <v>669</v>
+      </c>
+      <c r="G111" t="s">
+        <v>355</v>
+      </c>
+      <c r="H111" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>380</v>
+      </c>
+      <c r="B112" t="s">
+        <v>540</v>
+      </c>
+      <c r="F112" t="s">
+        <v>670</v>
+      </c>
+      <c r="G112" t="s">
+        <v>381</v>
+      </c>
+      <c r="H112" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>463</v>
+      </c>
+      <c r="B113" t="s">
+        <v>527</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D113" t="s">
+        <v>464</v>
+      </c>
+      <c r="E113" t="s">
+        <v>465</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G113" t="s">
+        <v>466</v>
+      </c>
+      <c r="H113" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>750</v>
+      </c>
+      <c r="B114" t="s">
+        <v>742</v>
+      </c>
+      <c r="C114"/>
+      <c r="F114" t="s">
+        <v>768</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="H114" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" t="s">
+        <v>527</v>
+      </c>
+      <c r="F115" t="s">
         <v>683</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G115" t="s">
         <v>241</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H115" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>375</v>
-      </c>
-      <c r="B104" t="s">
-        <v>539</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D104" t="s">
-        <v>376</v>
-      </c>
-      <c r="E104" t="s">
-        <v>377</v>
-      </c>
-      <c r="F104" t="s">
-        <v>635</v>
-      </c>
-      <c r="G104" t="s">
-        <v>378</v>
-      </c>
-      <c r="H104" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>259</v>
-      </c>
-      <c r="B105" t="s">
-        <v>534</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="D105" t="s">
-        <v>260</v>
-      </c>
-      <c r="E105" t="s">
-        <v>261</v>
-      </c>
-      <c r="F105" t="s">
-        <v>586</v>
-      </c>
-      <c r="G105" t="s">
-        <v>262</v>
-      </c>
-      <c r="H105" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>264</v>
-      </c>
-      <c r="B106" t="s">
-        <v>534</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D106" t="s">
-        <v>265</v>
-      </c>
-      <c r="E106" t="s">
-        <v>266</v>
-      </c>
-      <c r="F106" t="s">
-        <v>641</v>
-      </c>
-      <c r="G106" t="s">
-        <v>267</v>
-      </c>
-      <c r="H106" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="42.75">
-      <c r="A107" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" t="s">
+        <v>522</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" t="s">
+        <v>630</v>
+      </c>
+      <c r="G116" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" t="s">
+        <v>528</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D117" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" t="s">
+        <v>139</v>
+      </c>
+      <c r="F117" t="s">
+        <v>654</v>
+      </c>
+      <c r="G117" t="s">
+        <v>140</v>
+      </c>
+      <c r="H117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" t="s">
+        <v>523</v>
+      </c>
+      <c r="F118" t="s">
+        <v>673</v>
+      </c>
+      <c r="G118" t="s">
+        <v>38</v>
+      </c>
+      <c r="H118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>76</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B119" t="s">
         <v>524</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D119" t="s">
         <v>77</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E119" t="s">
         <v>78</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G119" t="s">
         <v>79</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H119" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="42.75">
-      <c r="A108" t="s">
-        <v>408</v>
-      </c>
-      <c r="B108" t="s">
-        <v>542</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D108" t="s">
-        <v>409</v>
-      </c>
-      <c r="E108" t="s">
-        <v>410</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="G108" t="s">
-        <v>411</v>
-      </c>
-      <c r="H108" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>104</v>
-      </c>
-      <c r="B109" t="s">
-        <v>526</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D109" t="s">
-        <v>105</v>
-      </c>
-      <c r="E109" t="s">
-        <v>106</v>
-      </c>
-      <c r="F109" t="s">
-        <v>547</v>
-      </c>
-      <c r="G109" t="s">
-        <v>62</v>
-      </c>
-      <c r="H109" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>269</v>
-      </c>
-      <c r="B110" t="s">
-        <v>535</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="D110" t="s">
-        <v>270</v>
-      </c>
-      <c r="E110" t="s">
-        <v>271</v>
-      </c>
-      <c r="F110" t="s">
-        <v>621</v>
-      </c>
-      <c r="G110" t="s">
-        <v>272</v>
-      </c>
-      <c r="H110" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>231</v>
-      </c>
-      <c r="B111" t="s">
-        <v>532</v>
-      </c>
-      <c r="F111" t="s">
-        <v>680</v>
-      </c>
-      <c r="G111" t="s">
-        <v>232</v>
-      </c>
-      <c r="H111" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>286</v>
-      </c>
-      <c r="B112" t="s">
-        <v>536</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D112" t="s">
-        <v>287</v>
-      </c>
-      <c r="E112" t="s">
-        <v>288</v>
-      </c>
-      <c r="F112" t="s">
-        <v>616</v>
-      </c>
-      <c r="G112" t="s">
-        <v>289</v>
-      </c>
-      <c r="H112" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>291</v>
-      </c>
-      <c r="B113" t="s">
-        <v>536</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D113" t="s">
-        <v>292</v>
-      </c>
-      <c r="E113" t="s">
-        <v>293</v>
-      </c>
-      <c r="F113" t="s">
-        <v>548</v>
-      </c>
-      <c r="G113" t="s">
-        <v>212</v>
-      </c>
-      <c r="H113" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
-        <v>281</v>
-      </c>
-      <c r="B114" t="s">
-        <v>536</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D114" t="s">
-        <v>282</v>
-      </c>
-      <c r="E114" t="s">
-        <v>283</v>
-      </c>
-      <c r="F114" t="s">
-        <v>549</v>
-      </c>
-      <c r="G114" t="s">
-        <v>284</v>
-      </c>
-      <c r="H114" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>294</v>
-      </c>
-      <c r="B115" t="s">
-        <v>536</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D115" t="s">
-        <v>295</v>
-      </c>
-      <c r="E115" t="s">
-        <v>296</v>
-      </c>
-      <c r="F115" t="s">
-        <v>656</v>
-      </c>
-      <c r="G115" t="s">
-        <v>297</v>
-      </c>
-      <c r="H115" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>276</v>
-      </c>
-      <c r="B116" t="s">
-        <v>536</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D116" t="s">
-        <v>277</v>
-      </c>
-      <c r="E116" t="s">
-        <v>278</v>
-      </c>
-      <c r="F116" t="s">
-        <v>279</v>
-      </c>
-      <c r="G116" t="s">
-        <v>279</v>
-      </c>
-      <c r="H116" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="s">
-        <v>204</v>
-      </c>
-      <c r="B117" t="s">
-        <v>530</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D117" t="s">
-        <v>205</v>
-      </c>
-      <c r="E117" t="s">
-        <v>206</v>
-      </c>
-      <c r="F117" t="s">
-        <v>631</v>
-      </c>
-      <c r="G117" t="s">
-        <v>207</v>
-      </c>
-      <c r="H117" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>299</v>
-      </c>
-      <c r="B118" t="s">
-        <v>530</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D118" t="s">
-        <v>300</v>
-      </c>
-      <c r="E118" t="s">
-        <v>301</v>
-      </c>
-      <c r="F118" t="s">
-        <v>632</v>
-      </c>
-      <c r="G118" t="s">
-        <v>302</v>
-      </c>
-      <c r="H118" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="42.75">
-      <c r="A119" t="s">
-        <v>438</v>
-      </c>
-      <c r="B119" t="s">
-        <v>530</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E119" t="s">
-        <v>440</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="G119" t="s">
-        <v>441</v>
-      </c>
-      <c r="H119" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="B120" t="s">
-        <v>530</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D120" t="s">
-        <v>308</v>
+        <v>527</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="E120" t="s">
-        <v>309</v>
-      </c>
-      <c r="F120" t="s">
-        <v>647</v>
-      </c>
-      <c r="G120" t="s">
-        <v>310</v>
+        <v>390</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="H120" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F121" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G121" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
       <c r="H121" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>533</v>
+        <v>520</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" t="s">
+        <v>16</v>
       </c>
       <c r="F122" t="s">
-        <v>684</v>
+        <v>639</v>
       </c>
       <c r="G122" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="H122" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>225</v>
+        <v>729</v>
       </c>
       <c r="B123" t="s">
-        <v>531</v>
+        <v>730</v>
+      </c>
+      <c r="C123" t="s">
+        <v>738</v>
+      </c>
+      <c r="D123" t="s">
+        <v>731</v>
+      </c>
+      <c r="E123" t="s">
+        <v>732</v>
       </c>
       <c r="F123" t="s">
-        <v>678</v>
+        <v>739</v>
       </c>
       <c r="G123" t="s">
-        <v>226</v>
+        <v>733</v>
       </c>
       <c r="H123" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>729</v>
+        <v>69</v>
       </c>
       <c r="B124" t="s">
-        <v>730</v>
-      </c>
-      <c r="C124" t="s">
-        <v>738</v>
+        <v>520</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="D124" t="s">
-        <v>731</v>
+        <v>70</v>
       </c>
       <c r="E124" t="s">
-        <v>732</v>
-      </c>
-      <c r="F124" t="s">
-        <v>739</v>
-      </c>
-      <c r="G124" t="s">
-        <v>733</v>
+        <v>71</v>
       </c>
       <c r="H124" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>735</v>
+        <v>316</v>
       </c>
       <c r="B125" t="s">
-        <v>730</v>
-      </c>
-      <c r="C125"/>
-      <c r="F125" t="s">
-        <v>740</v>
-      </c>
-      <c r="G125" t="s">
-        <v>736</v>
+        <v>527</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D125" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" t="s">
+        <v>318</v>
       </c>
       <c r="H125" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="156.75">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>393</v>
+        <v>73</v>
       </c>
       <c r="B126" t="s">
-        <v>541</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D126" t="s">
-        <v>394</v>
-      </c>
-      <c r="E126" t="s">
-        <v>395</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>396</v>
+        <v>520</v>
       </c>
       <c r="H126" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>515</v>
+        <v>75</v>
       </c>
       <c r="B127" t="s">
-        <v>546</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D127" t="s">
-        <v>516</v>
-      </c>
-      <c r="E127" t="s">
-        <v>517</v>
-      </c>
-      <c r="F127" t="s">
-        <v>622</v>
-      </c>
-      <c r="G127" t="s">
-        <v>518</v>
-      </c>
-      <c r="H127" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="85.5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>510</v>
+        <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>545</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="D128" t="s">
-        <v>511</v>
-      </c>
-      <c r="E128" t="s">
-        <v>512</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="H128" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>523</v>
-      </c>
-      <c r="F129" t="s">
-        <v>673</v>
-      </c>
-      <c r="G129" t="s">
-        <v>38</v>
-      </c>
-      <c r="H129" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="B130" t="s">
-        <v>521</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="D130" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" t="s">
-        <v>21</v>
-      </c>
-      <c r="F130" t="s">
-        <v>619</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
+        <v>520</v>
       </c>
       <c r="H130" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>320</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
-        <v>537</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D131" t="s">
-        <v>321</v>
-      </c>
-      <c r="E131" t="s">
-        <v>322</v>
-      </c>
-      <c r="F131" t="s">
-        <v>257</v>
-      </c>
-      <c r="G131" t="s">
-        <v>257</v>
-      </c>
-      <c r="H131" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="42.75">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>505</v>
+        <v>161</v>
       </c>
       <c r="B132" t="s">
-        <v>544</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D132" t="s">
-        <v>506</v>
-      </c>
-      <c r="E132" t="s">
-        <v>507</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="G132" t="s">
-        <v>508</v>
-      </c>
-      <c r="H132" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>741</v>
+        <v>81</v>
       </c>
       <c r="B133" t="s">
-        <v>742</v>
-      </c>
-      <c r="C133" t="s">
-        <v>762</v>
-      </c>
-      <c r="D133" t="s">
-        <v>743</v>
-      </c>
-      <c r="E133" t="s">
-        <v>744</v>
-      </c>
-      <c r="F133" t="s">
-        <v>763</v>
-      </c>
-      <c r="G133" t="s">
-        <v>745</v>
-      </c>
-      <c r="H133" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="28.5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>747</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>742</v>
-      </c>
-      <c r="C134"/>
-      <c r="F134" t="s">
-        <v>767</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="H134" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="28.5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>750</v>
+        <v>99</v>
       </c>
       <c r="B135" t="s">
-        <v>742</v>
-      </c>
-      <c r="C135"/>
-      <c r="F135" t="s">
-        <v>768</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="H135" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>735</v>
+        <v>178</v>
       </c>
       <c r="B136" t="s">
-        <v>753</v>
-      </c>
-      <c r="C136"/>
-      <c r="F136" t="s">
-        <v>764</v>
-      </c>
-      <c r="G136" t="s">
-        <v>754</v>
-      </c>
-      <c r="H136" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>756</v>
+        <v>115</v>
       </c>
       <c r="B137" t="s">
-        <v>753</v>
-      </c>
-      <c r="C137"/>
-      <c r="F137" t="s">
-        <v>765</v>
-      </c>
-      <c r="G137" t="s">
-        <v>757</v>
-      </c>
-      <c r="H137" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>759</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
-        <v>753</v>
-      </c>
-      <c r="C138"/>
-      <c r="F138" t="s">
-        <v>766</v>
-      </c>
-      <c r="G138" t="s">
-        <v>760</v>
-      </c>
-      <c r="H138" t="s">
-        <v>761</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N132">
-      <sortCondition ref="B2"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N138">
+      <sortCondition ref="L2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D3DD23-EA01-4918-9799-87536BE20322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F4633-53D8-493E-884F-F056288B3410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>ホットクリムのレシピ</t>
   </si>
   <si>
-    <t xml:space="preserve">You still look a little dizzy. Take some hot crim to recover your fatigue. Crimberries are easy-to-spot ingredients favorably used for many meals and medicines. Gather 3 crimberries so I can teah you the recipe. Ask Ash if you need some guidance.|So you've returned. Here's a pot of water for you. The ingredients for hot crim are just the crimberries and the water. You'll also need fire source to cook it so go stand near the bonfire when you craft. Bring the hot crim to me once it's done.  </t>
-  </si>
-  <si>
     <t>病み上がりでまだふらふらしている様子ね。疲労によく効くホットクリムを飲むといいわ。クリムの実は採取も簡単で、色々な料理や薬の材料としても使える。作り方を教えるから私のもとにクリムの実を3つ集めて持ってきなさい。わからないことがあったらアッシュに聞いて。|クリムの実は揃ったようね。あなたの足元に水を置いた。ホットクリムの制作に必要なものはクリムの実と水と熱源。アッシュの側の焚き火で温めて作ることができるはずよ。ホットクリムが無事完成したら持ってきなさい。ご褒美をあげる。</t>
   </si>
   <si>
@@ -2610,6 +2607,9 @@
   </si>
   <si>
     <t>Você encontrou a bolsa misteriosa que Nanasu desejava. Fale com ela e entregue-a.</t>
+  </si>
+  <si>
+    <t>You still look a little dizzy. Take some hot crim to recover your fatigue. Crimberries are easy-to-spot ingredients favorably used for many meals and medicines. Gather 3 crimberries so I can teah you the recipe. Ask Ash if you need some guidance.|So you've returned. Here's a pot of water for you. The ingredients for hot crim are just the crimberries and the water. You'll also need fire source to cook it so go stand near the bonfire when you craft. Bring the hot crim to me once it's done.</t>
   </si>
 </sst>
 </file>
@@ -2998,7 +2998,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,37 +3067,37 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
-        <v>650</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
         <v>52</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3105,10 +3105,10 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -3117,1434 +3117,1434 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G4" t="s">
+        <v>768</v>
+      </c>
+      <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
+        <v>616</v>
+      </c>
+      <c r="M4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" t="s">
-        <v>617</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" t="s">
         <v>209</v>
       </c>
-      <c r="B5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>210</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" t="s">
         <v>211</v>
       </c>
-      <c r="F5" t="s">
-        <v>548</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>212</v>
-      </c>
-      <c r="H5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" t="s">
         <v>291</v>
       </c>
-      <c r="B6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>292</v>
       </c>
-      <c r="E6" t="s">
-        <v>293</v>
-      </c>
       <c r="F6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" t="s">
         <v>212</v>
-      </c>
-      <c r="H6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B7" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" t="s">
         <v>330</v>
       </c>
-      <c r="B7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>331</v>
       </c>
-      <c r="E7" t="s">
-        <v>332</v>
-      </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" t="s">
         <v>323</v>
       </c>
-      <c r="B8" t="s">
-        <v>538</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>324</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>325</v>
       </c>
-      <c r="F8" t="s">
-        <v>326</v>
-      </c>
       <c r="G8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" t="s">
         <v>327</v>
       </c>
-      <c r="B9" t="s">
-        <v>538</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>328</v>
       </c>
-      <c r="E9" t="s">
-        <v>329</v>
-      </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D10" t="s">
         <v>333</v>
       </c>
-      <c r="B10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>334</v>
       </c>
-      <c r="E10" t="s">
-        <v>335</v>
-      </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C11"/>
       <c r="F11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G11" t="s">
+        <v>759</v>
+      </c>
+      <c r="H11" t="s">
         <v>760</v>
-      </c>
-      <c r="H11" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C12"/>
       <c r="F12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G12" t="s">
+        <v>756</v>
+      </c>
+      <c r="H12" t="s">
         <v>757</v>
-      </c>
-      <c r="H12" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>519</v>
+      </c>
+      <c r="F13" t="s">
+        <v>661</v>
+      </c>
+      <c r="G13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
-        <v>520</v>
-      </c>
-      <c r="F13" t="s">
-        <v>662</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>88</v>
-      </c>
-      <c r="H13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>524</v>
+      </c>
+      <c r="F14" t="s">
+        <v>659</v>
+      </c>
+      <c r="G14" t="s">
         <v>121</v>
       </c>
-      <c r="B14" t="s">
-        <v>525</v>
-      </c>
-      <c r="F14" t="s">
-        <v>660</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>122</v>
-      </c>
-      <c r="H14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" t="s">
+        <v>662</v>
+      </c>
+      <c r="G15" t="s">
         <v>90</v>
       </c>
-      <c r="B15" t="s">
-        <v>520</v>
-      </c>
-      <c r="F15" t="s">
-        <v>663</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>91</v>
-      </c>
-      <c r="H15" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16" t="s">
+        <v>664</v>
+      </c>
+      <c r="G16" t="s">
         <v>151</v>
       </c>
-      <c r="B16" t="s">
-        <v>520</v>
-      </c>
-      <c r="F16" t="s">
-        <v>665</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>152</v>
-      </c>
-      <c r="H16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C17"/>
       <c r="F17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G17" t="s">
+        <v>735</v>
+      </c>
+      <c r="H17" t="s">
         <v>736</v>
-      </c>
-      <c r="H17" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C18"/>
       <c r="F18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G18" t="s">
+        <v>753</v>
+      </c>
+      <c r="H18" t="s">
         <v>754</v>
-      </c>
-      <c r="H18" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B19" t="s">
-        <v>520</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" t="s">
         <v>149</v>
-      </c>
-      <c r="H19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" t="s">
+        <v>665</v>
+      </c>
+      <c r="G20" t="s">
         <v>154</v>
       </c>
-      <c r="B20" t="s">
-        <v>520</v>
-      </c>
-      <c r="F20" t="s">
-        <v>666</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>155</v>
-      </c>
-      <c r="H20" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" t="s">
         <v>155</v>
-      </c>
-      <c r="H21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" t="s">
+        <v>666</v>
+      </c>
+      <c r="G22" t="s">
         <v>158</v>
       </c>
-      <c r="B22" t="s">
-        <v>520</v>
-      </c>
-      <c r="F22" t="s">
-        <v>667</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>159</v>
-      </c>
-      <c r="H22" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D23" t="s">
         <v>269</v>
       </c>
-      <c r="B23" t="s">
-        <v>535</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>270</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>620</v>
+      </c>
+      <c r="G23" t="s">
         <v>271</v>
       </c>
-      <c r="F23" t="s">
-        <v>621</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>272</v>
-      </c>
-      <c r="H23" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>524</v>
+      </c>
+      <c r="F24" t="s">
+        <v>660</v>
+      </c>
+      <c r="G24" t="s">
         <v>124</v>
       </c>
-      <c r="B24" t="s">
-        <v>525</v>
-      </c>
-      <c r="F24" t="s">
-        <v>661</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>125</v>
-      </c>
-      <c r="H24" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>519</v>
+      </c>
+      <c r="F25" t="s">
+        <v>674</v>
+      </c>
+      <c r="G25" t="s">
         <v>133</v>
       </c>
-      <c r="B25" t="s">
-        <v>520</v>
-      </c>
-      <c r="F25" t="s">
-        <v>675</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>134</v>
-      </c>
-      <c r="H25" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>524</v>
+      </c>
+      <c r="F26" t="s">
+        <v>673</v>
+      </c>
+      <c r="G26" t="s">
         <v>112</v>
       </c>
-      <c r="B26" t="s">
-        <v>525</v>
-      </c>
-      <c r="F26" t="s">
-        <v>674</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>113</v>
-      </c>
-      <c r="H26" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" t="s">
+        <v>526</v>
+      </c>
+      <c r="F27" t="s">
         <v>246</v>
       </c>
-      <c r="B27" t="s">
-        <v>527</v>
-      </c>
-      <c r="F27" t="s">
-        <v>247</v>
-      </c>
       <c r="G27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" t="s">
+        <v>519</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D29" t="s">
         <v>362</v>
       </c>
-      <c r="B29" t="s">
-        <v>520</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>363</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>635</v>
+      </c>
+      <c r="G29" t="s">
         <v>364</v>
       </c>
-      <c r="F29" t="s">
-        <v>636</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>365</v>
-      </c>
-      <c r="H29" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" t="s">
+        <v>535</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D30" t="s">
         <v>286</v>
       </c>
-      <c r="B30" t="s">
-        <v>536</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>287</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>615</v>
+      </c>
+      <c r="G30" t="s">
         <v>288</v>
       </c>
-      <c r="F30" t="s">
-        <v>616</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>289</v>
-      </c>
-      <c r="H30" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" t="s">
+        <v>532</v>
+      </c>
+      <c r="F31" t="s">
+        <v>683</v>
+      </c>
+      <c r="G31" t="s">
         <v>243</v>
       </c>
-      <c r="B31" t="s">
-        <v>533</v>
-      </c>
-      <c r="F31" t="s">
-        <v>684</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>244</v>
-      </c>
-      <c r="H31" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>740</v>
+      </c>
+      <c r="B32" t="s">
         <v>741</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>761</v>
+      </c>
+      <c r="D32" t="s">
         <v>742</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
+        <v>743</v>
+      </c>
+      <c r="F32" t="s">
         <v>762</v>
       </c>
-      <c r="D32" t="s">
-        <v>743</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>744</v>
       </c>
-      <c r="F32" t="s">
-        <v>763</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>745</v>
-      </c>
-      <c r="H32" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>514</v>
+      </c>
+      <c r="B33" t="s">
+        <v>545</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D33" t="s">
         <v>515</v>
       </c>
-      <c r="B33" t="s">
-        <v>546</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>516</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>621</v>
+      </c>
+      <c r="G33" t="s">
         <v>517</v>
       </c>
-      <c r="F33" t="s">
-        <v>622</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>518</v>
-      </c>
-      <c r="H33" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" t="s">
+        <v>526</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D34" t="s">
         <v>249</v>
       </c>
-      <c r="B34" t="s">
-        <v>527</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>250</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>584</v>
+      </c>
+      <c r="G34" t="s">
         <v>251</v>
       </c>
-      <c r="F34" t="s">
-        <v>585</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>252</v>
-      </c>
-      <c r="H34" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>422</v>
+      </c>
+      <c r="B35" t="s">
+        <v>526</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D35" t="s">
         <v>423</v>
       </c>
-      <c r="B35" t="s">
-        <v>527</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>424</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>641</v>
+      </c>
+      <c r="G35" t="s">
         <v>425</v>
       </c>
-      <c r="F35" t="s">
-        <v>642</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>426</v>
-      </c>
-      <c r="H35" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
-        <v>527</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>117</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>657</v>
+      </c>
+      <c r="G36" t="s">
         <v>118</v>
       </c>
-      <c r="F36" t="s">
-        <v>658</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>119</v>
-      </c>
-      <c r="H36" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="D37" t="s">
         <v>428</v>
       </c>
-      <c r="B37" t="s">
-        <v>527</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>429</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G37" t="s">
         <v>430</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>431</v>
-      </c>
-      <c r="H37" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>519</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D38" t="s">
         <v>64</v>
       </c>
-      <c r="B38" t="s">
-        <v>520</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>65</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>654</v>
+      </c>
+      <c r="G38" t="s">
         <v>66</v>
       </c>
-      <c r="F38" t="s">
-        <v>655</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>67</v>
-      </c>
-      <c r="H38" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>343</v>
+      </c>
+      <c r="B39" t="s">
+        <v>526</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D39" t="s">
         <v>344</v>
       </c>
-      <c r="B39" t="s">
-        <v>527</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>345</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>624</v>
+      </c>
+      <c r="G39" t="s">
         <v>346</v>
       </c>
-      <c r="F39" t="s">
-        <v>625</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>347</v>
-      </c>
-      <c r="H39" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>369</v>
+      </c>
+      <c r="B40" t="s">
+        <v>526</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D40" t="s">
         <v>370</v>
       </c>
-      <c r="B40" t="s">
-        <v>527</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>371</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>651</v>
+      </c>
+      <c r="G40" t="s">
         <v>372</v>
       </c>
-      <c r="F40" t="s">
-        <v>652</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>373</v>
-      </c>
-      <c r="H40" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>356</v>
+      </c>
+      <c r="B41" t="s">
+        <v>526</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D41" t="s">
         <v>357</v>
       </c>
-      <c r="B41" t="s">
-        <v>527</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>358</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
+        <v>637</v>
+      </c>
+      <c r="G41" t="s">
         <v>359</v>
       </c>
-      <c r="F41" t="s">
-        <v>638</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>360</v>
-      </c>
-      <c r="H41" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42" t="s">
+        <v>526</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D42" t="s">
         <v>383</v>
       </c>
-      <c r="B42" t="s">
-        <v>527</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>384</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>639</v>
+      </c>
+      <c r="G42" t="s">
         <v>385</v>
       </c>
-      <c r="F42" t="s">
-        <v>640</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>386</v>
-      </c>
-      <c r="H42" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>494</v>
+      </c>
+      <c r="B43" t="s">
+        <v>526</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B43" t="s">
-        <v>527</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" t="s">
         <v>496</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="G43" t="s">
         <v>497</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>498</v>
-      </c>
-      <c r="H43" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" t="s">
+        <v>529</v>
+      </c>
+      <c r="F44" t="s">
+        <v>687</v>
+      </c>
+      <c r="G44" t="s">
         <v>304</v>
       </c>
-      <c r="B44" t="s">
-        <v>530</v>
-      </c>
-      <c r="F44" t="s">
-        <v>688</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>305</v>
-      </c>
-      <c r="H44" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>447</v>
+      </c>
+      <c r="B45" t="s">
+        <v>526</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="D45" t="s">
         <v>448</v>
       </c>
-      <c r="B45" t="s">
-        <v>527</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>449</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G45" t="s">
         <v>450</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>451</v>
-      </c>
-      <c r="H45" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>504</v>
+      </c>
+      <c r="B46" t="s">
+        <v>543</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D46" t="s">
         <v>505</v>
       </c>
-      <c r="B46" t="s">
-        <v>544</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>506</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G46" t="s">
         <v>507</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>508</v>
-      </c>
-      <c r="H46" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>519</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D47" t="s">
         <v>82</v>
       </c>
-      <c r="B47" t="s">
-        <v>520</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>83</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>622</v>
+      </c>
+      <c r="G47" t="s">
         <v>84</v>
       </c>
-      <c r="F47" t="s">
-        <v>623</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>85</v>
-      </c>
-      <c r="H47" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" t="s">
+        <v>519</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D48" t="s">
         <v>143</v>
       </c>
-      <c r="B48" t="s">
-        <v>520</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>144</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>652</v>
+      </c>
+      <c r="G48" t="s">
         <v>145</v>
       </c>
-      <c r="F48" t="s">
-        <v>653</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>146</v>
-      </c>
-      <c r="H48" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>442</v>
+      </c>
+      <c r="B49" t="s">
+        <v>526</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D49" t="s">
         <v>443</v>
       </c>
-      <c r="B49" t="s">
-        <v>527</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>444</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G49" t="s">
         <v>445</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>446</v>
-      </c>
-      <c r="H49" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>397</v>
+      </c>
+      <c r="B50" t="s">
+        <v>526</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B50" t="s">
-        <v>527</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" t="s">
         <v>399</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G50" t="s">
         <v>400</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>401</v>
-      </c>
-      <c r="H50" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>524</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D51" t="s">
         <v>94</v>
       </c>
-      <c r="B51" t="s">
-        <v>525</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>95</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
+        <v>623</v>
+      </c>
+      <c r="G51" t="s">
         <v>96</v>
       </c>
-      <c r="F51" t="s">
-        <v>624</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>97</v>
-      </c>
-      <c r="H51" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" t="s">
+        <v>526</v>
+      </c>
+      <c r="F52" t="s">
+        <v>676</v>
+      </c>
+      <c r="G52" t="s">
         <v>222</v>
       </c>
-      <c r="B52" t="s">
-        <v>527</v>
-      </c>
-      <c r="F52" t="s">
-        <v>677</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>223</v>
-      </c>
-      <c r="H52" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" t="s">
+        <v>533</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D53" t="s">
         <v>264</v>
       </c>
-      <c r="B53" t="s">
-        <v>534</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>265</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
+        <v>640</v>
+      </c>
+      <c r="G53" t="s">
         <v>266</v>
       </c>
-      <c r="F53" t="s">
-        <v>641</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>267</v>
-      </c>
-      <c r="H53" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>509</v>
+      </c>
+      <c r="B54" t="s">
+        <v>544</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D54" t="s">
         <v>510</v>
       </c>
-      <c r="B54" t="s">
-        <v>545</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>511</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" t="s">
         <v>513</v>
-      </c>
-      <c r="H54" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" t="s">
+        <v>526</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D55" t="s">
         <v>199</v>
       </c>
-      <c r="B55" t="s">
-        <v>527</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>200</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>201</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" t="s">
         <v>202</v>
-      </c>
-      <c r="G55" t="s">
-        <v>202</v>
-      </c>
-      <c r="H55" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>524</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D56" t="s">
         <v>167</v>
       </c>
-      <c r="B56" t="s">
-        <v>525</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>168</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
+        <v>625</v>
+      </c>
+      <c r="G56" t="s">
         <v>169</v>
       </c>
-      <c r="F56" t="s">
-        <v>626</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>170</v>
-      </c>
-      <c r="H56" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>402</v>
+      </c>
+      <c r="B57" t="s">
+        <v>526</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D57" t="s">
         <v>403</v>
       </c>
-      <c r="B57" t="s">
-        <v>527</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>404</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="G57" t="s">
         <v>405</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>406</v>
-      </c>
-      <c r="H57" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>374</v>
+      </c>
+      <c r="B58" t="s">
+        <v>538</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D58" t="s">
         <v>375</v>
       </c>
-      <c r="B58" t="s">
-        <v>539</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>376</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>634</v>
+      </c>
+      <c r="G58" t="s">
         <v>377</v>
       </c>
-      <c r="F58" t="s">
-        <v>635</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>378</v>
-      </c>
-      <c r="H58" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" t="s">
+        <v>526</v>
+      </c>
+      <c r="F59" t="s">
+        <v>678</v>
+      </c>
+      <c r="G59" t="s">
         <v>228</v>
       </c>
-      <c r="B59" t="s">
-        <v>527</v>
-      </c>
-      <c r="F59" t="s">
-        <v>679</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>229</v>
-      </c>
-      <c r="H59" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" t="s">
+        <v>530</v>
+      </c>
+      <c r="F60" t="s">
+        <v>677</v>
+      </c>
+      <c r="G60" t="s">
         <v>225</v>
       </c>
-      <c r="B60" t="s">
-        <v>531</v>
-      </c>
-      <c r="F60" t="s">
-        <v>678</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>226</v>
-      </c>
-      <c r="H60" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" t="s">
+        <v>526</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="D61" t="s">
         <v>468</v>
       </c>
-      <c r="B61" t="s">
-        <v>527</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>469</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G61" t="s">
         <v>470</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>471</v>
-      </c>
-      <c r="H61" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>417</v>
+      </c>
+      <c r="B62" t="s">
+        <v>526</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D62" t="s">
         <v>418</v>
       </c>
-      <c r="B62" t="s">
-        <v>527</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>419</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>658</v>
+      </c>
+      <c r="G62" t="s">
         <v>420</v>
       </c>
-      <c r="F62" t="s">
-        <v>659</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>421</v>
-      </c>
-      <c r="H62" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" t="s">
+        <v>526</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D63" t="s">
         <v>254</v>
       </c>
-      <c r="B63" t="s">
-        <v>527</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>255</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>256</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
+        <v>256</v>
+      </c>
+      <c r="H63" t="s">
         <v>257</v>
-      </c>
-      <c r="G63" t="s">
-        <v>257</v>
-      </c>
-      <c r="H63" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" t="s">
+        <v>536</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D64" t="s">
         <v>320</v>
       </c>
-      <c r="B64" t="s">
-        <v>537</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>321</v>
       </c>
-      <c r="E64" t="s">
-        <v>322</v>
-      </c>
       <c r="F64" t="s">
+        <v>256</v>
+      </c>
+      <c r="G64" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64" t="s">
         <v>257</v>
-      </c>
-      <c r="G64" t="s">
-        <v>257</v>
-      </c>
-      <c r="H64" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" t="s">
+        <v>526</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D65" t="s">
         <v>312</v>
       </c>
-      <c r="B65" t="s">
-        <v>527</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>313</v>
       </c>
-      <c r="E65" t="s">
-        <v>314</v>
-      </c>
       <c r="F65" t="s">
+        <v>256</v>
+      </c>
+      <c r="G65" t="s">
+        <v>256</v>
+      </c>
+      <c r="H65" t="s">
         <v>257</v>
-      </c>
-      <c r="G65" t="s">
-        <v>257</v>
-      </c>
-      <c r="H65" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B66" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D66" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" t="s">
         <v>313</v>
       </c>
-      <c r="E66" t="s">
-        <v>314</v>
-      </c>
       <c r="F66" t="s">
+        <v>256</v>
+      </c>
+      <c r="G66" t="s">
+        <v>256</v>
+      </c>
+      <c r="H66" t="s">
         <v>257</v>
-      </c>
-      <c r="G66" t="s">
-        <v>257</v>
-      </c>
-      <c r="H66" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4552,10 +4552,10 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D67" t="s">
         <v>28</v>
@@ -4564,7 +4564,7 @@
         <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G67" t="s">
         <v>30</v>
@@ -4575,825 +4575,825 @@
     </row>
     <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B68" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C68"/>
       <c r="F68" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="H68" t="s">
         <v>748</v>
-      </c>
-      <c r="H68" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>484</v>
+      </c>
+      <c r="B69" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D69" t="s">
         <v>485</v>
       </c>
-      <c r="B69" t="s">
-        <v>527</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>486</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G69" t="s">
         <v>487</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>488</v>
-      </c>
-      <c r="H69" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>412</v>
+      </c>
+      <c r="B70" t="s">
+        <v>542</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D70" t="s">
         <v>413</v>
       </c>
-      <c r="B70" t="s">
-        <v>543</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>414</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
+        <v>626</v>
+      </c>
+      <c r="G70" t="s">
         <v>415</v>
       </c>
-      <c r="F70" t="s">
-        <v>627</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>416</v>
-      </c>
-      <c r="H70" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>280</v>
+      </c>
+      <c r="B71" t="s">
+        <v>535</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D71" t="s">
         <v>281</v>
       </c>
-      <c r="B71" t="s">
-        <v>536</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>282</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
+        <v>548</v>
+      </c>
+      <c r="G71" t="s">
         <v>283</v>
       </c>
-      <c r="F71" t="s">
-        <v>549</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>284</v>
-      </c>
-      <c r="H71" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>392</v>
+      </c>
+      <c r="B72" t="s">
+        <v>540</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D72" t="s">
         <v>393</v>
       </c>
-      <c r="B72" t="s">
-        <v>541</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>394</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" t="s">
         <v>396</v>
-      </c>
-      <c r="H72" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>479</v>
+      </c>
+      <c r="B73" t="s">
+        <v>526</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D73" t="s">
         <v>480</v>
       </c>
-      <c r="B73" t="s">
-        <v>527</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>481</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="G73" t="s">
         <v>482</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>483</v>
-      </c>
-      <c r="H73" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
+        <v>528</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D74" t="s">
         <v>184</v>
       </c>
-      <c r="B74" t="s">
-        <v>529</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>185</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
+        <v>648</v>
+      </c>
+      <c r="G74" t="s">
         <v>186</v>
       </c>
-      <c r="F74" t="s">
-        <v>649</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>187</v>
-      </c>
-      <c r="H74" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" t="s">
+        <v>531</v>
+      </c>
+      <c r="F75" t="s">
+        <v>679</v>
+      </c>
+      <c r="G75" t="s">
         <v>231</v>
       </c>
-      <c r="B75" t="s">
-        <v>532</v>
-      </c>
-      <c r="F75" t="s">
-        <v>680</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>232</v>
-      </c>
-      <c r="H75" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>335</v>
+      </c>
+      <c r="B76" t="s">
+        <v>519</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D76" t="s">
         <v>336</v>
       </c>
-      <c r="B76" t="s">
-        <v>520</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>337</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
+        <v>632</v>
+      </c>
+      <c r="G76" t="s">
         <v>338</v>
       </c>
-      <c r="F76" t="s">
-        <v>633</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>339</v>
-      </c>
-      <c r="H76" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>519</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D77" t="s">
         <v>128</v>
       </c>
-      <c r="B77" t="s">
-        <v>520</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>129</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
+        <v>650</v>
+      </c>
+      <c r="G77" t="s">
         <v>130</v>
       </c>
-      <c r="F77" t="s">
-        <v>651</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>131</v>
-      </c>
-      <c r="H77" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>489</v>
+      </c>
+      <c r="B78" t="s">
+        <v>526</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D78" t="s">
         <v>490</v>
       </c>
-      <c r="B78" t="s">
-        <v>527</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>491</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G78" t="s">
         <v>492</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>493</v>
-      </c>
-      <c r="H78" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" t="s">
+        <v>528</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D79" t="s">
         <v>189</v>
       </c>
-      <c r="B79" t="s">
-        <v>529</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>190</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
+        <v>656</v>
+      </c>
+      <c r="G79" t="s">
         <v>191</v>
       </c>
-      <c r="F79" t="s">
-        <v>657</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>192</v>
-      </c>
-      <c r="H79" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>275</v>
+      </c>
+      <c r="B80" t="s">
+        <v>535</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D80" t="s">
         <v>276</v>
       </c>
-      <c r="B80" t="s">
-        <v>536</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>277</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>278</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
+        <v>278</v>
+      </c>
+      <c r="H80" t="s">
         <v>279</v>
-      </c>
-      <c r="G80" t="s">
-        <v>279</v>
-      </c>
-      <c r="H80" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" t="s">
+        <v>533</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D81" t="s">
         <v>259</v>
       </c>
-      <c r="B81" t="s">
-        <v>534</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>260</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
+        <v>585</v>
+      </c>
+      <c r="G81" t="s">
         <v>261</v>
       </c>
-      <c r="F81" t="s">
-        <v>586</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>262</v>
-      </c>
-      <c r="H81" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>499</v>
+      </c>
+      <c r="B82" t="s">
+        <v>526</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D82" t="s">
         <v>500</v>
       </c>
-      <c r="B82" t="s">
-        <v>527</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>501</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G82" t="s">
         <v>502</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>503</v>
-      </c>
-      <c r="H82" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>306</v>
+      </c>
+      <c r="B83" t="s">
+        <v>529</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D83" t="s">
         <v>307</v>
       </c>
-      <c r="B83" t="s">
-        <v>530</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>308</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
+        <v>646</v>
+      </c>
+      <c r="G83" t="s">
         <v>309</v>
       </c>
-      <c r="F83" t="s">
-        <v>647</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>310</v>
-      </c>
-      <c r="H83" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>472</v>
+      </c>
+      <c r="B84" t="s">
+        <v>526</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D84" t="s">
         <v>473</v>
       </c>
-      <c r="B84" t="s">
-        <v>527</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>474</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="G84" t="s">
         <v>475</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>476</v>
-      </c>
-      <c r="H84" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>477</v>
+      </c>
+      <c r="B85" t="s">
+        <v>526</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D85" t="s">
+        <v>473</v>
+      </c>
+      <c r="E85" t="s">
+        <v>474</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G85" t="s">
+        <v>475</v>
+      </c>
+      <c r="H85" t="s">
         <v>478</v>
-      </c>
-      <c r="B85" t="s">
-        <v>527</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D85" t="s">
-        <v>474</v>
-      </c>
-      <c r="E85" t="s">
-        <v>475</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="G85" t="s">
-        <v>476</v>
-      </c>
-      <c r="H85" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>529</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D86" t="s">
         <v>204</v>
       </c>
-      <c r="B86" t="s">
-        <v>530</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>205</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
+        <v>630</v>
+      </c>
+      <c r="G86" t="s">
         <v>206</v>
       </c>
-      <c r="F86" t="s">
-        <v>631</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>207</v>
-      </c>
-      <c r="H86" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" t="s">
+        <v>528</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D87" t="s">
         <v>194</v>
       </c>
-      <c r="B87" t="s">
-        <v>529</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>195</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
+        <v>586</v>
+      </c>
+      <c r="G87" t="s">
         <v>196</v>
       </c>
-      <c r="F87" t="s">
-        <v>587</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>197</v>
-      </c>
-      <c r="H87" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" t="s">
+        <v>519</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D88" t="s">
         <v>54</v>
       </c>
-      <c r="B88" t="s">
-        <v>520</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>55</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
+        <v>645</v>
+      </c>
+      <c r="G88" t="s">
         <v>56</v>
       </c>
-      <c r="F88" t="s">
-        <v>646</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>57</v>
-      </c>
-      <c r="H88" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>457</v>
+      </c>
+      <c r="B89" t="s">
+        <v>526</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D89" t="s">
         <v>458</v>
       </c>
-      <c r="B89" t="s">
-        <v>527</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>459</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G89" t="s">
         <v>460</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>461</v>
-      </c>
-      <c r="H89" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>524</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D90" t="s">
         <v>107</v>
       </c>
-      <c r="B90" t="s">
-        <v>525</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>108</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
+        <v>636</v>
+      </c>
+      <c r="G90" t="s">
         <v>109</v>
       </c>
-      <c r="F90" t="s">
-        <v>637</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>110</v>
-      </c>
-      <c r="H90" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>348</v>
+      </c>
+      <c r="B91" t="s">
+        <v>519</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D91" t="s">
         <v>349</v>
       </c>
-      <c r="B91" t="s">
-        <v>520</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>350</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
+        <v>633</v>
+      </c>
+      <c r="G91" t="s">
         <v>351</v>
       </c>
-      <c r="F91" t="s">
-        <v>634</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>352</v>
-      </c>
-      <c r="H91" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" t="s">
+        <v>526</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D92" t="s">
         <v>214</v>
       </c>
-      <c r="B92" t="s">
-        <v>527</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>215</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
+        <v>628</v>
+      </c>
+      <c r="G92" t="s">
         <v>216</v>
       </c>
-      <c r="F92" t="s">
-        <v>629</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>217</v>
-      </c>
-      <c r="H92" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" t="s">
+        <v>535</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D93" t="s">
         <v>294</v>
       </c>
-      <c r="B93" t="s">
-        <v>536</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>295</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
+        <v>655</v>
+      </c>
+      <c r="G93" t="s">
         <v>296</v>
       </c>
-      <c r="F93" t="s">
-        <v>656</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>297</v>
-      </c>
-      <c r="H93" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" t="s">
+        <v>528</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D94" t="s">
         <v>179</v>
       </c>
-      <c r="B94" t="s">
-        <v>529</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>180</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
+        <v>643</v>
+      </c>
+      <c r="G94" t="s">
         <v>181</v>
       </c>
-      <c r="F94" t="s">
-        <v>644</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>182</v>
-      </c>
-      <c r="H94" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" t="s">
+        <v>526</v>
+      </c>
+      <c r="F95" t="s">
+        <v>681</v>
+      </c>
+      <c r="G95" t="s">
         <v>237</v>
       </c>
-      <c r="B95" t="s">
-        <v>527</v>
-      </c>
-      <c r="F95" t="s">
-        <v>682</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>238</v>
-      </c>
-      <c r="H95" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>432</v>
+      </c>
+      <c r="B96" t="s">
+        <v>526</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D96" t="s">
         <v>433</v>
       </c>
-      <c r="B96" t="s">
-        <v>527</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>434</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G96" t="s">
         <v>435</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>436</v>
-      </c>
-      <c r="H96" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" t="s">
+        <v>524</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D97" t="s">
         <v>162</v>
       </c>
-      <c r="B97" t="s">
-        <v>525</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>163</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
+        <v>627</v>
+      </c>
+      <c r="G97" t="s">
         <v>164</v>
       </c>
-      <c r="F97" t="s">
-        <v>628</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>165</v>
-      </c>
-      <c r="H97" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" t="s">
+        <v>529</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D98" t="s">
         <v>299</v>
       </c>
-      <c r="B98" t="s">
-        <v>530</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>300</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
+        <v>631</v>
+      </c>
+      <c r="G98" t="s">
         <v>301</v>
       </c>
-      <c r="F98" t="s">
-        <v>632</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>302</v>
-      </c>
-      <c r="H98" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>233</v>
+      </c>
+      <c r="B99" t="s">
+        <v>526</v>
+      </c>
+      <c r="F99" t="s">
+        <v>680</v>
+      </c>
+      <c r="G99" t="s">
         <v>234</v>
       </c>
-      <c r="B99" t="s">
-        <v>527</v>
-      </c>
-      <c r="F99" t="s">
-        <v>681</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>235</v>
-      </c>
-      <c r="H99" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>437</v>
+      </c>
+      <c r="B100" t="s">
+        <v>529</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B100" t="s">
-        <v>530</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" t="s">
         <v>439</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G100" t="s">
         <v>440</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>441</v>
-      </c>
-      <c r="H100" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -5401,10 +5401,10 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D101" t="s">
         <v>20</v>
@@ -5413,7 +5413,7 @@
         <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G101" t="s">
         <v>22</v>
@@ -5424,304 +5424,304 @@
     </row>
     <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>407</v>
+      </c>
+      <c r="B102" t="s">
+        <v>541</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D102" t="s">
         <v>408</v>
       </c>
-      <c r="B102" t="s">
-        <v>542</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>409</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G102" t="s">
         <v>410</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>411</v>
-      </c>
-      <c r="H102" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>452</v>
+      </c>
+      <c r="B103" t="s">
+        <v>526</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="D103" t="s">
         <v>453</v>
       </c>
-      <c r="B103" t="s">
-        <v>527</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>454</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G103" t="s">
         <v>455</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>456</v>
-      </c>
-      <c r="H103" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>172</v>
+      </c>
+      <c r="B104" t="s">
+        <v>528</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D104" t="s">
         <v>173</v>
       </c>
-      <c r="B104" t="s">
-        <v>529</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>174</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
+        <v>644</v>
+      </c>
+      <c r="G104" t="s">
         <v>175</v>
       </c>
-      <c r="F104" t="s">
-        <v>645</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>176</v>
-      </c>
-      <c r="H104" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>524</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D105" t="s">
         <v>100</v>
       </c>
-      <c r="B105" t="s">
-        <v>525</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>101</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
+        <v>546</v>
+      </c>
+      <c r="G105" t="s">
+        <v>61</v>
+      </c>
+      <c r="H105" t="s">
         <v>102</v>
-      </c>
-      <c r="F105" t="s">
-        <v>547</v>
-      </c>
-      <c r="G105" t="s">
-        <v>62</v>
-      </c>
-      <c r="H105" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" t="s">
+        <v>519</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D106" t="s">
         <v>59</v>
       </c>
-      <c r="B106" t="s">
-        <v>520</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>60</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
+        <v>546</v>
+      </c>
+      <c r="G106" t="s">
         <v>61</v>
       </c>
-      <c r="F106" t="s">
-        <v>547</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>62</v>
-      </c>
-      <c r="H106" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>525</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D107" t="s">
         <v>104</v>
       </c>
-      <c r="B107" t="s">
-        <v>526</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>105</v>
       </c>
-      <c r="E107" t="s">
-        <v>106</v>
-      </c>
       <c r="F107" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" t="s">
+        <v>526</v>
+      </c>
+      <c r="F108" t="s">
+        <v>675</v>
+      </c>
+      <c r="G108" t="s">
         <v>219</v>
       </c>
-      <c r="B108" t="s">
-        <v>527</v>
-      </c>
-      <c r="F108" t="s">
-        <v>676</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>220</v>
-      </c>
-      <c r="H108" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>340</v>
+      </c>
+      <c r="B109" t="s">
+        <v>519</v>
+      </c>
+      <c r="F109" t="s">
+        <v>667</v>
+      </c>
+      <c r="G109" t="s">
         <v>341</v>
       </c>
-      <c r="B109" t="s">
-        <v>520</v>
-      </c>
-      <c r="F109" t="s">
-        <v>668</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>342</v>
-      </c>
-      <c r="H109" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>366</v>
+      </c>
+      <c r="B110" t="s">
+        <v>519</v>
+      </c>
+      <c r="F110" t="s">
+        <v>670</v>
+      </c>
+      <c r="G110" t="s">
         <v>367</v>
       </c>
-      <c r="B110" t="s">
-        <v>520</v>
-      </c>
-      <c r="F110" t="s">
-        <v>671</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>368</v>
-      </c>
-      <c r="H110" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>353</v>
+      </c>
+      <c r="B111" t="s">
+        <v>519</v>
+      </c>
+      <c r="F111" t="s">
+        <v>668</v>
+      </c>
+      <c r="G111" t="s">
         <v>354</v>
       </c>
-      <c r="B111" t="s">
-        <v>520</v>
-      </c>
-      <c r="F111" t="s">
-        <v>669</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>355</v>
-      </c>
-      <c r="H111" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>379</v>
+      </c>
+      <c r="B112" t="s">
+        <v>539</v>
+      </c>
+      <c r="F112" t="s">
+        <v>669</v>
+      </c>
+      <c r="G112" t="s">
         <v>380</v>
       </c>
-      <c r="B112" t="s">
-        <v>540</v>
-      </c>
-      <c r="F112" t="s">
-        <v>670</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>381</v>
-      </c>
-      <c r="H112" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>462</v>
+      </c>
+      <c r="B113" t="s">
+        <v>526</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D113" t="s">
         <v>463</v>
       </c>
-      <c r="B113" t="s">
-        <v>527</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>464</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G113" t="s">
         <v>465</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>466</v>
-      </c>
-      <c r="H113" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B114" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C114"/>
       <c r="F114" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G114" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="H114" t="s">
         <v>751</v>
-      </c>
-      <c r="H114" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>239</v>
+      </c>
+      <c r="B115" t="s">
+        <v>526</v>
+      </c>
+      <c r="F115" t="s">
+        <v>682</v>
+      </c>
+      <c r="G115" t="s">
         <v>240</v>
       </c>
-      <c r="B115" t="s">
-        <v>527</v>
-      </c>
-      <c r="F115" t="s">
-        <v>683</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>241</v>
-      </c>
-      <c r="H115" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -5729,10 +5729,10 @@
         <v>32</v>
       </c>
       <c r="B116" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D116" t="s">
         <v>33</v>
@@ -5741,7 +5741,7 @@
         <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G116" t="s">
         <v>35</v>
@@ -5752,28 +5752,28 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>527</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D117" t="s">
         <v>137</v>
       </c>
-      <c r="B117" t="s">
-        <v>528</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>138</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
+        <v>653</v>
+      </c>
+      <c r="G117" t="s">
         <v>139</v>
       </c>
-      <c r="F117" t="s">
-        <v>654</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>140</v>
-      </c>
-      <c r="H117" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5781,10 +5781,10 @@
         <v>37</v>
       </c>
       <c r="B118" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F118" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G118" t="s">
         <v>38</v>
@@ -5795,54 +5795,54 @@
     </row>
     <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" t="s">
+        <v>523</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D119" t="s">
         <v>76</v>
       </c>
-      <c r="B119" t="s">
-        <v>524</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>77</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G119" t="s">
         <v>78</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>79</v>
-      </c>
-      <c r="H119" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>387</v>
+      </c>
+      <c r="B120" t="s">
+        <v>526</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B120" t="s">
-        <v>527</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" t="s">
         <v>389</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" t="s">
         <v>391</v>
-      </c>
-      <c r="H120" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5850,10 +5850,10 @@
         <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F121" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G121" t="s">
         <v>25</v>
@@ -5867,10 +5867,10 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
@@ -5879,7 +5879,7 @@
         <v>16</v>
       </c>
       <c r="F122" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G122" t="s">
         <v>17</v>
@@ -5890,178 +5890,178 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>728</v>
+      </c>
+      <c r="B123" t="s">
         <v>729</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>737</v>
+      </c>
+      <c r="D123" t="s">
         <v>730</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
+        <v>731</v>
+      </c>
+      <c r="F123" t="s">
         <v>738</v>
       </c>
-      <c r="D123" t="s">
-        <v>731</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="G123" t="s">
         <v>732</v>
       </c>
-      <c r="F123" t="s">
-        <v>739</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>733</v>
-      </c>
-      <c r="H123" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>68</v>
+      </c>
+      <c r="B124" t="s">
+        <v>519</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D124" t="s">
         <v>69</v>
       </c>
-      <c r="B124" t="s">
-        <v>520</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>70</v>
       </c>
-      <c r="E124" t="s">
+      <c r="H124" t="s">
         <v>71</v>
-      </c>
-      <c r="H124" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>315</v>
+      </c>
+      <c r="B125" t="s">
+        <v>526</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D125" t="s">
         <v>316</v>
       </c>
-      <c r="B125" t="s">
-        <v>527</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>317</v>
       </c>
-      <c r="E125" t="s">
+      <c r="H125" t="s">
         <v>318</v>
-      </c>
-      <c r="H125" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" t="s">
+        <v>519</v>
+      </c>
+      <c r="H126" t="s">
         <v>73</v>
-      </c>
-      <c r="B126" t="s">
-        <v>520</v>
-      </c>
-      <c r="H126" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" t="s">
+        <v>519</v>
+      </c>
+      <c r="H130" t="s">
         <v>274</v>
-      </c>
-      <c r="B130" t="s">
-        <v>520</v>
-      </c>
-      <c r="H130" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B131" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B133" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B135" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B136" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B138" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
